--- a/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>0.01604218413715601</v>
+        <v>0.01602538712604665</v>
       </c>
       <c r="F2">
         <v>0.5143769291059245</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.008568380880128028</v>
+        <v>0.008136642608668143</v>
       </c>
       <c r="F4">
         <v>0.5019405215015738</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.01469047034401202</v>
+        <v>0.01381756742608485</v>
       </c>
       <c r="F5">
         <v>0.5043501217382997</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>95</v>
       </c>
       <c r="E6">
-        <v>0.006249064289211449</v>
+        <v>0.006231667974460159</v>
       </c>
       <c r="F6">
         <v>0.5100271960020806</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.01604218413715601</v>
+        <v>0.01602538712604665</v>
       </c>
       <c r="F2">
         <v>0.7219057192834377</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.008568380880128028</v>
+        <v>0.008136642608668143</v>
       </c>
       <c r="F4">
         <v>0.7000465385245872</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>143</v>
       </c>
       <c r="E5">
-        <v>0.01469047034401202</v>
+        <v>0.01381756742608485</v>
       </c>
       <c r="F5">
         <v>0.7259341375866982</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.006249064289211449</v>
+        <v>0.006231667974460159</v>
       </c>
       <c r="F6">
         <v>0.7068908473890613</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.01604218413715601</v>
+        <v>0.01602538712604665</v>
       </c>
       <c r="F2">
         <v>0.802101589925051</v>
       </c>
       <c r="G2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.008568380880128028</v>
+        <v>0.008136642608668143</v>
       </c>
       <c r="F4">
         <v>0.8170579734565314</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>152</v>
       </c>
       <c r="E5">
-        <v>0.01469047034401202</v>
+        <v>0.01381756742608485</v>
       </c>
       <c r="F5">
         <v>0.819900026714135</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>111</v>
       </c>
       <c r="E6">
-        <v>0.006249064289211449</v>
+        <v>0.006231667974460159</v>
       </c>
       <c r="F6">
         <v>0.8045458099223985</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>147</v>
       </c>
       <c r="E2">
-        <v>0.01604218413715601</v>
+        <v>0.01602538712604665</v>
       </c>
       <c r="F2">
         <v>0.9100225771248679</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>163</v>
       </c>
       <c r="E4">
-        <v>0.008568380880128028</v>
+        <v>0.008136642608668143</v>
       </c>
       <c r="F4">
         <v>0.9004051716493686</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>163</v>
       </c>
       <c r="E5">
-        <v>0.01469047034401202</v>
+        <v>0.01381756742608485</v>
       </c>
       <c r="F5">
         <v>0.9005938452492238</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>132</v>
       </c>
       <c r="E6">
-        <v>0.006249064289211449</v>
+        <v>0.006231667974460159</v>
       </c>
       <c r="F6">
         <v>0.9022872871679801</v>
       </c>
       <c r="G6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>15</v>

--- a/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000483460028970294</v>
+        <v>0.0004435780038513256</v>
       </c>
       <c r="C2">
-        <v>0.0004486884404828001</v>
+        <v>0.0004085269648426958</v>
       </c>
       <c r="D2">
-        <v>0.0006126392133512146</v>
+        <v>0.0005737953688839052</v>
       </c>
       <c r="E2">
-        <v>0.0006387107722171452</v>
+        <v>0.0006000764583185795</v>
       </c>
       <c r="F2">
-        <v>0.0007860482658082097</v>
+        <v>0.0007485980663305797</v>
       </c>
       <c r="G2">
-        <v>0.0006515470716587876</v>
+        <v>0.0006130159198740182</v>
       </c>
       <c r="H2">
-        <v>0.0005016860481774925</v>
+        <v>0.0004619505009960367</v>
       </c>
       <c r="I2">
-        <v>0.0002352773197658284</v>
+        <v>0.0001934007125630116</v>
       </c>
       <c r="J2">
-        <v>7.551227671534173E-05</v>
+        <v>3.23516779987113E-05</v>
       </c>
       <c r="K2">
-        <v>4.341852811136634E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.485995048365022E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.300791769424387E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.846057789204557E-05</v>
+        <v>5.082571468070956E-06</v>
       </c>
       <c r="O2">
-        <v>9.062802605783181E-05</v>
+        <v>4.758890882119296E-05</v>
       </c>
       <c r="P2">
-        <v>0.0002962255571146816</v>
+        <v>0.0002548387755836363</v>
       </c>
       <c r="Q2">
-        <v>0.0005454463262739933</v>
+        <v>0.0005060624694538657</v>
       </c>
       <c r="R2">
-        <v>0.000695445869749263</v>
+        <v>0.0006572675215762134</v>
       </c>
       <c r="S2">
-        <v>0.0008369345135947426</v>
+        <v>0.0007998932741066084</v>
       </c>
       <c r="T2">
-        <v>0.0008701543621497345</v>
+        <v>0.0008333801022387366</v>
       </c>
       <c r="U2">
-        <v>0.0006503865717092674</v>
+        <v>0.0006118460932779518</v>
       </c>
       <c r="V2">
-        <v>0.0005944504741423945</v>
+        <v>0.0005554604513475536</v>
       </c>
       <c r="W2">
-        <v>0.0004873292988019872</v>
+        <v>0.0004474783700325937</v>
       </c>
       <c r="X2">
-        <v>0.0003990018026440861</v>
+        <v>0.0003584410079782631</v>
       </c>
       <c r="Y2">
-        <v>0.0001524452733688845</v>
+        <v>0.0001099029658187653</v>
       </c>
       <c r="Z2">
-        <v>6.790781704612306E-05</v>
+        <v>2.468610319757151E-05</v>
       </c>
       <c r="AA2">
-        <v>2.271568101190571E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.631015485555208E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.563924144975235E-09</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.741310624255888E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.811816490693997E-05</v>
+        <v>4.737406595827212E-06</v>
       </c>
       <c r="AF2">
-        <v>0.0001251068845580589</v>
+        <v>8.234486524518977E-05</v>
       </c>
       <c r="AG2">
-        <v>0.0001945730115363981</v>
+        <v>0.0001523692740343347</v>
       </c>
       <c r="AH2">
-        <v>0.0003242814858942954</v>
+        <v>0.0002831201828144643</v>
       </c>
       <c r="AI2">
-        <v>0.0005955599240941352</v>
+        <v>0.0005565788176698335</v>
       </c>
       <c r="AJ2">
-        <v>0.0005509485260346567</v>
+        <v>0.0005116088890117082</v>
       </c>
       <c r="AK2">
-        <v>0.0007295394682662482</v>
+        <v>0.0006916351217792705</v>
       </c>
       <c r="AL2">
-        <v>0.0006283753026667209</v>
+        <v>0.0005896579251959205</v>
       </c>
       <c r="AM2">
-        <v>0.0006677720709530271</v>
+        <v>0.0006293713154114386</v>
       </c>
       <c r="AN2">
-        <v>0.000622844972907281</v>
+        <v>0.0005840831495655683</v>
       </c>
       <c r="AO2">
-        <v>0.0004420226407727513</v>
+        <v>0.0004018075937750017</v>
       </c>
       <c r="AP2">
-        <v>0.0003539392846042306</v>
+        <v>0.0003130163338018117</v>
       </c>
       <c r="AQ2">
-        <v>0.000262679228573891</v>
+        <v>0.0002210228436280839</v>
       </c>
       <c r="AR2">
-        <v>0.0001518374733953228</v>
+        <v>0.0001092902811095114</v>
       </c>
       <c r="AS2">
-        <v>4.07549582272272E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.663123927656879E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.657718327892014E-07</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>4.966414183969254E-05</v>
+        <v>6.295808156798231E-06</v>
       </c>
       <c r="AW2">
-        <v>0.09702442577959906</v>
+        <v>0.09776041924258672</v>
       </c>
       <c r="AX2">
-        <v>0.03655627840986277</v>
+        <v>0.03680630456362977</v>
       </c>
       <c r="AY2">
-        <v>0.0139937473912953</v>
+        <v>0.01406244415156761</v>
       </c>
       <c r="AZ2">
-        <v>0.0003774942835796274</v>
+        <v>0.0003367606383863381</v>
       </c>
       <c r="BA2">
-        <v>0.034227218511173</v>
+        <v>0.03445852659565537</v>
       </c>
       <c r="BB2">
-        <v>0.009633771580946983</v>
+        <v>0.009667428310972188</v>
       </c>
       <c r="BC2">
-        <v>0.01061231853838182</v>
+        <v>0.01065383960446718</v>
       </c>
       <c r="BD2">
-        <v>0.007487081174324439</v>
+        <v>0.007503485492856742</v>
       </c>
       <c r="BE2">
-        <v>0.05044902780555131</v>
+        <v>0.05081070649598721</v>
       </c>
       <c r="BF2">
-        <v>0.008904071112687735</v>
+        <v>0.008931863423369501</v>
       </c>
       <c r="BG2">
-        <v>0.01046316554486972</v>
+        <v>0.01050348790581739</v>
       </c>
       <c r="BH2">
-        <v>0.003546559545730567</v>
+        <v>0.003531294881896593</v>
       </c>
       <c r="BI2">
-        <v>0.007769680662031831</v>
+        <v>0.007788356161650411</v>
       </c>
       <c r="BJ2">
-        <v>0.0006572031114127592</v>
+        <v>0.0006187174157985464</v>
       </c>
       <c r="BK2">
-        <v>1.337224441832964E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.004419245607770176</v>
+        <v>0.004410994502575111</v>
       </c>
       <c r="BM2">
-        <v>0.002106695908362237</v>
+        <v>0.002079859422206371</v>
       </c>
       <c r="BN2">
-        <v>0.003796170534872904</v>
+        <v>0.003782911931849819</v>
       </c>
       <c r="BO2">
-        <v>0.007012298694976686</v>
+        <v>0.007024887306000325</v>
       </c>
       <c r="BP2">
-        <v>0.01718399025252504</v>
+        <v>0.0172783261932001</v>
       </c>
       <c r="BQ2">
-        <v>0.009016015607818338</v>
+        <v>0.009044707588284065</v>
       </c>
       <c r="BR2">
-        <v>0.001900344117338196</v>
+        <v>0.001871849233678871</v>
       </c>
       <c r="BS2">
-        <v>1.556181232308708E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.003079597666042631</v>
+        <v>0.003060580146894718</v>
       </c>
       <c r="BU2">
-        <v>0.005474232361880009</v>
+        <v>0.005474459920187288</v>
       </c>
       <c r="BV2">
-        <v>0.001094515052390418</v>
+        <v>0.001059543922981575</v>
       </c>
       <c r="BW2">
-        <v>0.0008785603217840892</v>
+        <v>0.0008418536184588743</v>
       </c>
       <c r="BX2">
-        <v>4.746308793543473E-05</v>
+        <v>4.077064935274559E-06</v>
       </c>
       <c r="BY2">
-        <v>0.000417508881839059</v>
+        <v>0.0003770968239192606</v>
       </c>
       <c r="BZ2">
-        <v>0.001819379420860026</v>
+        <v>0.001790233844275567</v>
       </c>
       <c r="CA2">
-        <v>0.004176085818347222</v>
+        <v>0.004165880499012702</v>
       </c>
       <c r="CB2">
-        <v>0.001707966225706314</v>
+        <v>0.001677925249262332</v>
       </c>
       <c r="CC2">
-        <v>0.001312849642893227</v>
+        <v>0.00127963321373686</v>
       </c>
       <c r="CD2">
-        <v>0.005069383179490275</v>
+        <v>0.005066357066627457</v>
       </c>
       <c r="CE2">
-        <v>0.0009899640569382123</v>
+        <v>0.0009541526774448811</v>
       </c>
       <c r="CF2">
-        <v>0.004164744418840554</v>
+        <v>0.004154447951527457</v>
       </c>
       <c r="CG2">
-        <v>0.02101630608582569</v>
+        <v>0.02114144138607439</v>
       </c>
       <c r="CH2">
-        <v>0.003759283836477414</v>
+        <v>0.003745728784326234</v>
       </c>
       <c r="CI2">
-        <v>0.0006181241231126302</v>
+        <v>0.0005793243594871195</v>
       </c>
       <c r="CJ2">
-        <v>6.266162127432385E-05</v>
+        <v>1.939774506833679E-05</v>
       </c>
       <c r="CK2">
-        <v>0.002808871277818778</v>
+        <v>0.002787677998702303</v>
       </c>
       <c r="CL2">
-        <v>0.008315057638308842</v>
+        <v>0.00833811619567271</v>
       </c>
       <c r="CM2">
-        <v>0.01502296234652616</v>
+        <v>0.01509993064882778</v>
       </c>
       <c r="CN2">
-        <v>0.01681974826836896</v>
+        <v>0.01691115688772453</v>
       </c>
       <c r="CO2">
-        <v>0.01047609454430734</v>
+        <v>0.01051652081237537</v>
       </c>
       <c r="CP2">
-        <v>0.02234898002785659</v>
+        <v>0.02248482569377463</v>
       </c>
       <c r="CQ2">
-        <v>0.01299067643492721</v>
+        <v>0.01305131176592102</v>
       </c>
       <c r="CR2">
-        <v>0.01666036127530203</v>
+        <v>0.01675048894143653</v>
       </c>
       <c r="CS2">
-        <v>0.002874538374962368</v>
+        <v>0.002853872845808334</v>
       </c>
       <c r="CT2">
-        <v>0.007290080682893632</v>
+        <v>0.007304901757968014</v>
       </c>
       <c r="CU2">
-        <v>0.02564211988461049</v>
+        <v>0.02580443168823387</v>
       </c>
       <c r="CV2">
-        <v>0.03971376127251753</v>
+        <v>0.03998916332280889</v>
       </c>
       <c r="CW2">
-        <v>0.04275347814029491</v>
+        <v>0.04305330963139573</v>
       </c>
       <c r="CX2">
-        <v>0.02690148382983026</v>
+        <v>0.027073916825096</v>
       </c>
       <c r="CY2">
-        <v>0.01346452291431568</v>
+        <v>0.01352896643042162</v>
       </c>
       <c r="CZ2">
-        <v>0.005630606755077984</v>
+        <v>0.005632091055098033</v>
       </c>
       <c r="DA2">
-        <v>0.001755865923622757</v>
+        <v>0.001726209905017265</v>
       </c>
       <c r="DB2">
-        <v>2.212046603779657E-07</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.002142452906806867</v>
+        <v>0.002115903790664402</v>
       </c>
       <c r="DD2">
-        <v>0.0116041384952393</v>
+        <v>0.01165363056914665</v>
       </c>
       <c r="DE2">
-        <v>0.02775551979268111</v>
+        <v>0.02793481646042398</v>
       </c>
       <c r="DF2">
-        <v>0.02577663887875914</v>
+        <v>0.02594003177774378</v>
       </c>
       <c r="DG2">
-        <v>0.02041873911181886</v>
+        <v>0.02053907191642202</v>
       </c>
       <c r="DH2">
-        <v>0.006871658701094291</v>
+        <v>0.006883117023819565</v>
       </c>
       <c r="DI2">
-        <v>0.0001645478228424438</v>
+        <v>0.0001221027804419646</v>
       </c>
       <c r="DJ2">
-        <v>0.004550391802065536</v>
+        <v>0.004543194685886646</v>
       </c>
       <c r="DK2">
-        <v>0.007376637679128546</v>
+        <v>0.007392154391036273</v>
       </c>
       <c r="DL2">
-        <v>0.008507526129936781</v>
+        <v>0.008532131508214713</v>
       </c>
       <c r="DM2">
-        <v>0.003809805834279792</v>
+        <v>0.003796656814732493</v>
       </c>
       <c r="DN2">
-        <v>0.002719924681687807</v>
+        <v>0.002698016561123953</v>
       </c>
       <c r="DO2">
-        <v>0.00486018538859003</v>
+        <v>0.004855478005637738</v>
       </c>
       <c r="DP2">
-        <v>0.002613901786299626</v>
+        <v>0.002591141586361279</v>
       </c>
       <c r="DQ2">
-        <v>0.0008029642650723917</v>
+        <v>0.0007656500152311038</v>
       </c>
       <c r="DR2">
-        <v>2.338901598261676E-05</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001321516242516244</v>
+        <v>0.001288369464643769</v>
       </c>
       <c r="DT2">
-        <v>0.0072243156857543</v>
+        <v>0.007238608224068571</v>
       </c>
       <c r="DU2">
-        <v>0.009783159574448853</v>
+        <v>0.009818016898247637</v>
       </c>
       <c r="DV2">
-        <v>0.01335318441915872</v>
+        <v>0.01341673313575024</v>
       </c>
       <c r="DW2">
-        <v>0.01145152750187763</v>
+        <v>0.01149979307957123</v>
       </c>
       <c r="DX2">
-        <v>0.007762887662327316</v>
+        <v>0.00778150856831385</v>
       </c>
       <c r="DY2">
-        <v>0.002286617300535956</v>
+        <v>0.002261226797408002</v>
       </c>
       <c r="DZ2">
-        <v>2.05553641058759E-06</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.003117293664402917</v>
+        <v>0.0030985790985236</v>
       </c>
       <c r="EB2">
-        <v>0.00545424676274935</v>
+        <v>0.005454313701817324</v>
       </c>
       <c r="EC2">
-        <v>0.004027283824819861</v>
+        <v>0.004015882621246339</v>
       </c>
       <c r="ED2">
-        <v>0.003337985654803184</v>
+        <v>0.003321044735007077</v>
       </c>
       <c r="EE2">
-        <v>0.002112498908109816</v>
+        <v>0.002085709059205055</v>
       </c>
       <c r="EF2">
-        <v>0.001120203551273011</v>
+        <v>0.00108543887387606</v>
       </c>
       <c r="EG2">
-        <v>0.0007159528688572427</v>
+        <v>0.0006779393302841261</v>
       </c>
       <c r="EH2">
-        <v>0.002121218607730524</v>
+        <v>0.002094498836860997</v>
       </c>
       <c r="EI2">
-        <v>0.003911861529840539</v>
+        <v>0.003899532706279385</v>
       </c>
       <c r="EJ2">
-        <v>0.003061115166846589</v>
+        <v>0.003041949108495928</v>
       </c>
       <c r="EK2">
-        <v>0.0003409866051676506</v>
+        <v>0.0002999595569346538</v>
       </c>
       <c r="EL2">
-        <v>0.0001850005519527841</v>
+        <v>0.000142719882997901</v>
       </c>
       <c r="EM2">
-        <v>1.855965519268591E-05</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>4.201074517260255E-06</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>7.240487685050846E-05</v>
+        <v>2.921930474182499E-05</v>
       </c>
       <c r="EP2">
-        <v>0.0009628812081162711</v>
+        <v>0.0009268521705708823</v>
       </c>
       <c r="EQ2">
-        <v>0.005779859748585727</v>
+        <v>0.005782543557418318</v>
       </c>
       <c r="ER2">
-        <v>0.01009172856102662</v>
+        <v>0.01012906577624988</v>
       </c>
       <c r="ES2">
-        <v>0.007111996690639989</v>
+        <v>0.007125386549408014</v>
       </c>
       <c r="ET2">
-        <v>0.003571055444665036</v>
+        <v>0.003555987648216784</v>
       </c>
       <c r="EU2">
-        <v>0.0004803813191042127</v>
+        <v>0.0004404745511675036</v>
       </c>
       <c r="EV2">
-        <v>0.0009929477568084264</v>
+        <v>0.0009571603565613682</v>
       </c>
       <c r="EW2">
-        <v>0.001137182450534457</v>
+        <v>0.001102554228285324</v>
       </c>
       <c r="EX2">
-        <v>0.003995275826212156</v>
+        <v>0.003983617382395075</v>
       </c>
       <c r="EY2">
-        <v>0.001207471947476981</v>
+        <v>0.001173408624256204</v>
       </c>
       <c r="EZ2">
-        <v>0.001207471947476981</v>
+        <v>0.001173408624256204</v>
       </c>
       <c r="FA2">
-        <v>0.001154288849790357</v>
+        <v>0.001119798107374466</v>
       </c>
       <c r="FB2">
-        <v>4.10068482162704E-06</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0001003285856358736</v>
+        <v>5.736742935952764E-05</v>
       </c>
       <c r="FD2">
-        <v>0.0007759499662474688</v>
+        <v>0.0007384186092732277</v>
       </c>
       <c r="FE2">
-        <v>0.00186274831897355</v>
+        <v>0.001833951287327822</v>
       </c>
       <c r="FF2">
-        <v>0.002151234206424895</v>
+        <v>0.002124755663381366</v>
       </c>
       <c r="FG2">
-        <v>0.003775880035755508</v>
+        <v>0.003762458363088523</v>
       </c>
       <c r="FH2">
-        <v>0.003395828952287096</v>
+        <v>0.00337935290454111</v>
       </c>
       <c r="FI2">
-        <v>0.001554910632363977</v>
+        <v>0.001523639586567896</v>
       </c>
       <c r="FJ2">
-        <v>0.0004964361784058531</v>
+        <v>0.0004566584393399481</v>
       </c>
       <c r="FK2">
-        <v>6.672605109752791E-05</v>
+        <v>2.349483969293821E-05</v>
       </c>
       <c r="FL2">
-        <v>0.001203085547667782</v>
+        <v>0.001168986972053718</v>
       </c>
       <c r="FM2">
-        <v>0.002231729602923479</v>
+        <v>0.002205897981159048</v>
       </c>
       <c r="FN2">
-        <v>0.003337985654803184</v>
+        <v>0.003321044735007077</v>
       </c>
       <c r="FO2">
-        <v>0.00316864706216913</v>
+        <v>0.003150345210646335</v>
       </c>
       <c r="FP2">
-        <v>0.005187002774374018</v>
+        <v>0.005184921940646144</v>
       </c>
       <c r="FQ2">
-        <v>0.005940509741597721</v>
+        <v>0.005944484654064643</v>
       </c>
       <c r="FR2">
-        <v>0.00684142470240942</v>
+        <v>0.006852640042082839</v>
       </c>
       <c r="FS2">
-        <v>0.003055874567074546</v>
+        <v>0.003036666391340094</v>
       </c>
       <c r="FT2">
-        <v>9.969051566362861E-07</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0003864827231886452</v>
+        <v>0.000345821315826361</v>
       </c>
       <c r="FV2">
-        <v>0.001280502244300285</v>
+        <v>0.001247025847227944</v>
       </c>
       <c r="FW2">
-        <v>0.002114764308011275</v>
+        <v>0.002087992665556395</v>
       </c>
       <c r="FX2">
-        <v>0.003643143041529345</v>
+        <v>0.003628654594986791</v>
       </c>
       <c r="FY2">
-        <v>0.001498143934833234</v>
+        <v>0.001466416669350386</v>
       </c>
       <c r="FZ2">
-        <v>0.001938482415679243</v>
+        <v>0.001910294039942341</v>
       </c>
       <c r="GA2">
-        <v>0.001393666939377809</v>
+        <v>0.001361100018529857</v>
       </c>
       <c r="GB2">
-        <v>2.77885237912455E-05</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>6.558537714714533E-05</v>
+        <v>2.234499843258372E-05</v>
       </c>
       <c r="GD2">
-        <v>0.000104483725455132</v>
+        <v>6.15559629936329E-05</v>
       </c>
       <c r="GE2">
-        <v>5.187950374332799E-06</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>1.972591914195537E-05</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0006503865717092674</v>
+        <v>0.0006118460932779518</v>
       </c>
       <c r="GH2">
-        <v>0.0008973849609652488</v>
+        <v>0.0008608295465358881</v>
       </c>
       <c r="GI2">
-        <v>3.069124266498206E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0005693080352360487</v>
+        <v>0.0005301159489761599</v>
       </c>
       <c r="GK2">
-        <v>0.001255756445376686</v>
+        <v>0.001222081172535192</v>
       </c>
       <c r="GL2">
-        <v>0.0001256586445340582</v>
+        <v>8.29010595774996E-05</v>
       </c>
       <c r="GM2">
-        <v>0.001155963649717507</v>
+        <v>0.001121486367247876</v>
       </c>
       <c r="GN2">
-        <v>0.000819662464346048</v>
+        <v>0.0007824824137372953</v>
       </c>
       <c r="GO2">
-        <v>9.969051566362861E-07</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0002107578508323845</v>
+        <v>0.0001686841868176854</v>
       </c>
       <c r="GQ2">
-        <v>0.0006596346213069926</v>
+        <v>0.0006211684671269405</v>
       </c>
       <c r="GR2">
-        <v>0.002231729602923479</v>
+        <v>0.002205897981159048</v>
       </c>
       <c r="GS2">
-        <v>0.002882062374635087</v>
+        <v>0.002861457313976195</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001177906765129309</v>
+        <v>0.0001013956945954229</v>
       </c>
       <c r="C3">
-        <v>0.0001694290949842298</v>
+        <v>0.0001531948943865585</v>
       </c>
       <c r="D3">
-        <v>0.0002140126936643793</v>
+        <v>0.0001979173085078285</v>
       </c>
       <c r="E3">
-        <v>0.0003039783210010415</v>
+        <v>0.0002881630527173797</v>
       </c>
       <c r="F3">
-        <v>0.0001784197347180714</v>
+        <v>0.0001622135273658436</v>
       </c>
       <c r="G3">
-        <v>0.0001684066650144978</v>
+        <v>0.000152169280980059</v>
       </c>
       <c r="H3">
-        <v>0.0001489277955911493</v>
+        <v>0.0001326297621714751</v>
       </c>
       <c r="I3">
-        <v>0.0001460616256759992</v>
+        <v>0.0001297546681530028</v>
       </c>
       <c r="J3">
-        <v>6.060802820576308E-05</v>
+        <v>4.403500246083443E-05</v>
       </c>
       <c r="K3">
-        <v>4.242342674409907E-05</v>
+        <v>2.579378144515882E-05</v>
       </c>
       <c r="L3">
-        <v>1.670970750532668E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.611645622684978E-05</v>
+        <v>9.436037563427863E-06</v>
       </c>
       <c r="N3">
-        <v>9.870478707794859E-07</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.954886853315786E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.760243859077987E-05</v>
+        <v>3.098891865711629E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0001319828560927864</v>
+        <v>0.0001156320629291512</v>
       </c>
       <c r="R3">
-        <v>0.0001810387146405393</v>
+        <v>0.0001648406617411592</v>
       </c>
       <c r="S3">
-        <v>0.0002782365117631007</v>
+        <v>0.0002623410938120637</v>
       </c>
       <c r="T3">
-        <v>0.0001087091967817786</v>
+        <v>9.228593877951684E-05</v>
       </c>
       <c r="U3">
-        <v>0.000171981484908669</v>
+        <v>0.0001557552314293049</v>
       </c>
       <c r="V3">
-        <v>0.000149392135577403</v>
+        <v>0.0001330955479261712</v>
       </c>
       <c r="W3">
-        <v>0.000113406766642712</v>
+        <v>9.699813498851868E-05</v>
       </c>
       <c r="X3">
-        <v>7.4705677788417E-05</v>
+        <v>5.817654646887152E-05</v>
       </c>
       <c r="Y3">
-        <v>6.612790804235283E-05</v>
+        <v>4.957206898887872E-05</v>
       </c>
       <c r="Z3">
-        <v>4.422701269070581E-05</v>
+        <v>2.760298303487623E-05</v>
       </c>
       <c r="AA3">
-        <v>3.726056689694011E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.428542098501617E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.013599740389498E-07</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.746846748286439E-05</v>
+        <v>7.61122451723389E-07</v>
       </c>
       <c r="AE3">
-        <v>6.588714804948029E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.09708520831405E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.316861161015711E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.06087376136631E-05</v>
+        <v>6.409798605434024E-05</v>
       </c>
       <c r="AI3">
-        <v>3.400689899326153E-05</v>
+        <v>1.73510480032819E-05</v>
       </c>
       <c r="AJ3">
-        <v>3.602387293355113E-05</v>
+        <v>1.937430199129171E-05</v>
       </c>
       <c r="AK3">
-        <v>3.713400590068681E-05</v>
+        <v>2.048789146714578E-05</v>
       </c>
       <c r="AL3">
-        <v>2.97168671202634E-05</v>
+        <v>1.304765869202169E-05</v>
       </c>
       <c r="AM3">
-        <v>1.703282749576106E-05</v>
+        <v>3.241260564616771E-07</v>
       </c>
       <c r="AN3">
-        <v>3.713400590068681E-05</v>
+        <v>2.048789146714578E-05</v>
       </c>
       <c r="AO3">
-        <v>3.858607185769992E-05</v>
+        <v>2.194447857503783E-05</v>
       </c>
       <c r="AP3">
-        <v>1.780608947286945E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.50857389613236E-05</v>
+        <v>1.843324704621675E-05</v>
       </c>
       <c r="AR3">
-        <v>7.036243791699404E-05</v>
+        <v>5.381978349082432E-05</v>
       </c>
       <c r="AS3">
-        <v>8.51439874794018E-05</v>
+        <v>6.864735686879869E-05</v>
       </c>
       <c r="AT3">
-        <v>0.0001502105655531742</v>
+        <v>0.0001339165261645654</v>
       </c>
       <c r="AU3">
-        <v>0.0001061408868578107</v>
+        <v>8.970963216874967E-05</v>
       </c>
       <c r="AV3">
-        <v>0.0002090547938111527</v>
+        <v>0.0001929439717433715</v>
       </c>
       <c r="AW3">
-        <v>0.06242521315196722</v>
+        <v>0.06260281848837451</v>
       </c>
       <c r="AX3">
-        <v>0.003153092906656001</v>
+        <v>0.003146148638240431</v>
       </c>
       <c r="AY3">
-        <v>0.05987406822749119</v>
+        <v>0.0600437303220217</v>
       </c>
       <c r="AZ3">
-        <v>0.001107986967199211</v>
+        <v>0.001094675059303468</v>
       </c>
       <c r="BA3">
-        <v>0.04081525579170728</v>
+        <v>0.04092557638995152</v>
       </c>
       <c r="BB3">
-        <v>0.001100145267431356</v>
+        <v>0.001086808943628314</v>
       </c>
       <c r="BC3">
-        <v>0.01401480858510633</v>
+        <v>0.01404168334202443</v>
       </c>
       <c r="BD3">
-        <v>0.006732690400685782</v>
+        <v>0.006736891562874246</v>
       </c>
       <c r="BE3">
-        <v>0.04112548878252316</v>
+        <v>0.04123677532184764</v>
       </c>
       <c r="BF3">
-        <v>0.01765846747723964</v>
+        <v>0.01769668712625658</v>
       </c>
       <c r="BG3">
-        <v>0.005954049823736617</v>
+        <v>0.005955826611528143</v>
       </c>
       <c r="BH3">
-        <v>0.004987182852359697</v>
+        <v>0.004985949204270992</v>
       </c>
       <c r="BI3">
-        <v>0.003356526300633569</v>
+        <v>0.003350215442197446</v>
       </c>
       <c r="BJ3">
-        <v>0.002951743212616747</v>
+        <v>0.002944172022027441</v>
       </c>
       <c r="BK3">
-        <v>0.000233222473095694</v>
+        <v>0.0002171868994860916</v>
       </c>
       <c r="BL3">
-        <v>8.237222756145685E-05</v>
+        <v>6.586696680238927E-05</v>
       </c>
       <c r="BM3">
-        <v>0.006723118800969139</v>
+        <v>0.006727290161035832</v>
       </c>
       <c r="BN3">
-        <v>0.002637202821928384</v>
+        <v>0.002628652278743589</v>
       </c>
       <c r="BO3">
-        <v>0.001480593656168582</v>
+        <v>0.001468441896027281</v>
       </c>
       <c r="BP3">
-        <v>0.01538324454459523</v>
+        <v>0.015414380062129</v>
       </c>
       <c r="BQ3">
-        <v>0.008437205750225397</v>
+        <v>0.008446714089428453</v>
       </c>
       <c r="BR3">
-        <v>2.225256034123636E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.670970750532668E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.002620329922427889</v>
+        <v>0.002611726843802787</v>
       </c>
       <c r="BU3">
-        <v>0.01194607164634911</v>
+        <v>0.01196650518633503</v>
       </c>
       <c r="BV3">
-        <v>0.002349838730435496</v>
+        <v>0.002340393450748855</v>
       </c>
       <c r="BW3">
-        <v>0.001315410561058654</v>
+        <v>0.001302744487024079</v>
       </c>
       <c r="BX3">
-        <v>2.384473529410169E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>6.619039804050289E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.00145192695701723</v>
+        <v>0.001439685940274713</v>
       </c>
       <c r="CA3">
-        <v>0.003926460483761267</v>
+        <v>0.00392192417173644</v>
       </c>
       <c r="CB3">
-        <v>0.002919704913565207</v>
+        <v>0.002912033968565148</v>
       </c>
       <c r="CC3">
-        <v>0.00040809826791868</v>
+        <v>0.0003926071873809315</v>
       </c>
       <c r="CD3">
-        <v>0.004743117259585003</v>
+        <v>0.00474112368914982</v>
       </c>
       <c r="CE3">
-        <v>0.003507059896177181</v>
+        <v>0.003501217738969479</v>
       </c>
       <c r="CF3">
-        <v>0.001764453747765203</v>
+        <v>0.001753185814075737</v>
       </c>
       <c r="CG3">
-        <v>0.02430970528033674</v>
+        <v>0.02436863421566003</v>
       </c>
       <c r="CH3">
-        <v>0.01452080157012694</v>
+        <v>0.0145492517862161</v>
       </c>
       <c r="CI3">
-        <v>7.827161368285121E-05</v>
+        <v>6.175358525716911E-05</v>
       </c>
       <c r="CJ3">
-        <v>0.0008685441742876633</v>
+        <v>0.0008544867375897339</v>
       </c>
       <c r="CK3">
-        <v>1.995817540915921E-08</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.005933832824335121</v>
+        <v>0.005935546664500768</v>
       </c>
       <c r="CM3">
-        <v>0.01106859567232587</v>
+        <v>0.0110862971041372</v>
       </c>
       <c r="CN3">
-        <v>0.01223439663781356</v>
+        <v>0.01225572790615836</v>
       </c>
       <c r="CO3">
-        <v>0.01098049067493412</v>
+        <v>0.0109979177831278</v>
       </c>
       <c r="CP3">
-        <v>0.01975946041504196</v>
+        <v>0.01980422171323227</v>
       </c>
       <c r="CQ3">
-        <v>0.01438980457400497</v>
+        <v>0.014417846917999</v>
       </c>
       <c r="CR3">
-        <v>0.02324811931176388</v>
+        <v>0.02330374289424717</v>
       </c>
       <c r="CS3">
-        <v>0.01068031168382061</v>
+        <v>0.01069680415505585</v>
       </c>
       <c r="CT3">
-        <v>0.001428590457708082</v>
+        <v>0.001416276780468394</v>
       </c>
       <c r="CU3">
-        <v>0.02391068429214934</v>
+        <v>0.02396837083618679</v>
       </c>
       <c r="CV3">
-        <v>0.03859479885744158</v>
+        <v>0.03869820584355166</v>
       </c>
       <c r="CW3">
-        <v>0.04960302453155464</v>
+        <v>0.04974070671635089</v>
       </c>
       <c r="CX3">
-        <v>0.02479866826586151</v>
+        <v>0.02485911963576919</v>
       </c>
       <c r="CY3">
-        <v>0.01552014654054239</v>
+        <v>0.0155517083159719</v>
       </c>
       <c r="CZ3">
-        <v>0.005247052844666519</v>
+        <v>0.005246628327484334</v>
       </c>
       <c r="DA3">
-        <v>0.002042265039540892</v>
+        <v>0.002031862098767157</v>
       </c>
       <c r="DB3">
-        <v>2.079136438449353E-05</v>
+        <v>4.094365521289907E-06</v>
       </c>
       <c r="DC3">
-        <v>0.003202539305192193</v>
+        <v>0.003195748993025733</v>
       </c>
       <c r="DD3">
-        <v>0.01285404361946956</v>
+        <v>0.01287730421993748</v>
       </c>
       <c r="DE3">
-        <v>0.02850564115612048</v>
+        <v>0.02857763455251809</v>
       </c>
       <c r="DF3">
-        <v>0.03376652900037743</v>
+        <v>0.03385490269106276</v>
       </c>
       <c r="DG3">
-        <v>0.02144530936513417</v>
+        <v>0.02149531972065942</v>
       </c>
       <c r="DH3">
-        <v>0.009997824704024915</v>
+        <v>0.01001219218459175</v>
       </c>
       <c r="DI3">
-        <v>3.079136408845406E-05</v>
+        <v>1.412550121272577E-05</v>
       </c>
       <c r="DJ3">
-        <v>0.005357800341387956</v>
+        <v>0.005357720647483064</v>
       </c>
       <c r="DK3">
-        <v>0.01016514469907158</v>
+        <v>0.01018003314698085</v>
       </c>
       <c r="DL3">
-        <v>0.008992825733776853</v>
+        <v>0.009004064050716014</v>
       </c>
       <c r="DM3">
-        <v>0.006682329102176676</v>
+        <v>0.006686373459484536</v>
       </c>
       <c r="DN3">
-        <v>0.004642523862562965</v>
+        <v>0.004640217084643532</v>
       </c>
       <c r="DO3">
-        <v>0.004777492358567364</v>
+        <v>0.004775605818400488</v>
       </c>
       <c r="DP3">
-        <v>0.007674851272794101</v>
+        <v>0.00768198594598078</v>
       </c>
       <c r="DQ3">
-        <v>0.001965964341799693</v>
+        <v>0.001955323831262002</v>
       </c>
       <c r="DR3">
-        <v>0.0005275248843831806</v>
+        <v>0.0005124056504198863</v>
       </c>
       <c r="DS3">
-        <v>3.575752194143617E-06</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.004426146268968595</v>
+        <v>0.004423165778024808</v>
       </c>
       <c r="DU3">
-        <v>0.009888005707275991</v>
+        <v>0.00990203125554197</v>
       </c>
       <c r="DV3">
-        <v>0.0113657541635288</v>
+        <v>0.01138438082767355</v>
       </c>
       <c r="DW3">
-        <v>0.01411743858206808</v>
+        <v>0.01414463288762564</v>
       </c>
       <c r="DX3">
-        <v>0.01262319612630356</v>
+        <v>0.0126457379602846</v>
       </c>
       <c r="DY3">
-        <v>0.003650510891930465</v>
+        <v>0.003645115383576696</v>
       </c>
       <c r="DZ3">
-        <v>0.000722585748608609</v>
+        <v>0.0007080738559258395</v>
       </c>
       <c r="EA3">
-        <v>0.002303734131800374</v>
+        <v>0.002294145300888918</v>
       </c>
       <c r="EB3">
-        <v>0.006907119195522001</v>
+        <v>0.00691186345900368</v>
       </c>
       <c r="EC3">
-        <v>0.004943851853642467</v>
+        <v>0.004942483290206431</v>
       </c>
       <c r="ED3">
-        <v>0.002615700922564925</v>
+        <v>0.002607083431091221</v>
       </c>
       <c r="EE3">
-        <v>0.00199982684079723</v>
+        <v>0.001989291764497127</v>
       </c>
       <c r="EF3">
-        <v>0.001342703060250688</v>
+        <v>0.001330121964109931</v>
       </c>
       <c r="EG3">
-        <v>0.0006269756814390444</v>
+        <v>0.0006121660973620713</v>
       </c>
       <c r="EH3">
-        <v>0.001266000662521382</v>
+        <v>0.001253180745884052</v>
       </c>
       <c r="EI3">
-        <v>0.002397812129015294</v>
+        <v>0.002388516219246808</v>
       </c>
       <c r="EJ3">
-        <v>0.003592989793633316</v>
+        <v>0.003587415187654631</v>
       </c>
       <c r="EK3">
-        <v>0.0004339214271542126</v>
+        <v>0.0004185107495750975</v>
       </c>
       <c r="EL3">
-        <v>1.039171169236431E-08</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>7.698933772081163E-05</v>
+        <v>6.046731680218194E-05</v>
       </c>
       <c r="EN3">
-        <v>0.0001983703541274543</v>
+        <v>0.000182226265000671</v>
       </c>
       <c r="EO3">
-        <v>0.0001796301646822379</v>
+        <v>0.000163427726123342</v>
       </c>
       <c r="EP3">
-        <v>0.001011925270043017</v>
+        <v>0.0009983142645584673</v>
       </c>
       <c r="EQ3">
-        <v>0.003343549901017722</v>
+        <v>0.003337198639278811</v>
       </c>
       <c r="ER3">
-        <v>0.01273835762289432</v>
+        <v>0.01276125802357753</v>
       </c>
       <c r="ES3">
-        <v>0.006851550497167055</v>
+        <v>0.006856121742014011</v>
       </c>
       <c r="ET3">
-        <v>0.004627260263014827</v>
+        <v>0.004624905960369552</v>
       </c>
       <c r="EU3">
-        <v>0.001300237661507831</v>
+        <v>0.00128752434515082</v>
       </c>
       <c r="EV3">
-        <v>0.0009523929018054099</v>
+        <v>0.0009385965364081907</v>
       </c>
       <c r="EW3">
-        <v>0.001529421754723078</v>
+        <v>0.001517422025692781</v>
       </c>
       <c r="EX3">
-        <v>0.005528039136348216</v>
+        <v>0.005528489497757786</v>
       </c>
       <c r="EY3">
-        <v>0.002694063920245071</v>
+        <v>0.00268569041971002</v>
       </c>
       <c r="EZ3">
-        <v>0.001506943755388515</v>
+        <v>0.001494874038885572</v>
       </c>
       <c r="FA3">
-        <v>0.001905969843575768</v>
+        <v>0.001895142534238017</v>
       </c>
       <c r="FB3">
-        <v>0.0001586827353023645</v>
+        <v>0.0001424150748516566</v>
       </c>
       <c r="FC3">
-        <v>0.0001367089359528757</v>
+        <v>0.0001203728579060093</v>
       </c>
       <c r="FD3">
-        <v>1.897365043830504E-05</v>
+        <v>2.270991943067641E-06</v>
       </c>
       <c r="FE3">
-        <v>0.00138087695912059</v>
+        <v>0.001368414721187061</v>
       </c>
       <c r="FF3">
-        <v>0.001947926542333684</v>
+        <v>0.001937229869324504</v>
       </c>
       <c r="FG3">
-        <v>0.003685449590896141</v>
+        <v>0.003680162867634933</v>
       </c>
       <c r="FH3">
-        <v>0.004370495870616067</v>
+        <v>0.00436734210665654</v>
       </c>
       <c r="FI3">
-        <v>0.002943841912850657</v>
+        <v>0.002936246120783567</v>
       </c>
       <c r="FJ3">
-        <v>0.001142688766171901</v>
+        <v>0.001129484905757175</v>
       </c>
       <c r="FK3">
-        <v>9.598183715855868E-05</v>
+        <v>7.951895126414152E-05</v>
       </c>
       <c r="FL3">
-        <v>0.0003145845706870547</v>
+        <v>0.0002988023260101089</v>
       </c>
       <c r="FM3">
-        <v>0.002038711639646086</v>
+        <v>0.002028297635010562</v>
       </c>
       <c r="FN3">
-        <v>0.001750163448188252</v>
+        <v>0.001738851020238604</v>
       </c>
       <c r="FO3">
-        <v>0.002594286923198864</v>
+        <v>0.00258560275712158</v>
       </c>
       <c r="FP3">
-        <v>0.003471433797231854</v>
+        <v>0.003465480714643813</v>
       </c>
       <c r="FQ3">
-        <v>0.005730677830349311</v>
+        <v>0.005731759127361402</v>
       </c>
       <c r="FR3">
-        <v>0.005099940849021616</v>
+        <v>0.005099058284100485</v>
       </c>
       <c r="FS3">
-        <v>0.004420128869146734</v>
+        <v>0.004417129642433845</v>
       </c>
       <c r="FT3">
-        <v>0.0001502105655531742</v>
+        <v>0.0001339165261645654</v>
       </c>
       <c r="FU3">
-        <v>0.0001785773547134052</v>
+        <v>0.000162371638126612</v>
       </c>
       <c r="FV3">
-        <v>0.000614854981797865</v>
+        <v>0.0006000076587245527</v>
       </c>
       <c r="FW3">
-        <v>0.0007134511788790283</v>
+        <v>0.0006989108448105477</v>
       </c>
       <c r="FX3">
-        <v>0.003064566409276735</v>
+        <v>0.003057346504861641</v>
       </c>
       <c r="FY3">
-        <v>0.0008588726745739778</v>
+        <v>0.0008447851247057616</v>
       </c>
       <c r="FZ3">
-        <v>0.0009246387326270429</v>
+        <v>0.0009107559518808728</v>
       </c>
       <c r="GA3">
-        <v>0.00145192695701723</v>
+        <v>0.001439685940274713</v>
       </c>
       <c r="GB3">
-        <v>3.879455485152801E-06</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>2.013599740389498E-07</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002229267234004888</v>
+        <v>0.0002068590929565815</v>
       </c>
       <c r="GE3">
-        <v>0.0001253063762904365</v>
+        <v>0.0001089347952470354</v>
       </c>
       <c r="GF3">
-        <v>0.0002041549839562065</v>
+        <v>0.0001880289058461461</v>
       </c>
       <c r="GG3">
-        <v>6.82297809801291E-06</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001031201869472353</v>
+        <v>0.00101765088358542</v>
       </c>
       <c r="GI3">
-        <v>1.580579553208605E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>4.301471872659449E-05</v>
+        <v>2.638691447368487E-05</v>
       </c>
       <c r="GK3">
-        <v>0.001189247164793589</v>
+        <v>0.001176188268554789</v>
       </c>
       <c r="GL3">
-        <v>0.000398330888207833</v>
+        <v>0.0003828093959679499</v>
       </c>
       <c r="GM3">
-        <v>0.001248752563031994</v>
+        <v>0.001235878942732106</v>
       </c>
       <c r="GN3">
-        <v>0.001971142041646413</v>
+        <v>0.001960517652388957</v>
       </c>
       <c r="GO3">
-        <v>0.0004726864860066137</v>
+        <v>0.0004573965072697627</v>
       </c>
       <c r="GP3">
-        <v>6.539429806407058E-05</v>
+        <v>4.883617484341929E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.0001223882263768253</v>
+        <v>0.000106007559385239</v>
       </c>
       <c r="GR3">
-        <v>0.0005042976550707984</v>
+        <v>0.0004891061008332674</v>
       </c>
       <c r="GS3">
-        <v>0.002419690528367607</v>
+        <v>0.002410462739157959</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.887589441764541E-05</v>
+        <v>6.690950106633098E-05</v>
       </c>
       <c r="C4">
-        <v>1.211037860195578E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.030495299750456E-05</v>
+        <v>3.822342100209303E-05</v>
       </c>
       <c r="E4">
-        <v>7.984187396860241E-05</v>
+        <v>5.783907422626459E-05</v>
       </c>
       <c r="F4">
-        <v>2.031911700997751E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2.223495110520553E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001034457151418497</v>
+        <v>8.153803702074956E-05</v>
       </c>
       <c r="I4">
-        <v>7.674644381474164E-05</v>
+        <v>5.473116973263419E-05</v>
       </c>
       <c r="J4">
-        <v>1.644853281758711E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.299044714275805E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.408627268840022E-05</v>
+        <v>3.197967990103456E-05</v>
       </c>
       <c r="M4">
-        <v>0.000117309360830953</v>
+        <v>9.545755211028363E-05</v>
       </c>
       <c r="N4">
-        <v>0.0001493137474217559</v>
+        <v>0.0001275909138588539</v>
       </c>
       <c r="O4">
-        <v>0.000152537157581978</v>
+        <v>0.0001308273141081935</v>
       </c>
       <c r="P4">
-        <v>0.000240564811957461</v>
+        <v>0.0002192097129990496</v>
       </c>
       <c r="Q4">
-        <v>0.000146653877289545</v>
+        <v>0.0001249203246594624</v>
       </c>
       <c r="R4">
-        <v>5.201599858549564E-05</v>
+        <v>2.990106275651953E-05</v>
       </c>
       <c r="S4">
-        <v>0.0001142508606789278</v>
+        <v>9.23867264434882E-05</v>
       </c>
       <c r="T4">
-        <v>6.628391929469373E-05</v>
+        <v>4.422648206264464E-05</v>
       </c>
       <c r="U4">
-        <v>2.453834721969762E-07</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.599737679516205E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.514755024997853E-05</v>
+        <v>2.92433668997308E-06</v>
       </c>
       <c r="X4">
-        <v>6.809662338479559E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.086276553405775E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.537785176436807E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.420627320319163E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.517445575425812E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.077961802109816E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.423708020472291E-05</v>
+        <v>2.010197522130274E-06</v>
       </c>
       <c r="AE4">
-        <v>6.132804304835804E-05</v>
+        <v>3.925063402528795E-05</v>
       </c>
       <c r="AF4">
-        <v>4.584302827866335E-05</v>
+        <v>2.370321586544282E-05</v>
       </c>
       <c r="AG4">
-        <v>8.419802418512823E-05</v>
+        <v>6.221277938513685E-05</v>
       </c>
       <c r="AH4">
-        <v>5.227178259820959E-05</v>
+        <v>3.015787755866293E-05</v>
       </c>
       <c r="AI4">
-        <v>9.861098490153565E-05</v>
+        <v>7.668382319827913E-05</v>
       </c>
       <c r="AJ4">
-        <v>3.59343197861433E-05</v>
+        <v>1.375457605796168E-05</v>
       </c>
       <c r="AK4">
-        <v>5.338423465350487E-05</v>
+        <v>3.127481270814075E-05</v>
       </c>
       <c r="AL4">
-        <v>1.23397286133558E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>5.070287652022589E-05</v>
+        <v>2.858264891272887E-05</v>
       </c>
       <c r="AN4">
-        <v>1.280488463647674E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.162062707467007E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>5.804944588539283E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>1.624724880758213E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>2.16834230777914E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.442739171124027E-05</v>
+        <v>1.224157518158023E-05</v>
       </c>
       <c r="AT4">
-        <v>2.075311503154971E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1.537785176436807E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001010974150251256</v>
+        <v>7.918027343947257E-05</v>
       </c>
       <c r="AW4">
-        <v>0.0001299473764591354</v>
+        <v>0.0001081464979462639</v>
       </c>
       <c r="AX4">
-        <v>0.0001772272788092197</v>
+        <v>0.0001556169345797511</v>
       </c>
       <c r="AY4">
-        <v>0.0001509211475016529</v>
+        <v>0.0001292047916344978</v>
       </c>
       <c r="AZ4">
-        <v>0.0001887614893825365</v>
+        <v>0.0001671976271134141</v>
       </c>
       <c r="BA4">
-        <v>6.628391929469373E-05</v>
+        <v>4.422648206264464E-05</v>
       </c>
       <c r="BB4">
-        <v>4.327157215084713E-05</v>
+        <v>2.112139697192146E-05</v>
       </c>
       <c r="BC4">
-        <v>0.0001039756751681917</v>
+        <v>8.207013274426596E-05</v>
       </c>
       <c r="BD4">
-        <v>5.6854517825998E-05</v>
+        <v>3.475908084855068E-05</v>
       </c>
       <c r="BE4">
-        <v>8.757931435319789E-06</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>8.407368017894762E-05</v>
+        <v>6.208793428240283E-05</v>
       </c>
       <c r="BG4">
-        <v>7.758773385655861E-05</v>
+        <v>5.557585010707208E-05</v>
       </c>
       <c r="BH4">
-        <v>1.730057485993852E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>3.179546158041814E-08</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.719672285477648E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>7.240396359889529E-05</v>
+        <v>5.037118966346768E-05</v>
       </c>
       <c r="BL4">
-        <v>9.368021465644789E-05</v>
+        <v>7.173318233737842E-05</v>
       </c>
       <c r="BM4">
-        <v>8.764338835638274E-05</v>
+        <v>6.567202810269543E-05</v>
       </c>
       <c r="BN4">
-        <v>0.000216322600752483</v>
+        <v>0.0001948698075918747</v>
       </c>
       <c r="BO4">
-        <v>0.0002658232832129529</v>
+        <v>0.0002445699739047165</v>
       </c>
       <c r="BP4">
-        <v>0.0001823933990660057</v>
+        <v>0.0001608038738943645</v>
       </c>
       <c r="BQ4">
-        <v>0.0002070968602939104</v>
+        <v>0.0001856068881257373</v>
       </c>
       <c r="BR4">
-        <v>0.0002683246133372835</v>
+        <v>0.0002470813841924802</v>
       </c>
       <c r="BS4">
-        <v>0.0001747963886883904</v>
+        <v>0.0001531762481631559</v>
       </c>
       <c r="BT4">
-        <v>0.0002846842841504536</v>
+        <v>0.000263506983190781</v>
       </c>
       <c r="BU4">
-        <v>0.0002237825111232837</v>
+        <v>0.0002023597808140371</v>
       </c>
       <c r="BV4">
-        <v>3.541194176017809E-05</v>
+        <v>1.323009288968662E-05</v>
       </c>
       <c r="BW4">
-        <v>1.408737370022386E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>5.804944588539283E-07</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>6.809662338479559E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>3.361022867062254E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1.824406790683558E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>7.210287358392938E-05</v>
+        <v>5.006888627945087E-05</v>
       </c>
       <c r="CC4">
-        <v>0.0002087931603782263</v>
+        <v>0.0001873100241658175</v>
       </c>
       <c r="CD4">
-        <v>0.0003905755194138598</v>
+        <v>0.0003698249517938664</v>
       </c>
       <c r="CE4">
-        <v>0.0003575968177746278</v>
+        <v>0.0003367133485839446</v>
       </c>
       <c r="CF4">
-        <v>0.0004089356703264653</v>
+        <v>0.000388259092668875</v>
       </c>
       <c r="CG4">
-        <v>0.0002494631423997594</v>
+        <v>0.0002281439030123292</v>
       </c>
       <c r="CH4">
-        <v>0.0002242341011457303</v>
+        <v>0.0002028131907087136</v>
       </c>
       <c r="CI4">
-        <v>0.0002341643516393211</v>
+        <v>0.0002127834593298335</v>
       </c>
       <c r="CJ4">
-        <v>0.0003534739575696978</v>
+        <v>0.0003325738735770444</v>
       </c>
       <c r="CK4">
-        <v>0.0001975739198205653</v>
+        <v>0.000176045570952171</v>
       </c>
       <c r="CL4">
-        <v>0.0002341643516393211</v>
+        <v>0.0002127834593298335</v>
       </c>
       <c r="CM4">
-        <v>5.861891591369877E-05</v>
+        <v>3.653058932160692E-05</v>
       </c>
       <c r="CN4">
-        <v>0.1287829664012574</v>
+        <v>0.1292796270585998</v>
       </c>
       <c r="CO4">
-        <v>0.04895596843339446</v>
+        <v>0.0491309325749236</v>
       </c>
       <c r="CP4">
-        <v>0.04577755027540872</v>
+        <v>0.04593970564204652</v>
       </c>
       <c r="CQ4">
-        <v>0.001020028750701322</v>
+        <v>0.001001814830036962</v>
       </c>
       <c r="CR4">
-        <v>0.03596427878763243</v>
+        <v>0.03608688744292305</v>
       </c>
       <c r="CS4">
-        <v>0.000234371891649637</v>
+        <v>0.0002129918357100482</v>
       </c>
       <c r="CT4">
-        <v>0.03018922550057892</v>
+        <v>0.03028856114588075</v>
       </c>
       <c r="CU4">
-        <v>0.002625364130495765</v>
+        <v>0.002613619584999434</v>
       </c>
       <c r="CV4">
-        <v>0.01612953880173126</v>
+        <v>0.01617221501677035</v>
       </c>
       <c r="CW4">
-        <v>0.01445639771856649</v>
+        <v>0.01449233130679233</v>
       </c>
       <c r="CX4">
-        <v>0.0001436560471405355</v>
+        <v>0.0001219104134910173</v>
       </c>
       <c r="CY4">
-        <v>0.0002869021742606956</v>
+        <v>0.0002657338112235189</v>
       </c>
       <c r="CZ4">
-        <v>0.003191436358632825</v>
+        <v>0.003181973039640385</v>
       </c>
       <c r="DA4">
-        <v>0.01894955094190216</v>
+        <v>0.01900359158380355</v>
       </c>
       <c r="DB4">
-        <v>0.001917837395327598</v>
+        <v>0.001903241572802913</v>
       </c>
       <c r="DC4">
-        <v>0.000633005371464024</v>
+        <v>0.0006132317770575924</v>
       </c>
       <c r="DD4">
-        <v>0.01430855371121778</v>
+        <v>0.01434389149973603</v>
       </c>
       <c r="DE4">
-        <v>0.001026323451014205</v>
+        <v>0.001008134897496428</v>
       </c>
       <c r="DF4">
-        <v>0.001915559095214354</v>
+        <v>0.001900954091319617</v>
       </c>
       <c r="DG4">
-        <v>0.02080800703427816</v>
+        <v>0.02086953710788724</v>
       </c>
       <c r="DH4">
-        <v>2.677617133093041E-05</v>
+        <v>4.559520985635013E-06</v>
       </c>
       <c r="DI4">
-        <v>0.0009023864448538196</v>
+        <v>0.0008836984349606678</v>
       </c>
       <c r="DJ4">
-        <v>0.0003035741550893893</v>
+        <v>0.0002824729788221129</v>
       </c>
       <c r="DK4">
-        <v>0.01477359773433316</v>
+        <v>0.01481080961364455</v>
       </c>
       <c r="DL4">
-        <v>0.01822041390565984</v>
+        <v>0.01827151618272126</v>
       </c>
       <c r="DM4">
-        <v>0.0007038590349858605</v>
+        <v>0.0006843709752640322</v>
       </c>
       <c r="DN4">
-        <v>0.004690901233164892</v>
+        <v>0.004687480639541074</v>
       </c>
       <c r="DO4">
-        <v>0.0003085469553365662</v>
+        <v>0.0002874658190627015</v>
       </c>
       <c r="DP4">
-        <v>0.0006168153806592879</v>
+        <v>0.0005969765418647982</v>
       </c>
       <c r="DQ4">
-        <v>0.007673858381435096</v>
+        <v>0.007682458870225087</v>
       </c>
       <c r="DR4">
-        <v>0.009012925447994464</v>
+        <v>0.009026922271617513</v>
       </c>
       <c r="DS4">
-        <v>0.002850711741696843</v>
+        <v>0.002839875329328598</v>
       </c>
       <c r="DT4">
-        <v>2.90868664457853E-05</v>
+        <v>6.879528019846498E-06</v>
       </c>
       <c r="DU4">
-        <v>0.00659356432773824</v>
+        <v>0.006597811316559863</v>
       </c>
       <c r="DV4">
-        <v>0.001181701758737405</v>
+        <v>0.001164139367564448</v>
       </c>
       <c r="DW4">
-        <v>0.002800293139190747</v>
+        <v>0.002789253543824628</v>
       </c>
       <c r="DX4">
-        <v>0.03530798675501093</v>
+        <v>0.03542795060508996</v>
       </c>
       <c r="DY4">
-        <v>0.01033169851354511</v>
+        <v>0.0103510098887752</v>
       </c>
       <c r="DZ4">
-        <v>0.0008081787401711525</v>
+        <v>0.0007891110806465391</v>
       </c>
       <c r="EA4">
-        <v>0.003798402288802538</v>
+        <v>0.003791384994712996</v>
       </c>
       <c r="EB4">
-        <v>2.162062707467007E-05</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.006077433802083571</v>
+        <v>0.006079600825529635</v>
       </c>
       <c r="ED4">
-        <v>0.003459167571940613</v>
+        <v>0.003450783188655241</v>
       </c>
       <c r="EE4">
-        <v>0.007660456380768939</v>
+        <v>0.00766900286055159</v>
       </c>
       <c r="EF4">
-        <v>0.008177972406492475</v>
+        <v>0.008188604435106861</v>
       </c>
       <c r="EG4">
-        <v>0.008012718898278421</v>
+        <v>0.008022684968267633</v>
       </c>
       <c r="EH4">
-        <v>0.006717322733889747</v>
+        <v>0.006722068459342773</v>
       </c>
       <c r="EI4">
-        <v>0.01422858120724269</v>
+        <v>0.01426359671286737</v>
       </c>
       <c r="EJ4">
-        <v>0.0006542951825222506</v>
+        <v>0.0006346073843779121</v>
       </c>
       <c r="EK4">
-        <v>0.009022516448471192</v>
+        <v>0.009036551923070915</v>
       </c>
       <c r="EL4">
-        <v>0.03446262471299155</v>
+        <v>0.03457918182060949</v>
       </c>
       <c r="EM4">
-        <v>0.04055121201562951</v>
+        <v>0.04069230565062974</v>
       </c>
       <c r="EN4">
-        <v>0.03026761150447516</v>
+        <v>0.03036726303920017</v>
       </c>
       <c r="EO4">
-        <v>0.01007330000070121</v>
+        <v>0.0100915700502722</v>
       </c>
       <c r="EP4">
-        <v>0.003780903987932771</v>
+        <v>0.003773816177068632</v>
       </c>
       <c r="EQ4">
-        <v>0.00118696905899922</v>
+        <v>0.001169427894631543</v>
       </c>
       <c r="ER4">
-        <v>2.220815910387381E-06</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.002318930915264264</v>
+        <v>0.002305951468040712</v>
       </c>
       <c r="ET4">
-        <v>0.009571413975754572</v>
+        <v>0.009587661464166172</v>
       </c>
       <c r="EU4">
-        <v>0.02391692918880955</v>
+        <v>0.02399098797388853</v>
       </c>
       <c r="EV4">
-        <v>0.04071596502381869</v>
+        <v>0.0408577226004684</v>
       </c>
       <c r="EW4">
-        <v>0.03929900595338764</v>
+        <v>0.03943505329656231</v>
       </c>
       <c r="EX4">
-        <v>0.02326207915625973</v>
+        <v>0.02333349894727385</v>
       </c>
       <c r="EY4">
-        <v>0.008049950400129041</v>
+        <v>0.008060066510138906</v>
       </c>
       <c r="EZ4">
-        <v>0.000197150059799497</v>
+        <v>0.0001756200028085947</v>
       </c>
       <c r="FA4">
-        <v>0.007349103365292895</v>
+        <v>0.00735639511694075</v>
       </c>
       <c r="FB4">
-        <v>0.007625322379022576</v>
+        <v>0.007633727271544825</v>
       </c>
       <c r="FC4">
-        <v>0.008078655401555846</v>
+        <v>0.008088887190461079</v>
       </c>
       <c r="FD4">
-        <v>0.006152015005790688</v>
+        <v>0.006154482585614776</v>
       </c>
       <c r="FE4">
-        <v>0.003292274863645081</v>
+        <v>0.003283217915887287</v>
       </c>
       <c r="FF4">
-        <v>0.008484550421731175</v>
+        <v>0.008496417935605408</v>
       </c>
       <c r="FG4">
-        <v>0.008244584409803475</v>
+        <v>0.008255484879545824</v>
       </c>
       <c r="FH4">
-        <v>0.00261151272980727</v>
+        <v>0.002599712364256897</v>
       </c>
       <c r="FI4">
-        <v>0.001704481984722602</v>
+        <v>0.001689026356693904</v>
       </c>
       <c r="FJ4">
-        <v>9.774437485846013E-05</v>
+        <v>7.581372078497144E-05</v>
       </c>
       <c r="FK4">
-        <v>0.002669239732676636</v>
+        <v>0.002657672002402099</v>
       </c>
       <c r="FL4">
-        <v>0.004922827244692955</v>
+        <v>0.004920341294632521</v>
       </c>
       <c r="FM4">
-        <v>0.004996741248366908</v>
+        <v>0.004994553165920903</v>
       </c>
       <c r="FN4">
-        <v>0.009358690465180983</v>
+        <v>0.00937408069459594</v>
       </c>
       <c r="FO4">
-        <v>0.003442469671110631</v>
+        <v>0.003434017996599795</v>
       </c>
       <c r="FP4">
-        <v>0.0003617435779807457</v>
+        <v>0.0003408768199071555</v>
       </c>
       <c r="FQ4">
-        <v>9.645163479420348E-05</v>
+        <v>7.451577108005299E-05</v>
       </c>
       <c r="FR4">
-        <v>0.004415936519497557</v>
+        <v>0.004411407839729826</v>
       </c>
       <c r="FS4">
-        <v>0.006984474047168712</v>
+        <v>0.006990296371377354</v>
       </c>
       <c r="FT4">
-        <v>0.00118696905899922</v>
+        <v>0.001169427894631543</v>
       </c>
       <c r="FU4">
-        <v>0.001112103155277952</v>
+        <v>0.001094260287213613</v>
       </c>
       <c r="FV4">
-        <v>0.0002835785740954935</v>
+        <v>0.0002623968172113688</v>
       </c>
       <c r="FW4">
-        <v>6.764734336246377E-05</v>
+        <v>4.559540062204462E-05</v>
       </c>
       <c r="FX4">
-        <v>2.466957722622051E-05</v>
+        <v>2.444437472567421E-06</v>
       </c>
       <c r="FY4">
-        <v>7.484286872012296E-05</v>
+        <v>5.28199233802817E-05</v>
       </c>
       <c r="FZ4">
-        <v>7.674644381474164E-05</v>
+        <v>5.473116973263419E-05</v>
       </c>
       <c r="GA4">
-        <v>0.000197150059799497</v>
+        <v>0.0001756200028085947</v>
       </c>
       <c r="GB4">
-        <v>0.0007558332375692785</v>
+        <v>0.0007365546297911395</v>
       </c>
       <c r="GC4">
-        <v>0.0009740359884152158</v>
+        <v>0.0009556367205405549</v>
       </c>
       <c r="GD4">
-        <v>0.001207684460028895</v>
+        <v>0.001190226777096129</v>
       </c>
       <c r="GE4">
-        <v>0.0009877320490959893</v>
+        <v>0.0009693879752673721</v>
       </c>
       <c r="GF4">
-        <v>0.0004590202528159584</v>
+        <v>0.0004385455120818776</v>
       </c>
       <c r="GG4">
-        <v>0.001203129459802485</v>
+        <v>0.001185653420577491</v>
       </c>
       <c r="GH4">
-        <v>0.006016223299041055</v>
+        <v>0.006018143648979895</v>
       </c>
       <c r="GI4">
-        <v>0.01126390455988113</v>
+        <v>0.01128697265207116</v>
       </c>
       <c r="GJ4">
-        <v>0.004812988239233321</v>
+        <v>0.004810059646630186</v>
       </c>
       <c r="GK4">
-        <v>0.002057212102255327</v>
+        <v>0.002043177948824463</v>
       </c>
       <c r="GL4">
-        <v>4.633919430332567E-08</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.002936121645942208</v>
+        <v>0.002925629428762448</v>
       </c>
       <c r="GN4">
-        <v>0.004890082243065338</v>
+        <v>0.00488746433322686</v>
       </c>
       <c r="GO4">
-        <v>0.007900804392715625</v>
+        <v>0.007910319456060154</v>
       </c>
       <c r="GP4">
-        <v>0.004369562217192486</v>
+        <v>0.004364846652638222</v>
       </c>
       <c r="GQ4">
-        <v>0.003111650354667</v>
+        <v>0.003101865504361347</v>
       </c>
       <c r="GR4">
-        <v>0.003515490974740211</v>
+        <v>0.003507333570332921</v>
       </c>
       <c r="GS4">
-        <v>0.001058798952628425</v>
+        <v>0.001040741272824862</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.432733653415615E-05</v>
+        <v>7.300636903764364E-05</v>
       </c>
       <c r="C5">
-        <v>1.874438931127996E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.00013138762517246</v>
+        <v>0.0001102141797427883</v>
       </c>
       <c r="E5">
-        <v>6.286879769002874E-05</v>
+        <v>4.142260643405306E-05</v>
       </c>
       <c r="F5">
-        <v>0.0001783763834459647</v>
+        <v>0.0001573899813177213</v>
       </c>
       <c r="G5">
-        <v>0.0003421146074297753</v>
+        <v>0.0003217799811540808</v>
       </c>
       <c r="H5">
-        <v>0.0003224526181522106</v>
+        <v>0.0003020397254246614</v>
       </c>
       <c r="I5">
-        <v>9.304879658113319E-05</v>
+        <v>7.172273973255843E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001980003627249261</v>
+        <v>0.000177092075746058</v>
       </c>
       <c r="K5">
-        <v>0.0001372557549568489</v>
+        <v>0.0001161056681858949</v>
       </c>
       <c r="L5">
-        <v>7.415724127526051E-05</v>
+        <v>5.275598476184343E-05</v>
       </c>
       <c r="M5">
-        <v>7.838673711985729E-05</v>
+        <v>5.700231652411962E-05</v>
       </c>
       <c r="N5">
-        <v>0.0001178749556689523</v>
+        <v>9.664772175012048E-05</v>
       </c>
       <c r="O5">
-        <v>1.386860449042961E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.161042420597402E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>7.431563326944076E-07</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>7.17821213625289E-05</v>
+        <v>5.037141045435681E-05</v>
       </c>
       <c r="S5">
-        <v>8.180897699411486E-05</v>
+        <v>6.043817895551382E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001314810351690278</v>
+        <v>0.0001103079615668908</v>
       </c>
       <c r="U5">
-        <v>0.0002831563395960631</v>
+        <v>0.0002625870242273323</v>
       </c>
       <c r="V5">
-        <v>0.0003151297184212738</v>
+        <v>0.0002946876761823941</v>
       </c>
       <c r="W5">
-        <v>0.0002678108901598967</v>
+        <v>0.000247180490744047</v>
       </c>
       <c r="X5">
-        <v>0.0002951350391559329</v>
+        <v>0.0002746134061604935</v>
       </c>
       <c r="Y5">
-        <v>0.0001391632648867617</v>
+        <v>0.0001180207711437555</v>
       </c>
       <c r="Z5">
-        <v>0.0001502847944781264</v>
+        <v>0.0001291865710603667</v>
       </c>
       <c r="AA5">
-        <v>0.0001609946940846154</v>
+        <v>0.0001399391024590964</v>
       </c>
       <c r="AB5">
-        <v>7.924083708847531E-05</v>
+        <v>5.785981632035067E-05</v>
       </c>
       <c r="AC5">
-        <v>0.0001009327422914555</v>
+        <v>7.963806825204877E-05</v>
       </c>
       <c r="AD5">
-        <v>1.550214243040897E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>4.015689252452614E-05</v>
+        <v>1.862029433123252E-05</v>
       </c>
       <c r="AF5">
-        <v>1.72842163649307E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.318511151554301E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.038461551615897E-05</v>
+        <v>1.884892379628009E-05</v>
       </c>
       <c r="AI5">
-        <v>1.08554346011417E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001346886350511719</v>
+        <v>0.0001135283296109029</v>
       </c>
       <c r="AK5">
-        <v>0.0005123532411747433</v>
+        <v>0.0004926962662619758</v>
       </c>
       <c r="AL5">
-        <v>0.000340487737489551</v>
+        <v>0.0003201466353005573</v>
       </c>
       <c r="AM5">
-        <v>0.0004184358546255244</v>
+        <v>0.000398405032463178</v>
       </c>
       <c r="AN5">
-        <v>0.0004819230822928304</v>
+        <v>0.0004621449771865998</v>
       </c>
       <c r="AO5">
-        <v>0.0002335426714190047</v>
+        <v>0.0002127758640408493</v>
       </c>
       <c r="AP5">
-        <v>5.315197804705123E-05</v>
+        <v>3.166710804977265E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.000130631665200236</v>
+        <v>0.0001094552105987082</v>
       </c>
       <c r="AR5">
-        <v>0.0001870051931289187</v>
+        <v>0.0001660531388129988</v>
       </c>
       <c r="AS5">
-        <v>0.0001561791042615533</v>
+        <v>0.0001351043437145321</v>
       </c>
       <c r="AT5">
-        <v>0.0003540254169921397</v>
+        <v>0.0003337382028470288</v>
       </c>
       <c r="AU5">
-        <v>0.0003631971366551457</v>
+        <v>0.0003429464314280947</v>
       </c>
       <c r="AV5">
-        <v>0.0001708134737238467</v>
+        <v>0.0001497969667012667</v>
       </c>
       <c r="AW5">
-        <v>8.617274283377819E-05</v>
+        <v>6.481931518757099E-05</v>
       </c>
       <c r="AX5">
-        <v>4.136988847995735E-05</v>
+        <v>1.983811873449806E-05</v>
       </c>
       <c r="AY5">
-        <v>1.389895648931439E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>8.12126970160238E-05</v>
+        <v>5.983952542724235E-05</v>
       </c>
       <c r="BA5">
-        <v>3.782024061038111E-05</v>
+        <v>1.627434114792506E-05</v>
       </c>
       <c r="BB5">
-        <v>0.0001554564042881073</v>
+        <v>0.0001343787669638751</v>
       </c>
       <c r="BC5">
-        <v>0.0005756754788481113</v>
+        <v>0.0005562705642328157</v>
       </c>
       <c r="BD5">
-        <v>0.0003583340568338285</v>
+        <v>0.0003380639936467396</v>
       </c>
       <c r="BE5">
-        <v>0.0003112337285644232</v>
+        <v>0.0002907761779607359</v>
       </c>
       <c r="BF5">
-        <v>0.000431766884135706</v>
+        <v>0.0004117891274269412</v>
       </c>
       <c r="BG5">
-        <v>0.0002103843822699035</v>
+        <v>0.0001895253910797677</v>
       </c>
       <c r="BH5">
-        <v>0.0002783608697722618</v>
+        <v>0.0002577724655716337</v>
       </c>
       <c r="BI5">
-        <v>0.0004639082829547433</v>
+        <v>0.0004440584681956815</v>
       </c>
       <c r="BJ5">
-        <v>8.502599687591276E-05</v>
+        <v>6.366800449640042E-05</v>
       </c>
       <c r="BK5">
-        <v>1.180028556642529E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>3.782024061038111E-05</v>
+        <v>1.627434114792506E-05</v>
       </c>
       <c r="BM5">
-        <v>9.751310641710226E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3.067504687291504E-07</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>6.940805144975871E-07</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>3.563637269062238E-05</v>
+        <v>1.408178013048502E-05</v>
       </c>
       <c r="BQ5">
-        <v>1.599399441233698E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0001087374260046901</v>
+        <v>8.747381926439841E-05</v>
       </c>
       <c r="BS5">
-        <v>0.0001171589756952594</v>
+        <v>9.592889174882612E-05</v>
       </c>
       <c r="BT5">
-        <v>0.0001614503240678743</v>
+        <v>0.0001403965461216146</v>
       </c>
       <c r="BU5">
-        <v>9.432733653415615E-05</v>
+        <v>7.300636903764364E-05</v>
       </c>
       <c r="BV5">
-        <v>0.0001625711840266909</v>
+        <v>0.000141521867772011</v>
       </c>
       <c r="BW5">
-        <v>0.0001028505322209907</v>
+        <v>8.156349213006536E-05</v>
       </c>
       <c r="BX5">
-        <v>0.0004184358546255244</v>
+        <v>0.000398405032463178</v>
       </c>
       <c r="BY5">
-        <v>0.0003896757656822486</v>
+        <v>0.0003695304612015143</v>
       </c>
       <c r="BZ5">
-        <v>0.0003814623459840321</v>
+        <v>0.0003612843471910236</v>
       </c>
       <c r="CA5">
-        <v>0.0002756603498714862</v>
+        <v>0.0002550611959899479</v>
       </c>
       <c r="CB5">
-        <v>9.865216637525009E-05</v>
+        <v>7.734841428261959E-05</v>
       </c>
       <c r="CC5">
-        <v>2.359867613292021E-05</v>
+        <v>1.996166356229949E-06</v>
       </c>
       <c r="CD5">
-        <v>3.35646207667442E-05</v>
+        <v>1.200178139750142E-05</v>
       </c>
       <c r="CE5">
-        <v>5.410668401197272E-06</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>9.27601565917386E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>1.088228960015497E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>9.249111660162388E-05</v>
+        <v>7.116283985390004E-05</v>
       </c>
       <c r="CI5">
-        <v>0.0002699769300803106</v>
+        <v>0.0002493551527960647</v>
       </c>
       <c r="CJ5">
-        <v>0.0002053062124564893</v>
+        <v>0.0001844270071197786</v>
       </c>
       <c r="CK5">
-        <v>0.0003422653374242371</v>
+        <v>0.0003219313111438781</v>
       </c>
       <c r="CL5">
-        <v>0.0005306375805029267</v>
+        <v>0.000511053388173016</v>
       </c>
       <c r="CM5">
-        <v>0.001604276441054504</v>
+        <v>0.00158896597215117</v>
       </c>
       <c r="CN5">
-        <v>0.1164980257195445</v>
+        <v>0.1169400609428476</v>
       </c>
       <c r="CO5">
-        <v>0.05701338790517248</v>
+        <v>0.05721863876877189</v>
       </c>
       <c r="CP5">
-        <v>0.05273379606241637</v>
+        <v>0.05292201159636576</v>
       </c>
       <c r="CQ5">
-        <v>0.001930646629062772</v>
+        <v>0.001916635308289668</v>
       </c>
       <c r="CR5">
-        <v>0.03724664263145667</v>
+        <v>0.03737321005181703</v>
       </c>
       <c r="CS5">
-        <v>8.502599687591276E-05</v>
+        <v>6.366800449640042E-05</v>
       </c>
       <c r="CT5">
-        <v>0.03751747862150541</v>
+        <v>0.03764512413074459</v>
       </c>
       <c r="CU5">
-        <v>0.006608886357171473</v>
+        <v>0.006613497222550317</v>
       </c>
       <c r="CV5">
-        <v>0.02004915626333927</v>
+        <v>0.02010726742427186</v>
       </c>
       <c r="CW5">
-        <v>0.02215605118592619</v>
+        <v>0.02222254904607287</v>
       </c>
       <c r="CX5">
-        <v>0.0008092470702660534</v>
+        <v>0.0007907719099831529</v>
       </c>
       <c r="CY5">
-        <v>2.379533512569443E-07</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0007858519711256532</v>
+        <v>0.0007672836843856756</v>
       </c>
       <c r="DA5">
-        <v>0.01060801661023251</v>
+        <v>0.01062854640075128</v>
       </c>
       <c r="DB5">
-        <v>0.004700362827295838</v>
+        <v>0.00469737662999421</v>
       </c>
       <c r="DC5">
-        <v>6.339356767074725E-05</v>
+        <v>4.194946531248435E-05</v>
       </c>
       <c r="DD5">
-        <v>0.007228353234410569</v>
+        <v>0.007235429947666683</v>
       </c>
       <c r="DE5">
-        <v>0.0003500476471382938</v>
+        <v>0.00032974459909518</v>
       </c>
       <c r="DF5">
-        <v>0.0006593294457744362</v>
+        <v>0.0006402575238732785</v>
       </c>
       <c r="DG5">
-        <v>0.01669948638641528</v>
+        <v>0.01674426386211134</v>
       </c>
       <c r="DH5">
-        <v>6.116998775244766E-06</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0002423720310945899</v>
+        <v>0.0002216403698374196</v>
       </c>
       <c r="DJ5">
-        <v>6.409665164491405E-05</v>
+        <v>4.265534798047795E-05</v>
       </c>
       <c r="DK5">
-        <v>0.01073225260566774</v>
+        <v>0.010753276929594</v>
       </c>
       <c r="DL5">
-        <v>0.01213702455405258</v>
+        <v>0.01216364070871951</v>
       </c>
       <c r="DM5">
-        <v>2.379533512569443E-07</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001761958335260841</v>
+        <v>0.001747275534403045</v>
       </c>
       <c r="DO5">
-        <v>0.000190140253013728</v>
+        <v>0.0001692006781071941</v>
       </c>
       <c r="DP5">
-        <v>1.285244552776606E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.004072339850371117</v>
+        <v>0.004066853746809079</v>
       </c>
       <c r="DR5">
-        <v>0.004387283838799215</v>
+        <v>0.004383051400273773</v>
       </c>
       <c r="DS5">
-        <v>0.0004068089650527281</v>
+        <v>0.0003867318609308036</v>
       </c>
       <c r="DT5">
-        <v>0.001536233943554571</v>
+        <v>0.001520652624902543</v>
       </c>
       <c r="DU5">
-        <v>0.01160069357375885</v>
+        <v>0.01162517481103493</v>
       </c>
       <c r="DV5">
-        <v>0.003343127877164355</v>
+        <v>0.003334739074745802</v>
       </c>
       <c r="DW5">
-        <v>0.004874572420894902</v>
+        <v>0.00487227968174634</v>
       </c>
       <c r="DX5">
-        <v>0.03894383856909706</v>
+        <v>0.03907716184219775</v>
       </c>
       <c r="DY5">
-        <v>0.0108680846006769</v>
+        <v>0.01088964961700959</v>
       </c>
       <c r="DZ5">
-        <v>0.0005387827202036519</v>
+        <v>0.000519230950390875</v>
       </c>
       <c r="EA5">
-        <v>0.0027415681992673</v>
+        <v>0.002730784830312108</v>
       </c>
       <c r="EB5">
-        <v>0.000336841437623526</v>
+        <v>0.0003164858209849065</v>
       </c>
       <c r="EC5">
-        <v>0.01169961757012411</v>
+        <v>0.01172449258394485</v>
       </c>
       <c r="ED5">
-        <v>0.008062778703751499</v>
+        <v>0.00807317692837152</v>
       </c>
       <c r="EE5">
-        <v>0.0134769545048199</v>
+        <v>0.01350890438037843</v>
       </c>
       <c r="EF5">
-        <v>0.01655932839156507</v>
+        <v>0.01660354795479352</v>
       </c>
       <c r="EG5">
-        <v>0.0172259953670699</v>
+        <v>0.01727286866273635</v>
       </c>
       <c r="EH5">
-        <v>0.01470493095970069</v>
+        <v>0.01474176891442191</v>
       </c>
       <c r="EI5">
-        <v>0.02461971209540457</v>
+        <v>0.02469601679631572</v>
       </c>
       <c r="EJ5">
-        <v>0.00384655985866689</v>
+        <v>0.003840175015989446</v>
       </c>
       <c r="EK5">
-        <v>0.005931641782055287</v>
+        <v>0.005933556809836833</v>
       </c>
       <c r="EL5">
-        <v>0.02684177201376002</v>
+        <v>0.02692692183930036</v>
       </c>
       <c r="EM5">
-        <v>0.03661625865461869</v>
+        <v>0.03674031677052991</v>
       </c>
       <c r="EN5">
-        <v>0.02751318898909033</v>
+        <v>0.02760101145490284</v>
       </c>
       <c r="EO5">
-        <v>0.009851083638044293</v>
+        <v>0.009868600383586352</v>
       </c>
       <c r="EP5">
-        <v>0.004081294250042108</v>
+        <v>0.004075843790334863</v>
       </c>
       <c r="EQ5">
-        <v>0.002412059911374334</v>
+        <v>0.002399964902778513</v>
       </c>
       <c r="ER5">
-        <v>0.000418602564619399</v>
+        <v>0.0003985724060623229</v>
       </c>
       <c r="ES5">
-        <v>0.0005319720804538935</v>
+        <v>0.0005123932002302345</v>
       </c>
       <c r="ET5">
-        <v>0.005734303289306043</v>
+        <v>0.005735432792112278</v>
       </c>
       <c r="EU5">
-        <v>0.01548384343108132</v>
+        <v>0.01552378192230369</v>
       </c>
       <c r="EV5">
-        <v>0.0295985329124691</v>
+        <v>0.02969465629165693</v>
       </c>
       <c r="EW5">
-        <v>0.02585419705004622</v>
+        <v>0.02593541573783345</v>
       </c>
       <c r="EX5">
-        <v>0.01420731697798439</v>
+        <v>0.0142421741320759</v>
       </c>
       <c r="EY5">
-        <v>0.003887631057157822</v>
+        <v>0.003881409702362195</v>
       </c>
       <c r="EZ5">
-        <v>0.00151730914424992</v>
+        <v>0.001501652493602094</v>
       </c>
       <c r="FA5">
-        <v>0.01137887058190923</v>
+        <v>0.01140246883129091</v>
       </c>
       <c r="FB5">
-        <v>0.01059441761073217</v>
+        <v>0.01061489326911687</v>
       </c>
       <c r="FC5">
-        <v>0.01099468059602542</v>
+        <v>0.01101674953997372</v>
       </c>
       <c r="FD5">
-        <v>0.007752244715161365</v>
+        <v>0.00776140682917609</v>
       </c>
       <c r="FE5">
-        <v>0.003289878679120876</v>
+        <v>0.003281277913114299</v>
       </c>
       <c r="FF5">
-        <v>0.008057579703942525</v>
+        <v>0.008067957233440476</v>
       </c>
       <c r="FG5">
-        <v>0.007571106921816863</v>
+        <v>0.007579547999308695</v>
       </c>
       <c r="FH5">
-        <v>0.001442782546988231</v>
+        <v>0.001426829236004864</v>
       </c>
       <c r="FI5">
-        <v>0.000424478584403498</v>
+        <v>0.0004044718159120473</v>
       </c>
       <c r="FJ5">
-        <v>0.0001909394429843636</v>
+        <v>0.0001700030493308797</v>
       </c>
       <c r="FK5">
-        <v>0.006424064463962334</v>
+        <v>0.006427939627902106</v>
       </c>
       <c r="FL5">
-        <v>0.01112812059112247</v>
+        <v>0.01115072070588998</v>
       </c>
       <c r="FM5">
-        <v>0.01069579360700734</v>
+        <v>0.01071667280235973</v>
       </c>
       <c r="FN5">
-        <v>0.01631096340069068</v>
+        <v>0.016354194323028</v>
       </c>
       <c r="FO5">
-        <v>0.007601077420715665</v>
+        <v>0.007609637798679896</v>
       </c>
       <c r="FP5">
-        <v>0.002054085224527301</v>
+        <v>0.002040565263033897</v>
       </c>
       <c r="FQ5">
-        <v>0.000260522230427702</v>
+        <v>0.0002398628177961516</v>
       </c>
       <c r="FR5">
-        <v>0.001896938430301304</v>
+        <v>0.001882792930779638</v>
       </c>
       <c r="FS5">
-        <v>0.004331134140862307</v>
+        <v>0.00432667819302821</v>
       </c>
       <c r="FT5">
-        <v>0.0004700930527274979</v>
+        <v>0.0004502678570432824</v>
       </c>
       <c r="FU5">
-        <v>0.0005740919789062935</v>
+        <v>0.0005546807610161761</v>
       </c>
       <c r="FV5">
-        <v>0.0001307248151968134</v>
+        <v>0.0001095487313878651</v>
       </c>
       <c r="FW5">
-        <v>7.365947129354993E-05</v>
+        <v>5.225623335853007E-05</v>
       </c>
       <c r="FX5">
-        <v>0.0001562809542578111</v>
+        <v>0.0001352065991345604</v>
       </c>
       <c r="FY5">
-        <v>0.0008119863001654066</v>
+        <v>0.0007935220436523135</v>
       </c>
       <c r="FZ5">
-        <v>0.0008366366692596848</v>
+        <v>0.0008182705359272464</v>
       </c>
       <c r="GA5">
-        <v>0.0009517849650288221</v>
+        <v>0.0009338771906355395</v>
       </c>
       <c r="GB5">
-        <v>5.107773412326461E-06</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>4.481429435340048E-06</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>5.883948483807669E-07</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>6.401471364792466E-07</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>8.768550177819529E-05</v>
+        <v>6.633809581542101E-05</v>
       </c>
       <c r="GG5">
-        <v>1.752577335605524E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.002666732402016972</v>
+        <v>0.00265565114192575</v>
       </c>
       <c r="GI5">
-        <v>0.006344905366870855</v>
+        <v>0.006348465430361029</v>
       </c>
       <c r="GJ5">
-        <v>0.00253537610684336</v>
+        <v>0.002523771970302209</v>
       </c>
       <c r="GK5">
-        <v>0.0007033595741566491</v>
+        <v>0.0006844629184442037</v>
       </c>
       <c r="GL5">
-        <v>0.0003357796676625383</v>
+        <v>0.0003154198245457961</v>
       </c>
       <c r="GM5">
-        <v>0.003040962788266725</v>
+        <v>0.00303137118845832</v>
       </c>
       <c r="GN5">
-        <v>0.005285602305792542</v>
+        <v>0.005284945710893833</v>
       </c>
       <c r="GO5">
-        <v>0.007099780439134684</v>
+        <v>0.00710634535593169</v>
       </c>
       <c r="GP5">
-        <v>0.003084824986655108</v>
+        <v>0.003075407984573817</v>
       </c>
       <c r="GQ5">
-        <v>0.001606922940957264</v>
+        <v>0.001591623006703008</v>
       </c>
       <c r="GR5">
-        <v>0.001251402154020069</v>
+        <v>0.001234687034854391</v>
       </c>
       <c r="GS5">
-        <v>1.11012545921096E-05</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0004490830616499851</v>
+        <v>0.0004350089538991025</v>
       </c>
       <c r="C6">
-        <v>0.0002253882758469586</v>
+        <v>0.0002106530442182375</v>
       </c>
       <c r="D6">
-        <v>0.0001883605748863965</v>
+        <v>0.00017351590889085</v>
       </c>
       <c r="E6">
-        <v>0.0002352418261025766</v>
+        <v>0.0002205357163746279</v>
       </c>
       <c r="F6">
-        <v>0.0001919982649807644</v>
+        <v>0.000177164350079719</v>
       </c>
       <c r="G6">
-        <v>9.820259854754389E-05</v>
+        <v>8.309147309599692E-05</v>
       </c>
       <c r="H6">
-        <v>0.0002343091060783802</v>
+        <v>0.0002196002397216745</v>
       </c>
       <c r="I6">
-        <v>3.604421793504886E-05</v>
+        <v>2.07493850739475E-05</v>
       </c>
       <c r="J6">
-        <v>2.966175576947684E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.716838670479456E-05</v>
+        <v>1.184732156500633E-05</v>
       </c>
       <c r="L6">
-        <v>2.974332077159277E-07</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4.596456119239958E-05</v>
+        <v>3.069904763697737E-05</v>
       </c>
       <c r="N6">
-        <v>1.042497127044164E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.535597639836038E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.724155674436134E-05</v>
+        <v>5.203892677273643E-05</v>
       </c>
       <c r="Q6">
-        <v>8.13944081115106E-05</v>
+        <v>6.623360650859233E-05</v>
       </c>
       <c r="R6">
-        <v>0.0002937223576196619</v>
+        <v>0.0002791890855179272</v>
       </c>
       <c r="S6">
-        <v>0.0004377561713561461</v>
+        <v>0.0004236485872879321</v>
       </c>
       <c r="T6">
-        <v>0.000335818808711716</v>
+        <v>0.0003214099515304691</v>
       </c>
       <c r="U6">
-        <v>0.0003240252684057714</v>
+        <v>0.0003095815557357275</v>
       </c>
       <c r="V6">
-        <v>0.0002164883056160781</v>
+        <v>0.0002017267703665078</v>
       </c>
       <c r="W6">
-        <v>0.0002826995673337118</v>
+        <v>0.0002681337176739787</v>
       </c>
       <c r="X6">
-        <v>0.0001724188244728401</v>
+        <v>0.0001575270430659303</v>
       </c>
       <c r="Y6">
-        <v>6.774165175733468E-05</v>
+        <v>5.254049980296922E-05</v>
       </c>
       <c r="Z6">
-        <v>5.9335628539268E-05</v>
+        <v>4.4109632811065E-05</v>
       </c>
       <c r="AA6">
-        <v>6.186281160482746E-05</v>
+        <v>4.664428489769401E-05</v>
       </c>
       <c r="AB6">
-        <v>3.437876089184404E-06</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>3.68638339563111E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.12757740707644E-05</v>
+        <v>2.599640293205929E-05</v>
       </c>
       <c r="AE6">
-        <v>1.223412381737416E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>4.265725610660241E-05</v>
+        <v>2.73819679006193E-05</v>
       </c>
       <c r="AG6">
-        <v>7.121025784731626E-05</v>
+        <v>5.601935726425868E-05</v>
       </c>
       <c r="AH6">
-        <v>0.0002364883361349132</v>
+        <v>0.0002217859104335876</v>
       </c>
       <c r="AI6">
-        <v>0.000502165363027031</v>
+        <v>0.0004882481385794628</v>
       </c>
       <c r="AJ6">
-        <v>0.0003695369095864214</v>
+        <v>0.0003552277053386285</v>
       </c>
       <c r="AK6">
-        <v>0.0002333782360542318</v>
+        <v>0.0002186666185363942</v>
       </c>
       <c r="AL6">
-        <v>0.0002987899477511239</v>
+        <v>0.0002842716527747029</v>
       </c>
       <c r="AM6">
-        <v>8.20382321282125E-05</v>
+        <v>6.687933332972949E-05</v>
       </c>
       <c r="AN6">
-        <v>1.9010500493165E-05</v>
+        <v>3.665324941737814E-06</v>
       </c>
       <c r="AO6">
-        <v>3.213620283366824E-05</v>
+        <v>1.682981993983276E-05</v>
       </c>
       <c r="AP6">
-        <v>4.212880109289338E-05</v>
+        <v>2.685195105243715E-05</v>
       </c>
       <c r="AQ6">
-        <v>6.838579477404485E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>4.784189124110074E-05</v>
+        <v>3.258192608376624E-05</v>
       </c>
       <c r="AS6">
-        <v>2.550251266157893E-05</v>
+        <v>1.017652407619724E-05</v>
       </c>
       <c r="AT6">
-        <v>6.97134348084861E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.042497127044164E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0002350831260984596</v>
+        <v>0.0002203765473369492</v>
       </c>
       <c r="AW6">
-        <v>0.09729881852409829</v>
+        <v>0.09757098118510675</v>
       </c>
       <c r="AX6">
-        <v>0.05728427448605235</v>
+        <v>0.05743817524645635</v>
       </c>
       <c r="AY6">
-        <v>0.02009628352133207</v>
+        <v>0.02014027618214688</v>
       </c>
       <c r="AZ6">
-        <v>0.002520830065394657</v>
+        <v>0.002512878949773873</v>
       </c>
       <c r="BA6">
-        <v>0.02154835055900118</v>
+        <v>0.02159663476459822</v>
       </c>
       <c r="BB6">
-        <v>0.0007583153196720003</v>
+        <v>0.0007451551394802353</v>
       </c>
       <c r="BC6">
-        <v>0.01331202534533678</v>
+        <v>0.01333596731494986</v>
       </c>
       <c r="BD6">
-        <v>0.02765512071742128</v>
+        <v>0.02772145331674243</v>
       </c>
       <c r="BE6">
-        <v>0.03113600680772144</v>
+        <v>0.03121262707155865</v>
       </c>
       <c r="BF6">
-        <v>0.009755409253072053</v>
+        <v>0.009768839740200378</v>
       </c>
       <c r="BG6">
-        <v>0.001671916643372386</v>
+        <v>0.001661456587136372</v>
       </c>
       <c r="BH6">
-        <v>6.950826180316357E-05</v>
+        <v>5.431233101691758E-05</v>
       </c>
       <c r="BI6">
-        <v>0.005789563650191214</v>
+        <v>0.005791273188105308</v>
       </c>
       <c r="BJ6">
-        <v>0.006659925172769885</v>
+        <v>0.006664207040579211</v>
       </c>
       <c r="BK6">
-        <v>0.001893709849126083</v>
+        <v>0.001883905296699599</v>
       </c>
       <c r="BL6">
-        <v>0.002124175055104745</v>
+        <v>0.002115051636349467</v>
       </c>
       <c r="BM6">
-        <v>0.009750418252942579</v>
+        <v>0.009763833989305266</v>
       </c>
       <c r="BN6">
-        <v>0.003993504803598366</v>
+        <v>0.003989906138260323</v>
       </c>
       <c r="BO6">
-        <v>0.008850530229597938</v>
+        <v>0.008861286371292479</v>
       </c>
       <c r="BP6">
-        <v>0.02119240054976723</v>
+        <v>0.02123963275475739</v>
       </c>
       <c r="BQ6">
-        <v>0.0010459755271344</v>
+        <v>0.001033665518890875</v>
       </c>
       <c r="BR6">
-        <v>0.0003531413491610925</v>
+        <v>0.0003387836882787436</v>
       </c>
       <c r="BS6">
-        <v>5.9335628539268E-05</v>
+        <v>4.4109632811065E-05</v>
       </c>
       <c r="BT6">
-        <v>0.007346571590582671</v>
+        <v>0.007352882823273341</v>
       </c>
       <c r="BU6">
-        <v>0.0087012942257265</v>
+        <v>0.008711609304455543</v>
       </c>
       <c r="BV6">
-        <v>0.0005613279145618091</v>
+        <v>0.0005475855434321361</v>
       </c>
       <c r="BW6">
-        <v>0.002051387753216518</v>
+        <v>0.002042049213562873</v>
       </c>
       <c r="BX6">
-        <v>0.0001060946327522768</v>
+        <v>9.100683199396636E-05</v>
       </c>
       <c r="BY6">
-        <v>0.000680516517653766</v>
+        <v>0.0006671264052108006</v>
       </c>
       <c r="BZ6">
-        <v>0.003889670200904718</v>
+        <v>0.003885764655212088</v>
       </c>
       <c r="CA6">
-        <v>0.007206372186945659</v>
+        <v>0.007212269064097953</v>
       </c>
       <c r="CB6">
-        <v>0.002556090266309367</v>
+        <v>0.002548243361256918</v>
       </c>
       <c r="CC6">
-        <v>0.0001083026328095561</v>
+        <v>9.322135773558335E-05</v>
       </c>
       <c r="CD6">
-        <v>0.002739312071062455</v>
+        <v>0.002732006673089074</v>
       </c>
       <c r="CE6">
-        <v>0.0001675275643459525</v>
+        <v>0.0001526213269522792</v>
       </c>
       <c r="CF6">
-        <v>0.005496922542599601</v>
+        <v>0.005497767187650093</v>
       </c>
       <c r="CG6">
-        <v>0.0311056258069333</v>
+        <v>0.03118215628054594</v>
       </c>
       <c r="CH6">
-        <v>0.004363293113191309</v>
+        <v>0.004360787347181876</v>
       </c>
       <c r="CI6">
-        <v>0.0004465067615831514</v>
+        <v>0.000432425039647233</v>
       </c>
       <c r="CJ6">
-        <v>0.001683144243663649</v>
+        <v>0.001672717370296054</v>
       </c>
       <c r="CK6">
-        <v>5.9335628539268E-05</v>
+        <v>4.4109632811065E-05</v>
       </c>
       <c r="CL6">
-        <v>0.006546961169839405</v>
+        <v>0.006550909175599129</v>
       </c>
       <c r="CM6">
-        <v>0.006996059481489786</v>
+        <v>0.007001334785140085</v>
       </c>
       <c r="CN6">
-        <v>0.01391810336105948</v>
+        <v>0.01394383657782475</v>
       </c>
       <c r="CO6">
-        <v>0.01048400627197311</v>
+        <v>0.01049959010784753</v>
       </c>
       <c r="CP6">
-        <v>0.01230184931913108</v>
+        <v>0.01232280574087211</v>
       </c>
       <c r="CQ6">
-        <v>0.01243951732270242</v>
+        <v>0.01246088061849753</v>
       </c>
       <c r="CR6">
-        <v>0.01676771643498333</v>
+        <v>0.01680187160597077</v>
       </c>
       <c r="CS6">
-        <v>0.001192870730945113</v>
+        <v>0.001180994867495937</v>
       </c>
       <c r="CT6">
-        <v>0.01053290827324171</v>
+        <v>0.01054863663765576</v>
       </c>
       <c r="CU6">
-        <v>0.04005558103911049</v>
+        <v>0.0401585628628891</v>
       </c>
       <c r="CV6">
-        <v>0.05453529341473907</v>
+        <v>0.05468106963607772</v>
       </c>
       <c r="CW6">
-        <v>0.03573216092695355</v>
+        <v>0.03582236499974519</v>
       </c>
       <c r="CX6">
-        <v>0.01738955045111477</v>
+        <v>0.01742554343568665</v>
       </c>
       <c r="CY6">
-        <v>0.007685198599367237</v>
+        <v>0.007692510635006374</v>
       </c>
       <c r="CZ6">
-        <v>0.002788382072335415</v>
+        <v>0.002781221699421115</v>
       </c>
       <c r="DA6">
-        <v>0.001093758928373983</v>
+        <v>0.001081590142678005</v>
       </c>
       <c r="DB6">
-        <v>0.0002319822860180185</v>
+        <v>0.0002172665428076758</v>
       </c>
       <c r="DC6">
-        <v>0.006589718170948594</v>
+        <v>0.006593792543866482</v>
       </c>
       <c r="DD6">
-        <v>0.01903624649383289</v>
+        <v>0.01907710624393744</v>
       </c>
       <c r="DE6">
-        <v>0.03782350098120651</v>
+        <v>0.0379198859528581</v>
       </c>
       <c r="DF6">
-        <v>0.03357368087095888</v>
+        <v>0.03365750561443476</v>
       </c>
       <c r="DG6">
-        <v>0.01951231850618302</v>
+        <v>0.01955458527421963</v>
       </c>
       <c r="DH6">
-        <v>0.006745462174988862</v>
+        <v>0.006749996845090395</v>
       </c>
       <c r="DI6">
-        <v>0.0003278754685056522</v>
+        <v>0.0003134431349976721</v>
       </c>
       <c r="DJ6">
-        <v>0.005843727551596319</v>
+        <v>0.005845597169453301</v>
       </c>
       <c r="DK6">
-        <v>0.006751312575140631</v>
+        <v>0.00675586453594128</v>
       </c>
       <c r="DL6">
-        <v>0.006937644579974403</v>
+        <v>0.00694274723996618</v>
       </c>
       <c r="DM6">
-        <v>0.003631522494207924</v>
+        <v>0.003626853999963347</v>
       </c>
       <c r="DN6">
-        <v>0.001928757650035282</v>
+        <v>0.001919056680434673</v>
       </c>
       <c r="DO6">
-        <v>0.007112817584518691</v>
+        <v>0.007118437963578622</v>
       </c>
       <c r="DP6">
-        <v>0.002684366069637061</v>
+        <v>0.002676898280245375</v>
       </c>
       <c r="DQ6">
-        <v>0.001052548327304909</v>
+        <v>0.001040257744794182</v>
       </c>
       <c r="DR6">
-        <v>0.0001948201750539696</v>
+        <v>0.0001799946002316784</v>
       </c>
       <c r="DS6">
-        <v>0.0002685520769667016</v>
+        <v>0.0002539444147825525</v>
       </c>
       <c r="DT6">
-        <v>0.005284620137092113</v>
+        <v>0.005284837328136024</v>
       </c>
       <c r="DU6">
-        <v>0.007258140688288622</v>
+        <v>0.007264190565843831</v>
       </c>
       <c r="DV6">
-        <v>0.01078953527989906</v>
+        <v>0.01080602209847729</v>
       </c>
       <c r="DW6">
-        <v>0.01274920433073623</v>
+        <v>0.01277148289809179</v>
       </c>
       <c r="DX6">
-        <v>0.005733332148732472</v>
+        <v>0.005734875495967746</v>
       </c>
       <c r="DY6">
-        <v>0.00170694494428108</v>
+        <v>0.001696588413239217</v>
       </c>
       <c r="DZ6">
-        <v>0.0001043276127064373</v>
+        <v>8.923458956826342E-05</v>
       </c>
       <c r="EA6">
-        <v>0.006300603663448469</v>
+        <v>0.006303823566273763</v>
       </c>
       <c r="EB6">
-        <v>0.008229950213499029</v>
+        <v>0.008238872247772247</v>
       </c>
       <c r="EC6">
-        <v>0.002850873673956554</v>
+        <v>0.00284389799327747</v>
       </c>
       <c r="ED6">
-        <v>0.003182872082569162</v>
+        <v>0.003176877614190357</v>
       </c>
       <c r="EE6">
-        <v>0.001300681633741913</v>
+        <v>0.001289124402494531</v>
       </c>
       <c r="EF6">
-        <v>0.001474440338249512</v>
+        <v>0.00146339664614485</v>
       </c>
       <c r="EG6">
-        <v>0.001454252037725793</v>
+        <v>0.001443148679645989</v>
       </c>
       <c r="EH6">
-        <v>0.001341241934794117</v>
+        <v>0.001329804578417406</v>
       </c>
       <c r="EI6">
-        <v>0.001561392040505188</v>
+        <v>0.001550605331800357</v>
       </c>
       <c r="EJ6">
-        <v>0.0009023116634075126</v>
+        <v>0.0008895770605076958</v>
       </c>
       <c r="EK6">
-        <v>0.0001846170247892824</v>
+        <v>0.0001697612948328653</v>
       </c>
       <c r="EL6">
-        <v>0.0003203830383112857</v>
+        <v>0.0003059285611288934</v>
       </c>
       <c r="EM6">
-        <v>0.0005690461147620325</v>
+        <v>0.0005553265545639062</v>
       </c>
       <c r="EN6">
-        <v>0.0003693379795812609</v>
+        <v>0.0003550281874012282</v>
       </c>
       <c r="EO6">
-        <v>0.0002372659461550857</v>
+        <v>0.0002225658186591034</v>
       </c>
       <c r="EP6">
-        <v>0.0007985066807146332</v>
+        <v>0.0007854652850013384</v>
       </c>
       <c r="EQ6">
-        <v>0.005511209542970231</v>
+        <v>0.005512096412863174</v>
       </c>
       <c r="ER6">
-        <v>0.01037624826917768</v>
+        <v>0.01039151362919483</v>
       </c>
       <c r="ES6">
-        <v>0.006055781157097352</v>
+        <v>0.00605827749363924</v>
       </c>
       <c r="ET6">
-        <v>0.003090246880166306</v>
+        <v>0.003083978660511724</v>
       </c>
       <c r="EU6">
-        <v>0.0002203869157172147</v>
+        <v>0.0002056369027041552</v>
       </c>
       <c r="EV6">
-        <v>0.001211521331428942</v>
+        <v>0.001199700589324108</v>
       </c>
       <c r="EW6">
-        <v>0.003051464779160232</v>
+        <v>0.00304508194005703</v>
       </c>
       <c r="EX6">
-        <v>0.004759246623463022</v>
+        <v>0.004757911087323788</v>
       </c>
       <c r="EY6">
-        <v>0.001360632735297148</v>
+        <v>0.001349252687905878</v>
       </c>
       <c r="EZ6">
-        <v>0.001688976543814949</v>
+        <v>0.001678566907652409</v>
       </c>
       <c r="FA6">
-        <v>0.001202357131191207</v>
+        <v>0.001190509304540899</v>
       </c>
       <c r="FB6">
-        <v>0.0001055748527387928</v>
+        <v>9.048551578473733E-05</v>
       </c>
       <c r="FC6">
-        <v>0.0003849059399851205</v>
+        <v>0.0003706421584902064</v>
       </c>
       <c r="FD6">
-        <v>0.000222197985764197</v>
+        <v>0.0002074533253195856</v>
       </c>
       <c r="FE6">
-        <v>0.001331221334534165</v>
+        <v>0.00131975436254492</v>
       </c>
       <c r="FF6">
-        <v>0.002084606054078258</v>
+        <v>0.002075365690212672</v>
       </c>
       <c r="FG6">
-        <v>0.002246999258291016</v>
+        <v>0.002238238843140007</v>
       </c>
       <c r="FH6">
-        <v>0.002585927367083393</v>
+        <v>0.002578168644773766</v>
       </c>
       <c r="FI6">
-        <v>0.0005861136152047927</v>
+        <v>0.0005724444975417358</v>
       </c>
       <c r="FJ6">
-        <v>2.637990368433996E-05</v>
+        <v>1.105650820435081E-05</v>
       </c>
       <c r="FK6">
-        <v>8.093921709970215E-05</v>
+        <v>6.577707019208309E-05</v>
       </c>
       <c r="FL6">
-        <v>0.001466659138047654</v>
+        <v>0.001455592448816648</v>
       </c>
       <c r="FM6">
-        <v>0.001386955335980001</v>
+        <v>0.001375653084321769</v>
       </c>
       <c r="FN6">
-        <v>0.001958277350801074</v>
+        <v>0.001948663625876164</v>
       </c>
       <c r="FO6">
-        <v>0.001207287431319107</v>
+        <v>0.001195454176037227</v>
       </c>
       <c r="FP6">
-        <v>0.003687988395672746</v>
+        <v>0.003683486784869855</v>
       </c>
       <c r="FQ6">
-        <v>0.002477213064263157</v>
+        <v>0.002469133039777447</v>
       </c>
       <c r="FR6">
-        <v>0.00429786381149396</v>
+        <v>0.004295164670956341</v>
       </c>
       <c r="FS6">
-        <v>0.0007765895201460645</v>
+        <v>0.0007634833488586128</v>
       </c>
       <c r="FT6">
-        <v>0.0003099369080402952</v>
+        <v>0.0002954515576029525</v>
       </c>
       <c r="FU6">
-        <v>0.0009976502258807584</v>
+        <v>0.0009851973935188808</v>
       </c>
       <c r="FV6">
-        <v>0.0008042507908636454</v>
+        <v>0.0007912263717122441</v>
       </c>
       <c r="FW6">
-        <v>0.002160323056042487</v>
+        <v>0.002151306471724454</v>
       </c>
       <c r="FX6">
-        <v>0.003253653084405343</v>
+        <v>0.003247867807359466</v>
       </c>
       <c r="FY6">
-        <v>0.0009810562254502816</v>
+        <v>0.0009685543499697899</v>
       </c>
       <c r="FZ6">
-        <v>0.002447500163492353</v>
+        <v>0.002439332323333565</v>
       </c>
       <c r="GA6">
-        <v>0.0006316691163865806</v>
+        <v>0.0006181346367728196</v>
       </c>
       <c r="GB6">
-        <v>3.988050103456862E-07</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>2.127147855181865E-06</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0001787397046368146</v>
+        <v>0.0001638666044199484</v>
       </c>
       <c r="GE6">
-        <v>3.764528897658338E-05</v>
+        <v>2.235518803756002E-05</v>
       </c>
       <c r="GF6">
-        <v>3.447793089441668E-05</v>
+        <v>1.917846891440943E-05</v>
       </c>
       <c r="GG6">
-        <v>7.670432598984181E-05</v>
+        <v>6.152966297630316E-05</v>
       </c>
       <c r="GH6">
-        <v>6.874739178342529E-05</v>
+        <v>5.354921226645376E-05</v>
       </c>
       <c r="GI6">
-        <v>0.000339738248813393</v>
+        <v>0.000325340975431159</v>
       </c>
       <c r="GJ6">
-        <v>3.244838484176677E-08</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0003654487094803665</v>
+        <v>0.0003511274226679408</v>
       </c>
       <c r="GL6">
-        <v>4.596456119239958E-05</v>
+        <v>3.069904763697737E-05</v>
       </c>
       <c r="GM6">
-        <v>0.001018264726415534</v>
+        <v>0.001005872819651382</v>
       </c>
       <c r="GN6">
-        <v>0.0007910700705217148</v>
+        <v>0.0007780066961085095</v>
       </c>
       <c r="GO6">
-        <v>8.50051682051799E-05</v>
+        <v>6.985503810587538E-05</v>
       </c>
       <c r="GP6">
-        <v>0.000326407438467569</v>
+        <v>0.0003119707662365915</v>
       </c>
       <c r="GQ6">
-        <v>0.0002324492060301312</v>
+        <v>0.0002177348427892319</v>
       </c>
       <c r="GR6">
-        <v>0.00145657443778604</v>
+        <v>0.001445477943496682</v>
       </c>
       <c r="GS6">
-        <v>0.001928757650035282</v>
+        <v>0.001919056680434673</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000483460028970294</v>
+        <v>0.0004435780038513256</v>
       </c>
       <c r="C2">
-        <v>0.0009321484694530941</v>
+        <v>0.0008521049686940215</v>
       </c>
       <c r="D2">
-        <v>0.001544787682804309</v>
+        <v>0.001425900337577927</v>
       </c>
       <c r="E2">
-        <v>0.002183498455021454</v>
+        <v>0.002025976795896506</v>
       </c>
       <c r="F2">
-        <v>0.002969546720829664</v>
+        <v>0.002774574862227086</v>
       </c>
       <c r="G2">
-        <v>0.003621093792488451</v>
+        <v>0.003387590782101104</v>
       </c>
       <c r="H2">
-        <v>0.004122779840665944</v>
+        <v>0.003849541283097141</v>
       </c>
       <c r="I2">
-        <v>0.004358057160431772</v>
+        <v>0.004042941995660153</v>
       </c>
       <c r="J2">
-        <v>0.004433569437147114</v>
+        <v>0.004075293673658864</v>
       </c>
       <c r="K2">
-        <v>0.00447698796525848</v>
+        <v>0.004075293673658864</v>
       </c>
       <c r="L2">
-        <v>0.004480473960306845</v>
+        <v>0.004075293673658864</v>
       </c>
       <c r="M2">
-        <v>0.004485774752076269</v>
+        <v>0.004075293673658864</v>
       </c>
       <c r="N2">
-        <v>0.004534235329968314</v>
+        <v>0.004080376245126935</v>
       </c>
       <c r="O2">
-        <v>0.004624863356026146</v>
+        <v>0.004127965153948128</v>
       </c>
       <c r="P2">
-        <v>0.004921088913140827</v>
+        <v>0.004382803929531764</v>
       </c>
       <c r="Q2">
-        <v>0.005466535239414821</v>
+        <v>0.00488886639898563</v>
       </c>
       <c r="R2">
-        <v>0.006161981109164084</v>
+        <v>0.005546133920561843</v>
       </c>
       <c r="S2">
-        <v>0.006998915622758827</v>
+        <v>0.006346027194668451</v>
       </c>
       <c r="T2">
-        <v>0.007869069984908562</v>
+        <v>0.007179407296907188</v>
       </c>
       <c r="U2">
-        <v>0.00851945655661783</v>
+        <v>0.007791253390185139</v>
       </c>
       <c r="V2">
-        <v>0.009113907030760225</v>
+        <v>0.008346713841532693</v>
       </c>
       <c r="W2">
-        <v>0.009601236329562212</v>
+        <v>0.008794192211565287</v>
       </c>
       <c r="X2">
-        <v>0.0100002381322063</v>
+        <v>0.00915263321954355</v>
       </c>
       <c r="Y2">
-        <v>0.01015268340557518</v>
+        <v>0.009262536185362316</v>
       </c>
       <c r="Z2">
-        <v>0.0102205912226213</v>
+        <v>0.009287222288559887</v>
       </c>
       <c r="AA2">
-        <v>0.01024330690363321</v>
+        <v>0.009287222288559887</v>
       </c>
       <c r="AB2">
-        <v>0.01026961705848876</v>
+        <v>0.009287222288559887</v>
       </c>
       <c r="AC2">
-        <v>0.01026962062241291</v>
+        <v>0.009287222288559887</v>
       </c>
       <c r="AD2">
-        <v>0.01028703372865547</v>
+        <v>0.009287222288559887</v>
       </c>
       <c r="AE2">
-        <v>0.01033515189356241</v>
+        <v>0.009291959695155715</v>
       </c>
       <c r="AF2">
-        <v>0.01046025877812047</v>
+        <v>0.009374304560400904</v>
       </c>
       <c r="AG2">
-        <v>0.01065483178965686</v>
+        <v>0.009526673834435239</v>
       </c>
       <c r="AH2">
-        <v>0.01097911327555116</v>
+        <v>0.009809794017249704</v>
       </c>
       <c r="AI2">
-        <v>0.0115746731996453</v>
+        <v>0.01036637283491954</v>
       </c>
       <c r="AJ2">
-        <v>0.01212562172567995</v>
+        <v>0.01087798172393124</v>
       </c>
       <c r="AK2">
-        <v>0.0128551611939462</v>
+        <v>0.01156961684571052</v>
       </c>
       <c r="AL2">
-        <v>0.01348353649661292</v>
+        <v>0.01215927477090644</v>
       </c>
       <c r="AM2">
-        <v>0.01415130856756595</v>
+        <v>0.01278864608631787</v>
       </c>
       <c r="AN2">
-        <v>0.01477415354047323</v>
+        <v>0.01337272923588344</v>
       </c>
       <c r="AO2">
-        <v>0.01521617618124598</v>
+        <v>0.01377453682965844</v>
       </c>
       <c r="AP2">
-        <v>0.01557011546585021</v>
+        <v>0.01408755316346025</v>
       </c>
       <c r="AQ2">
-        <v>0.0158327946944241</v>
+        <v>0.01430857600708834</v>
       </c>
       <c r="AR2">
-        <v>0.01598463216781942</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="AS2">
-        <v>0.01602538712604665</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="AT2">
-        <v>0.01604201836532322</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="AU2">
-        <v>0.01604218413715601</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="AV2">
-        <v>0.0160918482789957</v>
+        <v>0.01442416209635465</v>
       </c>
       <c r="AW2">
-        <v>0.1131162740585948</v>
+        <v>0.1121845813389414</v>
       </c>
       <c r="AX2">
-        <v>0.1496725524684575</v>
+        <v>0.1489908859025711</v>
       </c>
       <c r="AY2">
-        <v>0.1636662998597528</v>
+        <v>0.1630533300541387</v>
       </c>
       <c r="AZ2">
-        <v>0.1640437941433325</v>
+        <v>0.1633900906925251</v>
       </c>
       <c r="BA2">
-        <v>0.1982710126545055</v>
+        <v>0.1978486172881805</v>
       </c>
       <c r="BB2">
-        <v>0.2079047842354524</v>
+        <v>0.2075160455991527</v>
       </c>
       <c r="BC2">
-        <v>0.2185171027738343</v>
+        <v>0.2181698852036198</v>
       </c>
       <c r="BD2">
-        <v>0.2260041839481587</v>
+        <v>0.2256733706964766</v>
       </c>
       <c r="BE2">
-        <v>0.27645321175371</v>
+        <v>0.2764840771924638</v>
       </c>
       <c r="BF2">
-        <v>0.2853572828663978</v>
+        <v>0.2854159406158333</v>
       </c>
       <c r="BG2">
-        <v>0.2958204484112675</v>
+        <v>0.2959194285216507</v>
       </c>
       <c r="BH2">
-        <v>0.2993670079569981</v>
+        <v>0.2994507234035472</v>
       </c>
       <c r="BI2">
-        <v>0.3071366886190299</v>
+        <v>0.3072390795651976</v>
       </c>
       <c r="BJ2">
-        <v>0.3077938917304426</v>
+        <v>0.3078577969809962</v>
       </c>
       <c r="BK2">
-        <v>0.3077952289548845</v>
+        <v>0.3078577969809962</v>
       </c>
       <c r="BL2">
-        <v>0.3122144745626547</v>
+        <v>0.3122687914835713</v>
       </c>
       <c r="BM2">
-        <v>0.3143211704710169</v>
+        <v>0.3143486509057777</v>
       </c>
       <c r="BN2">
-        <v>0.3181173410058898</v>
+        <v>0.3181315628376275</v>
       </c>
       <c r="BO2">
-        <v>0.3251296397008664</v>
+        <v>0.3251564501436278</v>
       </c>
       <c r="BP2">
-        <v>0.3423136299533915</v>
+        <v>0.3424347763368279</v>
       </c>
       <c r="BQ2">
-        <v>0.3513296455612098</v>
+        <v>0.351479483925112</v>
       </c>
       <c r="BR2">
-        <v>0.353229989678548</v>
+        <v>0.3533513331587909</v>
       </c>
       <c r="BS2">
-        <v>0.3532455514908711</v>
+        <v>0.3533513331587909</v>
       </c>
       <c r="BT2">
-        <v>0.3563251491569138</v>
+        <v>0.3564119133056856</v>
       </c>
       <c r="BU2">
-        <v>0.3617993815187938</v>
+        <v>0.3618863732258729</v>
       </c>
       <c r="BV2">
-        <v>0.3628938965711842</v>
+        <v>0.3629459171488544</v>
       </c>
       <c r="BW2">
-        <v>0.3637724568929683</v>
+        <v>0.3637877707673133</v>
       </c>
       <c r="BX2">
-        <v>0.3638199199809037</v>
+        <v>0.3637918478322486</v>
       </c>
       <c r="BY2">
-        <v>0.3642374288627428</v>
+        <v>0.3641689446561679</v>
       </c>
       <c r="BZ2">
-        <v>0.3660568082836028</v>
+        <v>0.3659591785004435</v>
       </c>
       <c r="CA2">
-        <v>0.37023289410195</v>
+        <v>0.3701250589994561</v>
       </c>
       <c r="CB2">
-        <v>0.3719408603276563</v>
+        <v>0.3718029842487185</v>
       </c>
       <c r="CC2">
-        <v>0.3732537099705496</v>
+        <v>0.3730826174624554</v>
       </c>
       <c r="CD2">
-        <v>0.3783230931500399</v>
+        <v>0.3781489745290828</v>
       </c>
       <c r="CE2">
-        <v>0.3793130572069781</v>
+        <v>0.3791031272065277</v>
       </c>
       <c r="CF2">
-        <v>0.3834778016258186</v>
+        <v>0.3832575751580551</v>
       </c>
       <c r="CG2">
-        <v>0.4044941077116443</v>
+        <v>0.4043990165441295</v>
       </c>
       <c r="CH2">
-        <v>0.4082533915481217</v>
+        <v>0.4081447453284557</v>
       </c>
       <c r="CI2">
-        <v>0.4088715156712343</v>
+        <v>0.4087240696879428</v>
       </c>
       <c r="CJ2">
-        <v>0.4089341772925086</v>
+        <v>0.4087434674330112</v>
       </c>
       <c r="CK2">
-        <v>0.4117430485703274</v>
+        <v>0.4115311454317134</v>
       </c>
       <c r="CL2">
-        <v>0.4200581062086363</v>
+        <v>0.4198692616273861</v>
       </c>
       <c r="CM2">
-        <v>0.4350810685551624</v>
+        <v>0.4349691922762139</v>
       </c>
       <c r="CN2">
-        <v>0.4519008168235314</v>
+        <v>0.4518803491639384</v>
       </c>
       <c r="CO2">
-        <v>0.4623769113678387</v>
+        <v>0.4623968699763138</v>
       </c>
       <c r="CP2">
-        <v>0.4847258913956953</v>
+        <v>0.4848816956700884</v>
       </c>
       <c r="CQ2">
-        <v>0.4977165678306225</v>
+        <v>0.4979330074360094</v>
       </c>
       <c r="CR2">
-        <v>0.5143769291059245</v>
+        <v>0.5146834963774459</v>
       </c>
       <c r="CS2">
-        <v>0.5172514674808868</v>
+        <v>0.5175373692232542</v>
       </c>
       <c r="CT2">
-        <v>0.5245415481637804</v>
+        <v>0.5248422709812223</v>
       </c>
       <c r="CU2">
-        <v>0.5501836680483909</v>
+        <v>0.5506467026694561</v>
       </c>
       <c r="CV2">
-        <v>0.5898974293209085</v>
+        <v>0.590635865992265</v>
       </c>
       <c r="CW2">
-        <v>0.6326509074612034</v>
+        <v>0.6336891756236608</v>
       </c>
       <c r="CX2">
-        <v>0.6595523912910337</v>
+        <v>0.6607630924487568</v>
       </c>
       <c r="CY2">
-        <v>0.6730169142053494</v>
+        <v>0.6742920588791784</v>
       </c>
       <c r="CZ2">
-        <v>0.6786475209604274</v>
+        <v>0.6799241499342764</v>
       </c>
       <c r="DA2">
-        <v>0.6804033868840501</v>
+        <v>0.6816503598392937</v>
       </c>
       <c r="DB2">
-        <v>0.6804036080887105</v>
+        <v>0.6816503598392937</v>
       </c>
       <c r="DC2">
-        <v>0.6825460609955173</v>
+        <v>0.6837662636299581</v>
       </c>
       <c r="DD2">
-        <v>0.6941501994907566</v>
+        <v>0.6954198941991048</v>
       </c>
       <c r="DE2">
-        <v>0.7219057192834377</v>
+        <v>0.7233547106595287</v>
       </c>
       <c r="DF2">
-        <v>0.7476823581621969</v>
+        <v>0.7492947424372725</v>
       </c>
       <c r="DG2">
-        <v>0.7681010972740158</v>
+        <v>0.7698338143536945</v>
       </c>
       <c r="DH2">
-        <v>0.7749727559751101</v>
+        <v>0.7767169313775141</v>
       </c>
       <c r="DI2">
-        <v>0.7751373037979525</v>
+        <v>0.7768390341579561</v>
       </c>
       <c r="DJ2">
-        <v>0.779687695600018</v>
+        <v>0.7813822288438427</v>
       </c>
       <c r="DK2">
-        <v>0.7870643332791466</v>
+        <v>0.7887743832348789</v>
       </c>
       <c r="DL2">
-        <v>0.7955718594090834</v>
+        <v>0.7973065147430937</v>
       </c>
       <c r="DM2">
-        <v>0.7993816652433632</v>
+        <v>0.8011031715578262</v>
       </c>
       <c r="DN2">
-        <v>0.802101589925051</v>
+        <v>0.8038011881189502</v>
       </c>
       <c r="DO2">
-        <v>0.806961775313641</v>
+        <v>0.808656666124588</v>
       </c>
       <c r="DP2">
-        <v>0.8095756770999406</v>
+        <v>0.8112478077109493</v>
       </c>
       <c r="DQ2">
-        <v>0.810378641365013</v>
+        <v>0.8120134577261804</v>
       </c>
       <c r="DR2">
-        <v>0.8104020303809957</v>
+        <v>0.8120134577261804</v>
       </c>
       <c r="DS2">
-        <v>0.8117235466235119</v>
+        <v>0.8133018271908241</v>
       </c>
       <c r="DT2">
-        <v>0.8189478623092662</v>
+        <v>0.8205404354148926</v>
       </c>
       <c r="DU2">
-        <v>0.8287310218837151</v>
+        <v>0.8303584523131403</v>
       </c>
       <c r="DV2">
-        <v>0.8420842063028737</v>
+        <v>0.8437751854488905</v>
       </c>
       <c r="DW2">
-        <v>0.8535357338047513</v>
+        <v>0.8552749785284618</v>
       </c>
       <c r="DX2">
-        <v>0.8612986214670787</v>
+        <v>0.8630564870967756</v>
       </c>
       <c r="DY2">
-        <v>0.8635852387676146</v>
+        <v>0.8653177138941837</v>
       </c>
       <c r="DZ2">
-        <v>0.8635872943040253</v>
+        <v>0.8653177138941837</v>
       </c>
       <c r="EA2">
-        <v>0.8667045879684282</v>
+        <v>0.8684162929927073</v>
       </c>
       <c r="EB2">
-        <v>0.8721588347311775</v>
+        <v>0.8738706066945247</v>
       </c>
       <c r="EC2">
-        <v>0.8761861185559974</v>
+        <v>0.877886489315771</v>
       </c>
       <c r="ED2">
-        <v>0.8795241042108005</v>
+        <v>0.881207534050778</v>
       </c>
       <c r="EE2">
-        <v>0.8816366031189103</v>
+        <v>0.883293243109983</v>
       </c>
       <c r="EF2">
-        <v>0.8827568066701833</v>
+        <v>0.884378681983859</v>
       </c>
       <c r="EG2">
-        <v>0.8834727595390406</v>
+        <v>0.8850566213141432</v>
       </c>
       <c r="EH2">
-        <v>0.8855939781467711</v>
+        <v>0.8871511201510042</v>
       </c>
       <c r="EI2">
-        <v>0.8895058396766117</v>
+        <v>0.8910506528572836</v>
       </c>
       <c r="EJ2">
-        <v>0.8925669548434583</v>
+        <v>0.8940926019657796</v>
       </c>
       <c r="EK2">
-        <v>0.892907941448626</v>
+        <v>0.8943925615227142</v>
       </c>
       <c r="EL2">
-        <v>0.8930929420005788</v>
+        <v>0.894535281405712</v>
       </c>
       <c r="EM2">
-        <v>0.8931115016557715</v>
+        <v>0.894535281405712</v>
       </c>
       <c r="EN2">
-        <v>0.8931157027302887</v>
+        <v>0.894535281405712</v>
       </c>
       <c r="EO2">
-        <v>0.8931881076071393</v>
+        <v>0.8945645007104539</v>
       </c>
       <c r="EP2">
-        <v>0.8941509888152556</v>
+        <v>0.8954913528810248</v>
       </c>
       <c r="EQ2">
-        <v>0.8999308485638413</v>
+        <v>0.9012738964384431</v>
       </c>
       <c r="ER2">
-        <v>0.9100225771248679</v>
+        <v>0.911402962214693</v>
       </c>
       <c r="ES2">
-        <v>0.9171345738155079</v>
+        <v>0.9185283487641009</v>
       </c>
       <c r="ET2">
-        <v>0.920705629260173</v>
+        <v>0.9220843364123177</v>
       </c>
       <c r="EU2">
-        <v>0.9211860105792772</v>
+        <v>0.9225248109634852</v>
       </c>
       <c r="EV2">
-        <v>0.9221789583360857</v>
+        <v>0.9234819713200465</v>
       </c>
       <c r="EW2">
-        <v>0.9233161407866202</v>
+        <v>0.9245845255483318</v>
       </c>
       <c r="EX2">
-        <v>0.9273114166128323</v>
+        <v>0.9285681429307269</v>
       </c>
       <c r="EY2">
-        <v>0.9285188885603093</v>
+        <v>0.9297415515549831</v>
       </c>
       <c r="EZ2">
-        <v>0.9297263605077862</v>
+        <v>0.9309149601792392</v>
       </c>
       <c r="FA2">
-        <v>0.9308806493575766</v>
+        <v>0.9320347582866138</v>
       </c>
       <c r="FB2">
-        <v>0.9308847500423982</v>
+        <v>0.9320347582866138</v>
       </c>
       <c r="FC2">
-        <v>0.9309850786280341</v>
+        <v>0.9320921257159733</v>
       </c>
       <c r="FD2">
-        <v>0.9317610285942816</v>
+        <v>0.9328305443252466</v>
       </c>
       <c r="FE2">
-        <v>0.9336237769132552</v>
+        <v>0.9346644956125744</v>
       </c>
       <c r="FF2">
-        <v>0.9357750111196801</v>
+        <v>0.9367892512759557</v>
       </c>
       <c r="FG2">
-        <v>0.9395508911554356</v>
+        <v>0.9405517096390442</v>
       </c>
       <c r="FH2">
-        <v>0.9429467201077226</v>
+        <v>0.9439310625435853</v>
       </c>
       <c r="FI2">
-        <v>0.9445016307400866</v>
+        <v>0.9454547021301531</v>
       </c>
       <c r="FJ2">
-        <v>0.9449980669184925</v>
+        <v>0.9459113605694931</v>
       </c>
       <c r="FK2">
-        <v>0.94506479296959</v>
+        <v>0.945934855409186</v>
       </c>
       <c r="FL2">
-        <v>0.9462678785172578</v>
+        <v>0.9471038423812397</v>
       </c>
       <c r="FM2">
-        <v>0.9484996081201813</v>
+        <v>0.9493097403623987</v>
       </c>
       <c r="FN2">
-        <v>0.9518375937749844</v>
+        <v>0.9526307850974057</v>
       </c>
       <c r="FO2">
-        <v>0.9550062408371536</v>
+        <v>0.9557811303080521</v>
       </c>
       <c r="FP2">
-        <v>0.9601932436115276</v>
+        <v>0.9609660522486982</v>
       </c>
       <c r="FQ2">
-        <v>0.9661337533531253</v>
+        <v>0.9669105369027629</v>
       </c>
       <c r="FR2">
-        <v>0.9729751780555348</v>
+        <v>0.9737631769448457</v>
       </c>
       <c r="FS2">
-        <v>0.9760310526226094</v>
+        <v>0.9767998433361859</v>
       </c>
       <c r="FT2">
-        <v>0.976032049527766</v>
+        <v>0.9767998433361859</v>
       </c>
       <c r="FU2">
-        <v>0.9764185322509547</v>
+        <v>0.9771456646520122</v>
       </c>
       <c r="FV2">
-        <v>0.977699034495255</v>
+        <v>0.9783926904992402</v>
       </c>
       <c r="FW2">
-        <v>0.9798137988032662</v>
+        <v>0.9804806831647965</v>
       </c>
       <c r="FX2">
-        <v>0.9834569418447956</v>
+        <v>0.9841093377597834</v>
       </c>
       <c r="FY2">
-        <v>0.9849550857796289</v>
+        <v>0.9855757544291338</v>
       </c>
       <c r="FZ2">
-        <v>0.9868935681953082</v>
+        <v>0.9874860484690762</v>
       </c>
       <c r="GA2">
-        <v>0.988287235134686</v>
+        <v>0.988847148487606</v>
       </c>
       <c r="GB2">
-        <v>0.9883150236584772</v>
+        <v>0.988847148487606</v>
       </c>
       <c r="GC2">
-        <v>0.9883806090356244</v>
+        <v>0.9888694934860386</v>
       </c>
       <c r="GD2">
-        <v>0.9884850927610795</v>
+        <v>0.9889310494490322</v>
       </c>
       <c r="GE2">
-        <v>0.9884902807114538</v>
+        <v>0.9889310494490322</v>
       </c>
       <c r="GF2">
-        <v>0.9885100066305958</v>
+        <v>0.9889310494490322</v>
       </c>
       <c r="GG2">
-        <v>0.9891603932023051</v>
+        <v>0.9895428955423101</v>
       </c>
       <c r="GH2">
-        <v>0.9900577781632703</v>
+        <v>0.990403725088846</v>
       </c>
       <c r="GI2">
-        <v>0.9900884694059353</v>
+        <v>0.990403725088846</v>
       </c>
       <c r="GJ2">
-        <v>0.9906577774411713</v>
+        <v>0.9909338410378221</v>
       </c>
       <c r="GK2">
-        <v>0.991913533886548</v>
+        <v>0.9921559222103573</v>
       </c>
       <c r="GL2">
-        <v>0.9920391925310821</v>
+        <v>0.9922388232699348</v>
       </c>
       <c r="GM2">
-        <v>0.9931951561807996</v>
+        <v>0.9933603096371827</v>
       </c>
       <c r="GN2">
-        <v>0.9940148186451456</v>
+        <v>0.9941427920509199</v>
       </c>
       <c r="GO2">
-        <v>0.9940158155503023</v>
+        <v>0.9941427920509199</v>
       </c>
       <c r="GP2">
-        <v>0.9942265734011346</v>
+        <v>0.9943114762377376</v>
       </c>
       <c r="GQ2">
-        <v>0.9948862080224417</v>
+        <v>0.9949326447048645</v>
       </c>
       <c r="GR2">
-        <v>0.9971179376253652</v>
+        <v>0.9971385426860235</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001177906765129309</v>
+        <v>0.0001013956945954229</v>
       </c>
       <c r="C3">
-        <v>0.0002872197714971608</v>
+        <v>0.0002545905889819814</v>
       </c>
       <c r="D3">
-        <v>0.00050123246516154</v>
+        <v>0.0004525078974898099</v>
       </c>
       <c r="E3">
-        <v>0.0008052107861625815</v>
+        <v>0.0007406709502071896</v>
       </c>
       <c r="F3">
-        <v>0.0009836305208806529</v>
+        <v>0.0009028844775730333</v>
       </c>
       <c r="G3">
-        <v>0.001152037185895151</v>
+        <v>0.001055053758553092</v>
       </c>
       <c r="H3">
-        <v>0.0013009649814863</v>
+        <v>0.001187683520724567</v>
       </c>
       <c r="I3">
-        <v>0.001447026607162299</v>
+        <v>0.00131743818887757</v>
       </c>
       <c r="J3">
-        <v>0.001507634635368062</v>
+        <v>0.001361473191338405</v>
       </c>
       <c r="K3">
-        <v>0.001550058062112161</v>
+        <v>0.001387266972783563</v>
       </c>
       <c r="L3">
-        <v>0.001566767769617488</v>
+        <v>0.001387266972783563</v>
       </c>
       <c r="M3">
-        <v>0.001592884225844338</v>
+        <v>0.001396703010346991</v>
       </c>
       <c r="N3">
-        <v>0.001593871273715117</v>
+        <v>0.001396703010346991</v>
       </c>
       <c r="O3">
-        <v>0.001598826160568433</v>
+        <v>0.001396703010346991</v>
       </c>
       <c r="P3">
-        <v>0.001646428599159213</v>
+        <v>0.001427691929004108</v>
       </c>
       <c r="Q3">
-        <v>0.001778411455251999</v>
+        <v>0.001543323991933259</v>
       </c>
       <c r="R3">
-        <v>0.001959450169892538</v>
+        <v>0.001708164653674418</v>
       </c>
       <c r="S3">
-        <v>0.002237686681655639</v>
+        <v>0.001970505747486482</v>
       </c>
       <c r="T3">
-        <v>0.002346395878437418</v>
+        <v>0.002062791686265998</v>
       </c>
       <c r="U3">
-        <v>0.002518377363346087</v>
+        <v>0.002218546917695303</v>
       </c>
       <c r="V3">
-        <v>0.00266776949892349</v>
+        <v>0.002351642465621475</v>
       </c>
       <c r="W3">
-        <v>0.002781176265566202</v>
+        <v>0.002448640600609993</v>
       </c>
       <c r="X3">
-        <v>0.002855881943354619</v>
+        <v>0.002506817147078865</v>
       </c>
       <c r="Y3">
-        <v>0.002922009851396971</v>
+        <v>0.002556389216067744</v>
       </c>
       <c r="Z3">
-        <v>0.002966236864087677</v>
+        <v>0.00258399219910262</v>
       </c>
       <c r="AA3">
-        <v>0.002969962920777371</v>
+        <v>0.00258399219910262</v>
       </c>
       <c r="AB3">
-        <v>0.002973391462875873</v>
+        <v>0.00258399219910262</v>
       </c>
       <c r="AC3">
-        <v>0.002973592822849912</v>
+        <v>0.00258399219910262</v>
       </c>
       <c r="AD3">
-        <v>0.002991061290332776</v>
+        <v>0.002584753321554343</v>
       </c>
       <c r="AE3">
-        <v>0.002997650005137724</v>
+        <v>0.002584753321554343</v>
       </c>
       <c r="AF3">
-        <v>0.003000747090346038</v>
+        <v>0.002584753321554343</v>
       </c>
       <c r="AG3">
-        <v>0.003013915701956195</v>
+        <v>0.002584753321554343</v>
       </c>
       <c r="AH3">
-        <v>0.003094524439569858</v>
+        <v>0.002648851307608684</v>
       </c>
       <c r="AI3">
-        <v>0.00312853133856312</v>
+        <v>0.002666202355611966</v>
       </c>
       <c r="AJ3">
-        <v>0.003164555211496671</v>
+        <v>0.002685576657603257</v>
       </c>
       <c r="AK3">
-        <v>0.003201689217397358</v>
+        <v>0.002706064549070403</v>
       </c>
       <c r="AL3">
-        <v>0.003231406084517621</v>
+        <v>0.002719112207762425</v>
       </c>
       <c r="AM3">
-        <v>0.003248438912013382</v>
+        <v>0.002719436333818887</v>
       </c>
       <c r="AN3">
-        <v>0.003285572917914069</v>
+        <v>0.002739924225286032</v>
       </c>
       <c r="AO3">
-        <v>0.003324158989771769</v>
+        <v>0.00276186870386107</v>
       </c>
       <c r="AP3">
-        <v>0.003325939598719056</v>
+        <v>0.00276186870386107</v>
       </c>
       <c r="AQ3">
-        <v>0.00336102533768038</v>
+        <v>0.002780301950907287</v>
       </c>
       <c r="AR3">
-        <v>0.003431387775597374</v>
+        <v>0.002834121734398112</v>
       </c>
       <c r="AS3">
-        <v>0.003516531763076776</v>
+        <v>0.00290276909126691</v>
       </c>
       <c r="AT3">
-        <v>0.00366674232862995</v>
+        <v>0.003036685617431476</v>
       </c>
       <c r="AU3">
-        <v>0.00377288321548776</v>
+        <v>0.003126395249600225</v>
       </c>
       <c r="AV3">
-        <v>0.003981938009298913</v>
+        <v>0.003319339221343597</v>
       </c>
       <c r="AW3">
-        <v>0.06640715116126614</v>
+        <v>0.06592215770971811</v>
       </c>
       <c r="AX3">
-        <v>0.06956024406792213</v>
+        <v>0.06906830634795855</v>
       </c>
       <c r="AY3">
-        <v>0.1294343122954133</v>
+        <v>0.1291120366699803</v>
       </c>
       <c r="AZ3">
-        <v>0.1305422992626125</v>
+        <v>0.1302067117292837</v>
       </c>
       <c r="BA3">
-        <v>0.1713575550543198</v>
+        <v>0.1711322881192353</v>
       </c>
       <c r="BB3">
-        <v>0.1724577003217512</v>
+        <v>0.1722190970628636</v>
       </c>
       <c r="BC3">
-        <v>0.1864725089068575</v>
+        <v>0.186260780404888</v>
       </c>
       <c r="BD3">
-        <v>0.1932051993075433</v>
+        <v>0.1929976719677622</v>
       </c>
       <c r="BE3">
-        <v>0.2343306880900665</v>
+        <v>0.2342344472896099</v>
       </c>
       <c r="BF3">
-        <v>0.2519891555673061</v>
+        <v>0.2519311344158665</v>
       </c>
       <c r="BG3">
-        <v>0.2579432053910427</v>
+        <v>0.2578869610273946</v>
       </c>
       <c r="BH3">
-        <v>0.2629303882434024</v>
+        <v>0.2628729102316656</v>
       </c>
       <c r="BI3">
-        <v>0.266286914544036</v>
+        <v>0.266223125673863</v>
       </c>
       <c r="BJ3">
-        <v>0.2692386577566527</v>
+        <v>0.2691672976958905</v>
       </c>
       <c r="BK3">
-        <v>0.2694718802297484</v>
+        <v>0.2693844845953766</v>
       </c>
       <c r="BL3">
-        <v>0.2695542524573099</v>
+        <v>0.2694503515621789</v>
       </c>
       <c r="BM3">
-        <v>0.2762773712582791</v>
+        <v>0.2761776417232148</v>
       </c>
       <c r="BN3">
-        <v>0.2789145740802074</v>
+        <v>0.2788062940019584</v>
       </c>
       <c r="BO3">
-        <v>0.280395167736376</v>
+        <v>0.2802747358979857</v>
       </c>
       <c r="BP3">
-        <v>0.2957784122809712</v>
+        <v>0.2956891159601147</v>
       </c>
       <c r="BQ3">
-        <v>0.3042156180311966</v>
+        <v>0.3041358300495431</v>
       </c>
       <c r="BR3">
-        <v>0.3042178432872307</v>
+        <v>0.3041358300495431</v>
       </c>
       <c r="BS3">
-        <v>0.3042345529947361</v>
+        <v>0.3041358300495431</v>
       </c>
       <c r="BT3">
-        <v>0.306854882917164</v>
+        <v>0.3067475568933459</v>
       </c>
       <c r="BU3">
-        <v>0.318800954563513</v>
+        <v>0.3187140620796809</v>
       </c>
       <c r="BV3">
-        <v>0.3211507932939485</v>
+        <v>0.3210544555304298</v>
       </c>
       <c r="BW3">
-        <v>0.3224662038550072</v>
+        <v>0.3223572000174539</v>
       </c>
       <c r="BX3">
-        <v>0.3224685883285366</v>
+        <v>0.3223572000174539</v>
       </c>
       <c r="BY3">
-        <v>0.3224752073683406</v>
+        <v>0.3223572000174539</v>
       </c>
       <c r="BZ3">
-        <v>0.3239271343253579</v>
+        <v>0.3237968859577286</v>
       </c>
       <c r="CA3">
-        <v>0.3278535948091191</v>
+        <v>0.327718810129465</v>
       </c>
       <c r="CB3">
-        <v>0.3307732997226843</v>
+        <v>0.3306308440980302</v>
       </c>
       <c r="CC3">
-        <v>0.331181397990603</v>
+        <v>0.3310234512854111</v>
       </c>
       <c r="CD3">
-        <v>0.335924515250188</v>
+        <v>0.3357645749745609</v>
       </c>
       <c r="CE3">
-        <v>0.3394315751463651</v>
+        <v>0.3392657927135304</v>
       </c>
       <c r="CF3">
-        <v>0.3411960288941303</v>
+        <v>0.3410189785276062</v>
       </c>
       <c r="CG3">
-        <v>0.3655057341744671</v>
+        <v>0.3653876127432662</v>
       </c>
       <c r="CH3">
-        <v>0.380026535744594</v>
+        <v>0.3799368645294823</v>
       </c>
       <c r="CI3">
-        <v>0.3801048073582768</v>
+        <v>0.3799986181147395</v>
       </c>
       <c r="CJ3">
-        <v>0.3809733515325645</v>
+        <v>0.3808531048523292</v>
       </c>
       <c r="CK3">
-        <v>0.3809733714907399</v>
+        <v>0.3808531048523292</v>
       </c>
       <c r="CL3">
-        <v>0.386907204315075</v>
+        <v>0.38678865151683</v>
       </c>
       <c r="CM3">
-        <v>0.3979757999874009</v>
+        <v>0.3978749486209672</v>
       </c>
       <c r="CN3">
-        <v>0.4102101966252145</v>
+        <v>0.4101306765271255</v>
       </c>
       <c r="CO3">
-        <v>0.4211906873001486</v>
+        <v>0.4211285943102533</v>
       </c>
       <c r="CP3">
-        <v>0.4409501477151905</v>
+        <v>0.4409328160234856</v>
       </c>
       <c r="CQ3">
-        <v>0.4553399522891955</v>
+        <v>0.4553506629414846</v>
       </c>
       <c r="CR3">
-        <v>0.4785880716009594</v>
+        <v>0.4786544058357318</v>
       </c>
       <c r="CS3">
-        <v>0.48926838328478</v>
+        <v>0.4893512099907877</v>
       </c>
       <c r="CT3">
-        <v>0.4906969737424881</v>
+        <v>0.4907674867712561</v>
       </c>
       <c r="CU3">
-        <v>0.5146076580346375</v>
+        <v>0.5147358576074429</v>
       </c>
       <c r="CV3">
-        <v>0.553202456892079</v>
+        <v>0.5534340634509946</v>
       </c>
       <c r="CW3">
-        <v>0.6028054814236337</v>
+        <v>0.6031747701673454</v>
       </c>
       <c r="CX3">
-        <v>0.6276041496894952</v>
+        <v>0.6280338898031146</v>
       </c>
       <c r="CY3">
-        <v>0.6431242962300375</v>
+        <v>0.6435855981190864</v>
       </c>
       <c r="CZ3">
-        <v>0.6483713490747041</v>
+        <v>0.6488322264465708</v>
       </c>
       <c r="DA3">
-        <v>0.6504136141142449</v>
+        <v>0.6508640885453379</v>
       </c>
       <c r="DB3">
-        <v>0.6504344054786294</v>
+        <v>0.6508681829108592</v>
       </c>
       <c r="DC3">
-        <v>0.6536369447838216</v>
+        <v>0.654063931903885</v>
       </c>
       <c r="DD3">
-        <v>0.6664909884032911</v>
+        <v>0.6669412361238225</v>
       </c>
       <c r="DE3">
-        <v>0.6949966295594117</v>
+        <v>0.6955188706763406</v>
       </c>
       <c r="DF3">
-        <v>0.7287631585597891</v>
+        <v>0.7293737733674033</v>
       </c>
       <c r="DG3">
-        <v>0.7502084679249234</v>
+        <v>0.7508690930880627</v>
       </c>
       <c r="DH3">
-        <v>0.7602062926289482</v>
+        <v>0.7608812852726544</v>
       </c>
       <c r="DI3">
-        <v>0.7602370839930367</v>
+        <v>0.7608954107738671</v>
       </c>
       <c r="DJ3">
-        <v>0.7655948843344247</v>
+        <v>0.7662531314213502</v>
       </c>
       <c r="DK3">
-        <v>0.7757600290334963</v>
+        <v>0.7764331645683311</v>
       </c>
       <c r="DL3">
-        <v>0.7847528547672731</v>
+        <v>0.7854372286190471</v>
       </c>
       <c r="DM3">
-        <v>0.7914351838694498</v>
+        <v>0.7921236020785316</v>
       </c>
       <c r="DN3">
-        <v>0.7960777077320127</v>
+        <v>0.7967638191631752</v>
       </c>
       <c r="DO3">
-        <v>0.8008552000905801</v>
+        <v>0.8015394249815757</v>
       </c>
       <c r="DP3">
-        <v>0.8085300513633742</v>
+        <v>0.8092214109275565</v>
       </c>
       <c r="DQ3">
-        <v>0.8104960157051739</v>
+        <v>0.8111767347588185</v>
       </c>
       <c r="DR3">
-        <v>0.8110235405895572</v>
+        <v>0.8116891404092383</v>
       </c>
       <c r="DS3">
-        <v>0.8110271163417513</v>
+        <v>0.8116891404092383</v>
       </c>
       <c r="DT3">
-        <v>0.8154532626107199</v>
+        <v>0.8161123061872632</v>
       </c>
       <c r="DU3">
-        <v>0.8253412683179959</v>
+        <v>0.8260143374428052</v>
       </c>
       <c r="DV3">
-        <v>0.8367070224815247</v>
+        <v>0.8373987182704787</v>
       </c>
       <c r="DW3">
-        <v>0.8508244610635928</v>
+        <v>0.8515433511581044</v>
       </c>
       <c r="DX3">
-        <v>0.8634476571898964</v>
+        <v>0.864189089118389</v>
       </c>
       <c r="DY3">
-        <v>0.8670981680818268</v>
+        <v>0.8678342045019657</v>
       </c>
       <c r="DZ3">
-        <v>0.8678207538304354</v>
+        <v>0.8685422783578916</v>
       </c>
       <c r="EA3">
-        <v>0.8701244879622358</v>
+        <v>0.8708364236587804</v>
       </c>
       <c r="EB3">
-        <v>0.8770316071577579</v>
+        <v>0.8777482871177841</v>
       </c>
       <c r="EC3">
-        <v>0.8819754590114003</v>
+        <v>0.8826907704079905</v>
       </c>
       <c r="ED3">
-        <v>0.8845911599339652</v>
+        <v>0.8852978538390817</v>
       </c>
       <c r="EE3">
-        <v>0.8865909867747624</v>
+        <v>0.8872871456035788</v>
       </c>
       <c r="EF3">
-        <v>0.8879336898350131</v>
+        <v>0.8886172675676888</v>
       </c>
       <c r="EG3">
-        <v>0.8885606655164521</v>
+        <v>0.8892294336650508</v>
       </c>
       <c r="EH3">
-        <v>0.8898266661789734</v>
+        <v>0.8904826144109349</v>
       </c>
       <c r="EI3">
-        <v>0.8922244783079887</v>
+        <v>0.8928711306301818</v>
       </c>
       <c r="EJ3">
-        <v>0.895817468101622</v>
+        <v>0.8964585458178363</v>
       </c>
       <c r="EK3">
-        <v>0.8962513895287763</v>
+        <v>0.8968770565674115</v>
       </c>
       <c r="EL3">
-        <v>0.896251399920488</v>
+        <v>0.8968770565674115</v>
       </c>
       <c r="EM3">
-        <v>0.8963283892582088</v>
+        <v>0.8969375238842137</v>
       </c>
       <c r="EN3">
-        <v>0.8965267596123363</v>
+        <v>0.8971197501492143</v>
       </c>
       <c r="EO3">
-        <v>0.8967063897770186</v>
+        <v>0.8972831778753376</v>
       </c>
       <c r="EP3">
-        <v>0.8977183150470616</v>
+        <v>0.8982814921398961</v>
       </c>
       <c r="EQ3">
-        <v>0.9010618649480793</v>
+        <v>0.9016186907791749</v>
       </c>
       <c r="ER3">
-        <v>0.9138002225709736</v>
+        <v>0.9143799488027524</v>
       </c>
       <c r="ES3">
-        <v>0.9206517730681406</v>
+        <v>0.9212360705447664</v>
       </c>
       <c r="ET3">
-        <v>0.9252790333311555</v>
+        <v>0.925860976505136</v>
       </c>
       <c r="EU3">
-        <v>0.9265792709926634</v>
+        <v>0.9271485008502868</v>
       </c>
       <c r="EV3">
-        <v>0.9275316638944687</v>
+        <v>0.9280870973866949</v>
       </c>
       <c r="EW3">
-        <v>0.9290610856491918</v>
+        <v>0.9296045194123878</v>
       </c>
       <c r="EX3">
-        <v>0.93458912478554</v>
+        <v>0.9351330089101455</v>
       </c>
       <c r="EY3">
-        <v>0.9372831887057851</v>
+        <v>0.9378186993298555</v>
       </c>
       <c r="EZ3">
-        <v>0.9387901324611736</v>
+        <v>0.9393135733687411</v>
       </c>
       <c r="FA3">
-        <v>0.9406961023047493</v>
+        <v>0.9412087159029792</v>
       </c>
       <c r="FB3">
-        <v>0.9408547850400517</v>
+        <v>0.9413511309778309</v>
       </c>
       <c r="FC3">
-        <v>0.9409914939760046</v>
+        <v>0.9414715038357369</v>
       </c>
       <c r="FD3">
-        <v>0.9410104676264429</v>
+        <v>0.9414737748276799</v>
       </c>
       <c r="FE3">
-        <v>0.9423913445855635</v>
+        <v>0.942842189548867</v>
       </c>
       <c r="FF3">
-        <v>0.9443392711278972</v>
+        <v>0.9447794194181915</v>
       </c>
       <c r="FG3">
-        <v>0.9480247207187933</v>
+        <v>0.9484595822858265</v>
       </c>
       <c r="FH3">
-        <v>0.9523952165894094</v>
+        <v>0.9528269243924831</v>
       </c>
       <c r="FI3">
-        <v>0.9553390585022601</v>
+        <v>0.9557631705132666</v>
       </c>
       <c r="FJ3">
-        <v>0.9564817472684319</v>
+        <v>0.9568926554190238</v>
       </c>
       <c r="FK3">
-        <v>0.9565777291055905</v>
+        <v>0.9569721743702879</v>
       </c>
       <c r="FL3">
-        <v>0.9568923136762775</v>
+        <v>0.957270976696298</v>
       </c>
       <c r="FM3">
-        <v>0.9589310253159236</v>
+        <v>0.9592992743313086</v>
       </c>
       <c r="FN3">
-        <v>0.9606811887641118</v>
+        <v>0.9610381253515472</v>
       </c>
       <c r="FO3">
-        <v>0.9632754756873106</v>
+        <v>0.9636237281086688</v>
       </c>
       <c r="FP3">
-        <v>0.9667469094845424</v>
+        <v>0.9670892088233126</v>
       </c>
       <c r="FQ3">
-        <v>0.9724775873148918</v>
+        <v>0.9728209679506741</v>
       </c>
       <c r="FR3">
-        <v>0.9775775281639134</v>
+        <v>0.9779200262347746</v>
       </c>
       <c r="FS3">
-        <v>0.9819976570330602</v>
+        <v>0.9823371558772084</v>
       </c>
       <c r="FT3">
-        <v>0.9821478675986134</v>
+        <v>0.9824710724033729</v>
       </c>
       <c r="FU3">
-        <v>0.9823264449533268</v>
+        <v>0.9826334440414995</v>
       </c>
       <c r="FV3">
-        <v>0.9829412999351247</v>
+        <v>0.9832334517002241</v>
       </c>
       <c r="FW3">
-        <v>0.9836547511140037</v>
+        <v>0.9839323625450347</v>
       </c>
       <c r="FX3">
-        <v>0.9867193175232805</v>
+        <v>0.9869897090498964</v>
       </c>
       <c r="FY3">
-        <v>0.9875781901978544</v>
+        <v>0.9878344941746021</v>
       </c>
       <c r="FZ3">
-        <v>0.9885028289304815</v>
+        <v>0.988745250126483</v>
       </c>
       <c r="GA3">
-        <v>0.9899547558874987</v>
+        <v>0.9901849360667576</v>
       </c>
       <c r="GB3">
-        <v>0.9899586353429839</v>
+        <v>0.9901849360667576</v>
       </c>
       <c r="GC3">
-        <v>0.9899588367029579</v>
+        <v>0.9901849360667576</v>
       </c>
       <c r="GD3">
-        <v>0.9901817634263584</v>
+        <v>0.9903917951597142</v>
       </c>
       <c r="GE3">
-        <v>0.9903070698026489</v>
+        <v>0.9905007299549612</v>
       </c>
       <c r="GF3">
-        <v>0.9905112247866051</v>
+        <v>0.9906887588608073</v>
       </c>
       <c r="GG3">
-        <v>0.9905180477647032</v>
+        <v>0.9906887588608073</v>
       </c>
       <c r="GH3">
-        <v>0.9915492496341756</v>
+        <v>0.9917064097443927</v>
       </c>
       <c r="GI3">
-        <v>0.9915650554297076</v>
+        <v>0.9917064097443927</v>
       </c>
       <c r="GJ3">
-        <v>0.9916080701484342</v>
+        <v>0.9917327966588664</v>
       </c>
       <c r="GK3">
-        <v>0.9927973173132278</v>
+        <v>0.9929089849274212</v>
       </c>
       <c r="GL3">
-        <v>0.9931956482014357</v>
+        <v>0.9932917943233891</v>
       </c>
       <c r="GM3">
-        <v>0.9944444007644677</v>
+        <v>0.9945276732661212</v>
       </c>
       <c r="GN3">
-        <v>0.9964155428061141</v>
+        <v>0.9964881909185102</v>
       </c>
       <c r="GO3">
-        <v>0.9968882292921207</v>
+        <v>0.9969455874257799</v>
       </c>
       <c r="GP3">
-        <v>0.9969536235901848</v>
+        <v>0.9969944236006233</v>
       </c>
       <c r="GQ3">
-        <v>0.9970760118165616</v>
+        <v>0.9971004311600086</v>
       </c>
       <c r="GR3">
-        <v>0.9975803094716323</v>
+        <v>0.9975895372608419</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.887589441764541E-05</v>
+        <v>6.690950106633098E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001009862730196012</v>
+        <v>6.690950106633098E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001612912260171058</v>
+        <v>0.000105132922068424</v>
       </c>
       <c r="E4">
-        <v>0.0002411330999857082</v>
+        <v>0.0001629719962946886</v>
       </c>
       <c r="F4">
-        <v>0.0002614522169956857</v>
+        <v>0.0001629719962946886</v>
       </c>
       <c r="G4">
-        <v>0.0002836871681008912</v>
+        <v>0.0001629719962946886</v>
       </c>
       <c r="H4">
-        <v>0.0003871328832427409</v>
+        <v>0.0002445100333154382</v>
       </c>
       <c r="I4">
-        <v>0.0004638793270574825</v>
+        <v>0.0002992412030480723</v>
       </c>
       <c r="J4">
-        <v>0.0004655241803392412</v>
+        <v>0.0002992412030480723</v>
       </c>
       <c r="K4">
-        <v>0.000467823225053517</v>
+        <v>0.0002992412030480723</v>
       </c>
       <c r="L4">
-        <v>0.0005219094977419172</v>
+        <v>0.0003312208829491069</v>
       </c>
       <c r="M4">
-        <v>0.0006392188585728701</v>
+        <v>0.0004266784350593905</v>
       </c>
       <c r="N4">
-        <v>0.000788532605994626</v>
+        <v>0.0005542693489182445</v>
       </c>
       <c r="O4">
-        <v>0.000941069763576604</v>
+        <v>0.000685096663026438</v>
       </c>
       <c r="P4">
-        <v>0.001181634575534065</v>
+        <v>0.0009043063760254876</v>
       </c>
       <c r="Q4">
-        <v>0.00132828845282361</v>
+        <v>0.00102922670068495</v>
       </c>
       <c r="R4">
-        <v>0.001380304451409105</v>
+        <v>0.00105912776344147</v>
       </c>
       <c r="S4">
-        <v>0.001494555312088033</v>
+        <v>0.001151514489884958</v>
       </c>
       <c r="T4">
-        <v>0.001560839231382727</v>
+        <v>0.001195740971947602</v>
       </c>
       <c r="U4">
-        <v>0.001561084614854924</v>
+        <v>0.001195740971947602</v>
       </c>
       <c r="V4">
-        <v>0.00156268435253444</v>
+        <v>0.001195740971947602</v>
       </c>
       <c r="W4">
-        <v>0.001587831902784418</v>
+        <v>0.001198665308637575</v>
       </c>
       <c r="X4">
-        <v>0.001594641565122898</v>
+        <v>0.001198665308637575</v>
       </c>
       <c r="Y4">
-        <v>0.001597727841676304</v>
+        <v>0.001198665308637575</v>
       </c>
       <c r="Z4">
-        <v>0.001613105693440672</v>
+        <v>0.001198665308637575</v>
       </c>
       <c r="AA4">
-        <v>0.001615526320760991</v>
+        <v>0.001198665308637575</v>
       </c>
       <c r="AB4">
-        <v>0.001630700776515249</v>
+        <v>0.001198665308637575</v>
       </c>
       <c r="AC4">
-        <v>0.00163130857269546</v>
+        <v>0.001198665308637575</v>
       </c>
       <c r="AD4">
-        <v>0.001655545652900183</v>
+        <v>0.001200675506159706</v>
       </c>
       <c r="AE4">
-        <v>0.001716873695948541</v>
+        <v>0.001239926140184994</v>
       </c>
       <c r="AF4">
-        <v>0.001762716724227205</v>
+        <v>0.001263629356050437</v>
       </c>
       <c r="AG4">
-        <v>0.001846914748412333</v>
+        <v>0.001325842135435573</v>
       </c>
       <c r="AH4">
-        <v>0.001899186531010542</v>
+        <v>0.001356000012994236</v>
       </c>
       <c r="AI4">
-        <v>0.001997797515912078</v>
+        <v>0.001432683836192516</v>
       </c>
       <c r="AJ4">
-        <v>0.002033731835698222</v>
+        <v>0.001446438412250477</v>
       </c>
       <c r="AK4">
-        <v>0.002087116070351727</v>
+        <v>0.001477713224958618</v>
       </c>
       <c r="AL4">
-        <v>0.002099455798965083</v>
+        <v>0.001477713224958618</v>
       </c>
       <c r="AM4">
-        <v>0.002150158675485308</v>
+        <v>0.001506295873871347</v>
       </c>
       <c r="AN4">
-        <v>0.002162963560121785</v>
+        <v>0.001506295873871347</v>
       </c>
       <c r="AO4">
-        <v>0.002184584187196455</v>
+        <v>0.001506295873871347</v>
       </c>
       <c r="AP4">
-        <v>0.002185164681655309</v>
+        <v>0.001506295873871347</v>
       </c>
       <c r="AQ4">
-        <v>0.002201411930462892</v>
+        <v>0.001506295873871347</v>
       </c>
       <c r="AR4">
-        <v>0.002203580272770671</v>
+        <v>0.001506295873871347</v>
       </c>
       <c r="AS4">
-        <v>0.002238007664481911</v>
+        <v>0.001518537449052927</v>
       </c>
       <c r="AT4">
-        <v>0.002258760779513461</v>
+        <v>0.001518537449052927</v>
       </c>
       <c r="AU4">
-        <v>0.002274138631277829</v>
+        <v>0.001518537449052927</v>
       </c>
       <c r="AV4">
-        <v>0.002375236046302955</v>
+        <v>0.0015977177224924</v>
       </c>
       <c r="AW4">
-        <v>0.00250518342276209</v>
+        <v>0.001705864220438663</v>
       </c>
       <c r="AX4">
-        <v>0.002682410701571309</v>
+        <v>0.001861481155018415</v>
       </c>
       <c r="AY4">
-        <v>0.002833331849072962</v>
+        <v>0.001990685946652913</v>
       </c>
       <c r="AZ4">
-        <v>0.003022093338455499</v>
+        <v>0.002157883573766327</v>
       </c>
       <c r="BA4">
-        <v>0.003088377257750193</v>
+        <v>0.002202110055828971</v>
       </c>
       <c r="BB4">
-        <v>0.00313164882990104</v>
+        <v>0.002223231452800893</v>
       </c>
       <c r="BC4">
-        <v>0.003235624505069232</v>
+        <v>0.002305301585545159</v>
       </c>
       <c r="BD4">
-        <v>0.00329247902289523</v>
+        <v>0.002340060666393709</v>
       </c>
       <c r="BE4">
-        <v>0.003301236954330549</v>
+        <v>0.002340060666393709</v>
       </c>
       <c r="BF4">
-        <v>0.003385310634509497</v>
+        <v>0.002402148600676112</v>
       </c>
       <c r="BG4">
-        <v>0.003462898368366055</v>
+        <v>0.002457724450783184</v>
       </c>
       <c r="BH4">
-        <v>0.003464628425852049</v>
+        <v>0.002457724450783184</v>
       </c>
       <c r="BI4">
-        <v>0.00346466022131363</v>
+        <v>0.002457724450783184</v>
       </c>
       <c r="BJ4">
-        <v>0.003481856944168406</v>
+        <v>0.002457724450783184</v>
       </c>
       <c r="BK4">
-        <v>0.003554260907767301</v>
+        <v>0.002508095640446652</v>
       </c>
       <c r="BL4">
-        <v>0.00364794112242375</v>
+        <v>0.00257982882278403</v>
       </c>
       <c r="BM4">
-        <v>0.003735584510780132</v>
+        <v>0.002645500850886726</v>
       </c>
       <c r="BN4">
-        <v>0.003951907111532615</v>
+        <v>0.002840370658478601</v>
       </c>
       <c r="BO4">
-        <v>0.004217730394745568</v>
+        <v>0.003084940632383317</v>
       </c>
       <c r="BP4">
-        <v>0.004400123793811573</v>
+        <v>0.003245744506277682</v>
       </c>
       <c r="BQ4">
-        <v>0.004607220654105484</v>
+        <v>0.003431351394403419</v>
       </c>
       <c r="BR4">
-        <v>0.004875545267442767</v>
+        <v>0.003678432778595899</v>
       </c>
       <c r="BS4">
-        <v>0.005050341656131157</v>
+        <v>0.003831609026759055</v>
       </c>
       <c r="BT4">
-        <v>0.005335025940281611</v>
+        <v>0.004095116009949836</v>
       </c>
       <c r="BU4">
-        <v>0.005558808451404895</v>
+        <v>0.004297475790763873</v>
       </c>
       <c r="BV4">
-        <v>0.005594220393165073</v>
+        <v>0.00431070588365356</v>
       </c>
       <c r="BW4">
-        <v>0.005608307766865297</v>
+        <v>0.00431070588365356</v>
       </c>
       <c r="BX4">
-        <v>0.005608888261324151</v>
+        <v>0.00431070588365356</v>
       </c>
       <c r="BY4">
-        <v>0.00561569792366263</v>
+        <v>0.00431070588365356</v>
       </c>
       <c r="BZ4">
-        <v>0.005619058946529692</v>
+        <v>0.00431070588365356</v>
       </c>
       <c r="CA4">
-        <v>0.005637303014436527</v>
+        <v>0.00431070588365356</v>
       </c>
       <c r="CB4">
-        <v>0.005709405888020457</v>
+        <v>0.004360774769933011</v>
       </c>
       <c r="CC4">
-        <v>0.005918199048398682</v>
+        <v>0.004548084794098828</v>
       </c>
       <c r="CD4">
-        <v>0.006308774567812542</v>
+        <v>0.004917909745892695</v>
       </c>
       <c r="CE4">
-        <v>0.00666637138558717</v>
+        <v>0.005254623094476639</v>
       </c>
       <c r="CF4">
-        <v>0.007075307055913635</v>
+        <v>0.005642882187145514</v>
       </c>
       <c r="CG4">
-        <v>0.007324770198313395</v>
+        <v>0.005871026090157844</v>
       </c>
       <c r="CH4">
-        <v>0.007549004299459125</v>
+        <v>0.006073839280866558</v>
       </c>
       <c r="CI4">
-        <v>0.007783168651098446</v>
+        <v>0.006286622740196391</v>
       </c>
       <c r="CJ4">
-        <v>0.008136642608668143</v>
+        <v>0.006619196613773435</v>
       </c>
       <c r="CK4">
-        <v>0.008334216528488708</v>
+        <v>0.006795242184725605</v>
       </c>
       <c r="CL4">
-        <v>0.008568380880128028</v>
+        <v>0.007008025644055439</v>
       </c>
       <c r="CM4">
-        <v>0.008626999796041727</v>
+        <v>0.007044556233377046</v>
       </c>
       <c r="CN4">
-        <v>0.1374099661972992</v>
+        <v>0.1363241832919769</v>
       </c>
       <c r="CO4">
-        <v>0.1863659346306936</v>
+        <v>0.1854551158669005</v>
       </c>
       <c r="CP4">
-        <v>0.2321434849061023</v>
+        <v>0.231394821508947</v>
       </c>
       <c r="CQ4">
-        <v>0.2331635136568037</v>
+        <v>0.232396636338984</v>
       </c>
       <c r="CR4">
-        <v>0.2691277924444361</v>
+        <v>0.268483523781907</v>
       </c>
       <c r="CS4">
-        <v>0.2693621643360857</v>
+        <v>0.2686965156176171</v>
       </c>
       <c r="CT4">
-        <v>0.2995513898366646</v>
+        <v>0.2989850767634978</v>
       </c>
       <c r="CU4">
-        <v>0.3021767539671604</v>
+        <v>0.3015986963484973</v>
       </c>
       <c r="CV4">
-        <v>0.3183062927688917</v>
+        <v>0.3177709113652676</v>
       </c>
       <c r="CW4">
-        <v>0.3327626904874582</v>
+        <v>0.33226324267206</v>
       </c>
       <c r="CX4">
-        <v>0.3329063465345987</v>
+        <v>0.332385153085551</v>
       </c>
       <c r="CY4">
-        <v>0.3331932487088594</v>
+        <v>0.3326508868967745</v>
       </c>
       <c r="CZ4">
-        <v>0.3363846850674923</v>
+        <v>0.3358328599364149</v>
       </c>
       <c r="DA4">
-        <v>0.3553342360093944</v>
+        <v>0.3548364515202185</v>
       </c>
       <c r="DB4">
-        <v>0.357252073404722</v>
+        <v>0.3567396930930214</v>
       </c>
       <c r="DC4">
-        <v>0.357885078776186</v>
+        <v>0.357352924870079</v>
       </c>
       <c r="DD4">
-        <v>0.3721936324874038</v>
+        <v>0.371696816369815</v>
       </c>
       <c r="DE4">
-        <v>0.3732199559384181</v>
+        <v>0.3727049512673114</v>
       </c>
       <c r="DF4">
-        <v>0.3751355150336324</v>
+        <v>0.374605905358631</v>
       </c>
       <c r="DG4">
-        <v>0.3959435220679106</v>
+        <v>0.3954754424665183</v>
       </c>
       <c r="DH4">
-        <v>0.3959702982392415</v>
+        <v>0.3954800019875039</v>
       </c>
       <c r="DI4">
-        <v>0.3968726846840953</v>
+        <v>0.3963637004224646</v>
       </c>
       <c r="DJ4">
-        <v>0.3971762588391847</v>
+        <v>0.3966461734012867</v>
       </c>
       <c r="DK4">
-        <v>0.4119498565735179</v>
+        <v>0.4114569830149313</v>
       </c>
       <c r="DL4">
-        <v>0.4301702704791777</v>
+        <v>0.4297284991976525</v>
       </c>
       <c r="DM4">
-        <v>0.4308741295141636</v>
+        <v>0.4304128701729166</v>
       </c>
       <c r="DN4">
-        <v>0.4355650307473285</v>
+        <v>0.4351003508124576</v>
       </c>
       <c r="DO4">
-        <v>0.435873577702665</v>
+        <v>0.4353878166315203</v>
       </c>
       <c r="DP4">
-        <v>0.4364903930833243</v>
+        <v>0.4359847931733851</v>
       </c>
       <c r="DQ4">
-        <v>0.4441642514647594</v>
+        <v>0.4436672520436102</v>
       </c>
       <c r="DR4">
-        <v>0.4531771769127539</v>
+        <v>0.4526941743152277</v>
       </c>
       <c r="DS4">
-        <v>0.4560278886544507</v>
+        <v>0.4555340496445563</v>
       </c>
       <c r="DT4">
-        <v>0.4560569755208965</v>
+        <v>0.4555409291725762</v>
       </c>
       <c r="DU4">
-        <v>0.4626505398486347</v>
+        <v>0.462138740489136</v>
       </c>
       <c r="DV4">
-        <v>0.4638322416073721</v>
+        <v>0.4633028798567004</v>
       </c>
       <c r="DW4">
-        <v>0.4666325347465628</v>
+        <v>0.4660921334005251</v>
       </c>
       <c r="DX4">
-        <v>0.5019405215015738</v>
+        <v>0.5015200840056151</v>
       </c>
       <c r="DY4">
-        <v>0.5122722200151189</v>
+        <v>0.5118710938943903</v>
       </c>
       <c r="DZ4">
-        <v>0.51308039875529</v>
+        <v>0.5126602049750368</v>
       </c>
       <c r="EA4">
-        <v>0.5168788010440926</v>
+        <v>0.5164515899697498</v>
       </c>
       <c r="EB4">
-        <v>0.5169004216711672</v>
+        <v>0.5164515899697498</v>
       </c>
       <c r="EC4">
-        <v>0.5229778554732508</v>
+        <v>0.5225311907952794</v>
       </c>
       <c r="ED4">
-        <v>0.5264370230451915</v>
+        <v>0.5259819739839346</v>
       </c>
       <c r="EE4">
-        <v>0.5340974794259604</v>
+        <v>0.5336509768444863</v>
       </c>
       <c r="EF4">
-        <v>0.5422754518324528</v>
+        <v>0.5418395812795931</v>
       </c>
       <c r="EG4">
-        <v>0.5502881707307312</v>
+        <v>0.5498622662478607</v>
       </c>
       <c r="EH4">
-        <v>0.5570054934646209</v>
+        <v>0.5565843347072035</v>
       </c>
       <c r="EI4">
-        <v>0.5712340746718636</v>
+        <v>0.5708479314200708</v>
       </c>
       <c r="EJ4">
-        <v>0.5718883698543858</v>
+        <v>0.5714825388044488</v>
       </c>
       <c r="EK4">
-        <v>0.580910886302857</v>
+        <v>0.5805190907275197</v>
       </c>
       <c r="EL4">
-        <v>0.6153735110158486</v>
+        <v>0.6150982725481292</v>
       </c>
       <c r="EM4">
-        <v>0.6559247230314781</v>
+        <v>0.655790578198759</v>
       </c>
       <c r="EN4">
-        <v>0.6861923345359533</v>
+        <v>0.6861578412379591</v>
       </c>
       <c r="EO4">
-        <v>0.6962656345366545</v>
+        <v>0.6962494112882313</v>
       </c>
       <c r="EP4">
-        <v>0.7000465385245872</v>
+        <v>0.7000232274652999</v>
       </c>
       <c r="EQ4">
-        <v>0.7012335075835864</v>
+        <v>0.7011926553599315</v>
       </c>
       <c r="ER4">
-        <v>0.7012357283994968</v>
+        <v>0.7011926553599315</v>
       </c>
       <c r="ES4">
-        <v>0.703554659314761</v>
+        <v>0.7034986068279722</v>
       </c>
       <c r="ET4">
-        <v>0.7131260732905156</v>
+        <v>0.7130862682921383</v>
       </c>
       <c r="EU4">
-        <v>0.7370430024793251</v>
+        <v>0.7370772562660268</v>
       </c>
       <c r="EV4">
-        <v>0.7777589675031438</v>
+        <v>0.7779349788664952</v>
       </c>
       <c r="EW4">
-        <v>0.8170579734565314</v>
+        <v>0.8173700321630575</v>
       </c>
       <c r="EX4">
-        <v>0.8403200526127912</v>
+        <v>0.8407035311103314</v>
       </c>
       <c r="EY4">
-        <v>0.8483700030129202</v>
+        <v>0.8487635976204703</v>
       </c>
       <c r="EZ4">
-        <v>0.8485671530727197</v>
+        <v>0.8489392176232788</v>
       </c>
       <c r="FA4">
-        <v>0.8559162564380126</v>
+        <v>0.8562956127402196</v>
       </c>
       <c r="FB4">
-        <v>0.8635415788170352</v>
+        <v>0.8639293400117645</v>
       </c>
       <c r="FC4">
-        <v>0.871620234218591</v>
+        <v>0.8720182272022255</v>
       </c>
       <c r="FD4">
-        <v>0.8777722492243817</v>
+        <v>0.8781727097878403</v>
       </c>
       <c r="FE4">
-        <v>0.8810645240880267</v>
+        <v>0.8814559277037276</v>
       </c>
       <c r="FF4">
-        <v>0.8895490745097578</v>
+        <v>0.889952345639333</v>
       </c>
       <c r="FG4">
-        <v>0.8977936589195613</v>
+        <v>0.8982078305188789</v>
       </c>
       <c r="FH4">
-        <v>0.9004051716493686</v>
+        <v>0.9008075428831358</v>
       </c>
       <c r="FI4">
-        <v>0.9021096536340912</v>
+        <v>0.9024965692398297</v>
       </c>
       <c r="FJ4">
-        <v>0.9022073980089497</v>
+        <v>0.9025723829606147</v>
       </c>
       <c r="FK4">
-        <v>0.9048766377416263</v>
+        <v>0.9052300549630168</v>
       </c>
       <c r="FL4">
-        <v>0.9097994649863193</v>
+        <v>0.9101503962576493</v>
       </c>
       <c r="FM4">
-        <v>0.9147962062346862</v>
+        <v>0.9151449494235702</v>
       </c>
       <c r="FN4">
-        <v>0.9241548966998672</v>
+        <v>0.9245190301181661</v>
       </c>
       <c r="FO4">
-        <v>0.9275973663709778</v>
+        <v>0.9279530481147659</v>
       </c>
       <c r="FP4">
-        <v>0.9279591099489586</v>
+        <v>0.928293924934673</v>
       </c>
       <c r="FQ4">
-        <v>0.9280555615837528</v>
+        <v>0.9283684407057531</v>
       </c>
       <c r="FR4">
-        <v>0.9324714981032504</v>
+        <v>0.9327798485454829</v>
       </c>
       <c r="FS4">
-        <v>0.9394559721504191</v>
+        <v>0.9397701449168603</v>
       </c>
       <c r="FT4">
-        <v>0.9406429412094183</v>
+        <v>0.9409395728114919</v>
       </c>
       <c r="FU4">
-        <v>0.9417550443646963</v>
+        <v>0.9420338330987055</v>
       </c>
       <c r="FV4">
-        <v>0.9420386229387917</v>
+        <v>0.9422962299159169</v>
       </c>
       <c r="FW4">
-        <v>0.9421062702821542</v>
+        <v>0.9423418253165389</v>
       </c>
       <c r="FX4">
-        <v>0.9421309398593805</v>
+        <v>0.9423442697540114</v>
       </c>
       <c r="FY4">
-        <v>0.9422057827281006</v>
+        <v>0.9423970896773917</v>
       </c>
       <c r="FZ4">
-        <v>0.9422825291719154</v>
+        <v>0.9424518208471243</v>
       </c>
       <c r="GA4">
-        <v>0.9424796792317148</v>
+        <v>0.9426274408499329</v>
       </c>
       <c r="GB4">
-        <v>0.9432355124692841</v>
+        <v>0.943363995479724</v>
       </c>
       <c r="GC4">
-        <v>0.9442095484576992</v>
+        <v>0.9443196322002646</v>
       </c>
       <c r="GD4">
-        <v>0.9454172329177282</v>
+        <v>0.9455098589773607</v>
       </c>
       <c r="GE4">
-        <v>0.9464049649668241</v>
+        <v>0.9464792469526281</v>
       </c>
       <c r="GF4">
-        <v>0.9468639852196401</v>
+        <v>0.94691779246471</v>
       </c>
       <c r="GG4">
-        <v>0.9480671146794426</v>
+        <v>0.9481034458852875</v>
       </c>
       <c r="GH4">
-        <v>0.9540833379784837</v>
+        <v>0.9541215895342674</v>
       </c>
       <c r="GI4">
-        <v>0.9653472425383648</v>
+        <v>0.9654085621863385</v>
       </c>
       <c r="GJ4">
-        <v>0.9701602307775982</v>
+        <v>0.9702186218329687</v>
       </c>
       <c r="GK4">
-        <v>0.9722174428798535</v>
+        <v>0.9722617997817932</v>
       </c>
       <c r="GL4">
-        <v>0.9722174892190477</v>
+        <v>0.9722617997817932</v>
       </c>
       <c r="GM4">
-        <v>0.97515361086499</v>
+        <v>0.9751874292105556</v>
       </c>
       <c r="GN4">
-        <v>0.9800436931080553</v>
+        <v>0.9800748935437824</v>
       </c>
       <c r="GO4">
-        <v>0.987944497500771</v>
+        <v>0.9879852129998425</v>
       </c>
       <c r="GP4">
-        <v>0.9923140597179635</v>
+        <v>0.9923500596524808</v>
       </c>
       <c r="GQ4">
-        <v>0.9954257100726305</v>
+        <v>0.9954519251568421</v>
       </c>
       <c r="GR4">
-        <v>0.9989412010473707</v>
+        <v>0.9989592587271751</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.432733653415615E-05</v>
+        <v>7.300636903764364E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001130717258454361</v>
+        <v>7.300636903764364E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002444593510178961</v>
+        <v>0.0001832205487804319</v>
       </c>
       <c r="E5">
-        <v>0.0003073281487079248</v>
+        <v>0.000224643155214485</v>
       </c>
       <c r="F5">
-        <v>0.0004857045321538895</v>
+        <v>0.0003820331365322063</v>
       </c>
       <c r="G5">
-        <v>0.0008278191395836649</v>
+        <v>0.0007038131176862871</v>
       </c>
       <c r="H5">
-        <v>0.001150271757735875</v>
+        <v>0.001005852843110948</v>
       </c>
       <c r="I5">
-        <v>0.001243320554317009</v>
+        <v>0.001077575582843507</v>
       </c>
       <c r="J5">
-        <v>0.001441320917041935</v>
+        <v>0.001254667658589565</v>
       </c>
       <c r="K5">
-        <v>0.001578576671998783</v>
+        <v>0.00137077332677546</v>
       </c>
       <c r="L5">
-        <v>0.001652733913274044</v>
+        <v>0.001423529311537303</v>
       </c>
       <c r="M5">
-        <v>0.001731120650393901</v>
+        <v>0.001480531628061423</v>
       </c>
       <c r="N5">
-        <v>0.001848995606062854</v>
+        <v>0.001577179349811543</v>
       </c>
       <c r="O5">
-        <v>0.001862864210553283</v>
+        <v>0.001577179349811543</v>
       </c>
       <c r="P5">
-        <v>0.001884474634759257</v>
+        <v>0.001577179349811543</v>
       </c>
       <c r="Q5">
-        <v>0.001885217791091952</v>
+        <v>0.001577179349811543</v>
       </c>
       <c r="R5">
-        <v>0.001956999912454481</v>
+        <v>0.0016275507602659</v>
       </c>
       <c r="S5">
-        <v>0.002038808889448596</v>
+        <v>0.001687988939221414</v>
       </c>
       <c r="T5">
-        <v>0.002170289924617624</v>
+        <v>0.001798296900788305</v>
       </c>
       <c r="U5">
-        <v>0.002453446264213687</v>
+        <v>0.002060883925015637</v>
       </c>
       <c r="V5">
-        <v>0.00276857598263496</v>
+        <v>0.002355571601198031</v>
       </c>
       <c r="W5">
-        <v>0.003036386872794857</v>
+        <v>0.002602752091942078</v>
       </c>
       <c r="X5">
-        <v>0.00333152191195079</v>
+        <v>0.002877365498102572</v>
       </c>
       <c r="Y5">
-        <v>0.003470685176837552</v>
+        <v>0.002995386269246327</v>
       </c>
       <c r="Z5">
-        <v>0.003620969971315678</v>
+        <v>0.003124572840306694</v>
       </c>
       <c r="AA5">
-        <v>0.003781964665400294</v>
+        <v>0.00326451194276579</v>
       </c>
       <c r="AB5">
-        <v>0.003861205502488769</v>
+        <v>0.003322371759086141</v>
       </c>
       <c r="AC5">
-        <v>0.003962138244780224</v>
+        <v>0.00340200982733819</v>
       </c>
       <c r="AD5">
-        <v>0.003977640387210634</v>
+        <v>0.00340200982733819</v>
       </c>
       <c r="AE5">
-        <v>0.00401779727973516</v>
+        <v>0.003420630121669422</v>
       </c>
       <c r="AF5">
-        <v>0.00403508149610009</v>
+        <v>0.003420630121669422</v>
       </c>
       <c r="AG5">
-        <v>0.004036400007251644</v>
+        <v>0.003420630121669422</v>
       </c>
       <c r="AH5">
-        <v>0.004076784622767803</v>
+        <v>0.003439479045465702</v>
       </c>
       <c r="AI5">
-        <v>0.004087640057368946</v>
+        <v>0.003439479045465702</v>
       </c>
       <c r="AJ5">
-        <v>0.004222328692420118</v>
+        <v>0.003553007375076605</v>
       </c>
       <c r="AK5">
-        <v>0.004734681933594861</v>
+        <v>0.004045703641338581</v>
       </c>
       <c r="AL5">
-        <v>0.005075169671084412</v>
+        <v>0.004365850276639138</v>
       </c>
       <c r="AM5">
-        <v>0.005493605525709936</v>
+        <v>0.004764255309102316</v>
       </c>
       <c r="AN5">
-        <v>0.005975528608002766</v>
+        <v>0.005226400286288916</v>
       </c>
       <c r="AO5">
-        <v>0.00620907127942177</v>
+        <v>0.005439176150329766</v>
       </c>
       <c r="AP5">
-        <v>0.006262223257468821</v>
+        <v>0.005470843258379538</v>
       </c>
       <c r="AQ5">
-        <v>0.006392854922669057</v>
+        <v>0.005580298468978246</v>
       </c>
       <c r="AR5">
-        <v>0.006579860115797976</v>
+        <v>0.005746351607791245</v>
       </c>
       <c r="AS5">
-        <v>0.00673603922005953</v>
+        <v>0.005881455951505777</v>
       </c>
       <c r="AT5">
-        <v>0.007090064637051669</v>
+        <v>0.006215194154352806</v>
       </c>
       <c r="AU5">
-        <v>0.007453261773706815</v>
+        <v>0.006558140585780901</v>
       </c>
       <c r="AV5">
-        <v>0.007624075247430661</v>
+        <v>0.006707937552482167</v>
       </c>
       <c r="AW5">
-        <v>0.007710247990264439</v>
+        <v>0.006772756867669739</v>
       </c>
       <c r="AX5">
-        <v>0.007751617878744396</v>
+        <v>0.006792594986404237</v>
       </c>
       <c r="AY5">
-        <v>0.00776551683523371</v>
+        <v>0.006792594986404237</v>
       </c>
       <c r="AZ5">
-        <v>0.007846729532249734</v>
+        <v>0.006852434511831479</v>
       </c>
       <c r="BA5">
-        <v>0.007884549772860116</v>
+        <v>0.006868708852979404</v>
       </c>
       <c r="BB5">
-        <v>0.008040006177148222</v>
+        <v>0.00700308761994328</v>
       </c>
       <c r="BC5">
-        <v>0.008615681655996334</v>
+        <v>0.007559358184176096</v>
       </c>
       <c r="BD5">
-        <v>0.008974015712830161</v>
+        <v>0.007897422177822836</v>
       </c>
       <c r="BE5">
-        <v>0.009285249441394585</v>
+        <v>0.008188198355783572</v>
       </c>
       <c r="BF5">
-        <v>0.00971701632553029</v>
+        <v>0.008599987483210513</v>
       </c>
       <c r="BG5">
-        <v>0.009927400707800195</v>
+        <v>0.00878951287429028</v>
       </c>
       <c r="BH5">
-        <v>0.01020576157757246</v>
+        <v>0.009047285339861913</v>
       </c>
       <c r="BI5">
-        <v>0.0106696698605272</v>
+        <v>0.009491343808057594</v>
       </c>
       <c r="BJ5">
-        <v>0.01075469585740311</v>
+        <v>0.009555011812553995</v>
       </c>
       <c r="BK5">
-        <v>0.01075587588595976</v>
+        <v>0.009555011812553995</v>
       </c>
       <c r="BL5">
-        <v>0.01079369612657014</v>
+        <v>0.009571286153701919</v>
       </c>
       <c r="BM5">
-        <v>0.01080344743721185</v>
+        <v>0.009571286153701919</v>
       </c>
       <c r="BN5">
-        <v>0.01080375418768058</v>
+        <v>0.009571286153701919</v>
       </c>
       <c r="BO5">
-        <v>0.01080444826819507</v>
+        <v>0.009571286153701919</v>
       </c>
       <c r="BP5">
-        <v>0.0108400846408857</v>
+        <v>0.009585367933832405</v>
       </c>
       <c r="BQ5">
-        <v>0.01085607863529803</v>
+        <v>0.009585367933832405</v>
       </c>
       <c r="BR5">
-        <v>0.01096481606130272</v>
+        <v>0.009672841753096803</v>
       </c>
       <c r="BS5">
-        <v>0.01108197503699798</v>
+        <v>0.00976877064484563</v>
       </c>
       <c r="BT5">
-        <v>0.01124342536106586</v>
+        <v>0.009909167190967244</v>
       </c>
       <c r="BU5">
-        <v>0.01133775269760001</v>
+        <v>0.009982173560004887</v>
       </c>
       <c r="BV5">
-        <v>0.01150032388162671</v>
+        <v>0.0101236954277769</v>
       </c>
       <c r="BW5">
-        <v>0.0116031744138477</v>
+        <v>0.01020525891990696</v>
       </c>
       <c r="BX5">
-        <v>0.01202161026847322</v>
+        <v>0.01060366395237014</v>
       </c>
       <c r="BY5">
-        <v>0.01241128603415547</v>
+        <v>0.01097319441357165</v>
       </c>
       <c r="BZ5">
-        <v>0.0127927483801395</v>
+        <v>0.01133447876076268</v>
       </c>
       <c r="CA5">
-        <v>0.01306840873001099</v>
+        <v>0.01158953995675263</v>
       </c>
       <c r="CB5">
-        <v>0.01316706089638624</v>
+        <v>0.01166688837103525</v>
       </c>
       <c r="CC5">
-        <v>0.01319065957251916</v>
+        <v>0.01166888453739148</v>
       </c>
       <c r="CD5">
-        <v>0.0132242241932859</v>
+        <v>0.01168088631878898</v>
       </c>
       <c r="CE5">
-        <v>0.0132296348616871</v>
+        <v>0.01168088631878898</v>
       </c>
       <c r="CF5">
-        <v>0.01323891087734628</v>
+        <v>0.01168088631878898</v>
       </c>
       <c r="CG5">
-        <v>0.01324979316694643</v>
+        <v>0.01168088631878898</v>
       </c>
       <c r="CH5">
-        <v>0.01334228428354805</v>
+        <v>0.01175204915864288</v>
       </c>
       <c r="CI5">
-        <v>0.01361226121362837</v>
+        <v>0.01200140431143894</v>
       </c>
       <c r="CJ5">
-        <v>0.01381756742608485</v>
+        <v>0.01218583131855872</v>
       </c>
       <c r="CK5">
-        <v>0.01415983276350909</v>
+        <v>0.0125077626297026</v>
       </c>
       <c r="CL5">
-        <v>0.01469047034401202</v>
+        <v>0.01301881601787561</v>
       </c>
       <c r="CM5">
-        <v>0.01629474678506652</v>
+        <v>0.01460778199002678</v>
       </c>
       <c r="CN5">
-        <v>0.132792772504611</v>
+        <v>0.1315478429328744</v>
       </c>
       <c r="CO5">
-        <v>0.1898061604097835</v>
+        <v>0.1887664817016463</v>
       </c>
       <c r="CP5">
-        <v>0.2425399564721999</v>
+        <v>0.241688493298012</v>
       </c>
       <c r="CQ5">
-        <v>0.2444706031012626</v>
+        <v>0.2436051286063017</v>
       </c>
       <c r="CR5">
-        <v>0.2817172457327193</v>
+        <v>0.2809783386581187</v>
       </c>
       <c r="CS5">
-        <v>0.2818022717295953</v>
+        <v>0.2810420066626151</v>
       </c>
       <c r="CT5">
-        <v>0.3193197503511007</v>
+        <v>0.3186871307933598</v>
       </c>
       <c r="CU5">
-        <v>0.3259286367082722</v>
+        <v>0.3253006280159101</v>
       </c>
       <c r="CV5">
-        <v>0.3459777929716114</v>
+        <v>0.345407895440182</v>
       </c>
       <c r="CW5">
-        <v>0.3681338441575376</v>
+        <v>0.3676304444862548</v>
       </c>
       <c r="CX5">
-        <v>0.3689430912278036</v>
+        <v>0.368421216396238</v>
       </c>
       <c r="CY5">
-        <v>0.3689433291811549</v>
+        <v>0.368421216396238</v>
       </c>
       <c r="CZ5">
-        <v>0.3697291811522805</v>
+        <v>0.3691885000806236</v>
       </c>
       <c r="DA5">
-        <v>0.380337197762513</v>
+        <v>0.3798170464813749</v>
       </c>
       <c r="DB5">
-        <v>0.3850375605898089</v>
+        <v>0.3845144231113691</v>
       </c>
       <c r="DC5">
-        <v>0.3851009541574796</v>
+        <v>0.3845563725766816</v>
       </c>
       <c r="DD5">
-        <v>0.3923293073918902</v>
+        <v>0.3917918025243483</v>
       </c>
       <c r="DE5">
-        <v>0.3926793550390285</v>
+        <v>0.3921215471234435</v>
       </c>
       <c r="DF5">
-        <v>0.393338684484803</v>
+        <v>0.3927618046473167</v>
       </c>
       <c r="DG5">
-        <v>0.4100381708712182</v>
+        <v>0.4095060685094281</v>
       </c>
       <c r="DH5">
-        <v>0.4100442878699935</v>
+        <v>0.4095060685094281</v>
       </c>
       <c r="DI5">
-        <v>0.4102866599010881</v>
+        <v>0.4097277088792655</v>
       </c>
       <c r="DJ5">
-        <v>0.410350756552733</v>
+        <v>0.409770364227246</v>
       </c>
       <c r="DK5">
-        <v>0.4210830091584007</v>
+        <v>0.42052364115684</v>
       </c>
       <c r="DL5">
-        <v>0.4332200337124533</v>
+        <v>0.4326872818655595</v>
       </c>
       <c r="DM5">
-        <v>0.4332202716658046</v>
+        <v>0.4326872818655595</v>
       </c>
       <c r="DN5">
-        <v>0.4349822300010654</v>
+        <v>0.4344345573999626</v>
       </c>
       <c r="DO5">
-        <v>0.4351723702540791</v>
+        <v>0.4346037580780698</v>
       </c>
       <c r="DP5">
-        <v>0.4351852226996069</v>
+        <v>0.4346037580780698</v>
       </c>
       <c r="DQ5">
-        <v>0.4392575625499781</v>
+        <v>0.4386706118248789</v>
       </c>
       <c r="DR5">
-        <v>0.4436448463887773</v>
+        <v>0.4430536632251527</v>
       </c>
       <c r="DS5">
-        <v>0.44405165535383</v>
+        <v>0.4434403950860835</v>
       </c>
       <c r="DT5">
-        <v>0.4455878892973846</v>
+        <v>0.444961047710986</v>
       </c>
       <c r="DU5">
-        <v>0.4571885828711434</v>
+        <v>0.4565862225220209</v>
       </c>
       <c r="DV5">
-        <v>0.4605317107483078</v>
+        <v>0.4599209615967667</v>
       </c>
       <c r="DW5">
-        <v>0.4654062831692027</v>
+        <v>0.4647932412785131</v>
       </c>
       <c r="DX5">
-        <v>0.5043501217382997</v>
+        <v>0.5038704031207109</v>
       </c>
       <c r="DY5">
-        <v>0.5152182063389766</v>
+        <v>0.5147600527377204</v>
       </c>
       <c r="DZ5">
-        <v>0.5157569890591803</v>
+        <v>0.5152792836881113</v>
       </c>
       <c r="EA5">
-        <v>0.5184985572584476</v>
+        <v>0.5180100685184233</v>
       </c>
       <c r="EB5">
-        <v>0.5188353986960712</v>
+        <v>0.5183265543394082</v>
       </c>
       <c r="EC5">
-        <v>0.5305350162661954</v>
+        <v>0.530051046923353</v>
       </c>
       <c r="ED5">
-        <v>0.5385977949699469</v>
+        <v>0.5381242238517245</v>
       </c>
       <c r="EE5">
-        <v>0.5520747494747668</v>
+        <v>0.551633128232103</v>
       </c>
       <c r="EF5">
-        <v>0.5686340778663318</v>
+        <v>0.5682366761868964</v>
       </c>
       <c r="EG5">
-        <v>0.5858600732334017</v>
+        <v>0.5855095448496328</v>
       </c>
       <c r="EH5">
-        <v>0.6005650041931024</v>
+        <v>0.6002513137640547</v>
       </c>
       <c r="EI5">
-        <v>0.625184716288507</v>
+        <v>0.6249473305603704</v>
       </c>
       <c r="EJ5">
-        <v>0.6290312761471739</v>
+        <v>0.6287875055763599</v>
       </c>
       <c r="EK5">
-        <v>0.6349629179292292</v>
+        <v>0.6347210623861967</v>
       </c>
       <c r="EL5">
-        <v>0.6618046899429892</v>
+        <v>0.6616479842254971</v>
       </c>
       <c r="EM5">
-        <v>0.6984209485976079</v>
+        <v>0.698388300996027</v>
       </c>
       <c r="EN5">
-        <v>0.7259341375866982</v>
+        <v>0.7259893124509298</v>
       </c>
       <c r="EO5">
-        <v>0.7357852212247425</v>
+        <v>0.7358579128345162</v>
       </c>
       <c r="EP5">
-        <v>0.7398665154747847</v>
+        <v>0.7399337566248511</v>
       </c>
       <c r="EQ5">
-        <v>0.742278575386159</v>
+        <v>0.7423337215276296</v>
       </c>
       <c r="ER5">
-        <v>0.7426971779507785</v>
+        <v>0.7427322939336919</v>
       </c>
       <c r="ES5">
-        <v>0.7432291500312324</v>
+        <v>0.7432446871339221</v>
       </c>
       <c r="ET5">
-        <v>0.7489634533205384</v>
+        <v>0.7489801199260344</v>
       </c>
       <c r="EU5">
-        <v>0.7644472967516197</v>
+        <v>0.7645039018483381</v>
       </c>
       <c r="EV5">
-        <v>0.7940458296640888</v>
+        <v>0.794198558139995</v>
       </c>
       <c r="EW5">
-        <v>0.819900026714135</v>
+        <v>0.8201339738778284</v>
       </c>
       <c r="EX5">
-        <v>0.8341073436921194</v>
+        <v>0.8343761480099043</v>
       </c>
       <c r="EY5">
-        <v>0.8379949747492772</v>
+        <v>0.8382575577122665</v>
       </c>
       <c r="EZ5">
-        <v>0.8395122838935272</v>
+        <v>0.8397592102058686</v>
       </c>
       <c r="FA5">
-        <v>0.8508911544754364</v>
+        <v>0.8511616790371596</v>
       </c>
       <c r="FB5">
-        <v>0.8614855720861686</v>
+        <v>0.8617765723062765</v>
       </c>
       <c r="FC5">
-        <v>0.872480252682194</v>
+        <v>0.8727933218462501</v>
       </c>
       <c r="FD5">
-        <v>0.8802324973973553</v>
+        <v>0.8805547286754263</v>
       </c>
       <c r="FE5">
-        <v>0.8835223760764762</v>
+        <v>0.8838360065885406</v>
       </c>
       <c r="FF5">
-        <v>0.8915799557804187</v>
+        <v>0.891903963821981</v>
       </c>
       <c r="FG5">
-        <v>0.8991510627022355</v>
+        <v>0.8994835118212897</v>
       </c>
       <c r="FH5">
-        <v>0.9005938452492238</v>
+        <v>0.9009103410572946</v>
       </c>
       <c r="FI5">
-        <v>0.9010183238336273</v>
+        <v>0.9013148128732067</v>
       </c>
       <c r="FJ5">
-        <v>0.9012092632766117</v>
+        <v>0.9014848159225376</v>
       </c>
       <c r="FK5">
-        <v>0.907633327740574</v>
+        <v>0.9079127555504397</v>
       </c>
       <c r="FL5">
-        <v>0.9187614483316965</v>
+        <v>0.9190634762563297</v>
       </c>
       <c r="FM5">
-        <v>0.9294572419387038</v>
+        <v>0.9297801490586894</v>
       </c>
       <c r="FN5">
-        <v>0.9457682053393945</v>
+        <v>0.9461343433817174</v>
       </c>
       <c r="FO5">
-        <v>0.9533692827601102</v>
+        <v>0.9537439811803973</v>
       </c>
       <c r="FP5">
-        <v>0.9554233679846376</v>
+        <v>0.9557845464434311</v>
       </c>
       <c r="FQ5">
-        <v>0.9556838902150653</v>
+        <v>0.9560244092612273</v>
       </c>
       <c r="FR5">
-        <v>0.9575808286453665</v>
+        <v>0.957907202192007</v>
       </c>
       <c r="FS5">
-        <v>0.9619119627862288</v>
+        <v>0.9622338803850352</v>
       </c>
       <c r="FT5">
-        <v>0.9623820558389563</v>
+        <v>0.9626841482420785</v>
       </c>
       <c r="FU5">
-        <v>0.9629561478178627</v>
+        <v>0.9632388290030947</v>
       </c>
       <c r="FV5">
-        <v>0.9630868726330595</v>
+        <v>0.9633483777344826</v>
       </c>
       <c r="FW5">
-        <v>0.963160532104353</v>
+        <v>0.9634006339678411</v>
       </c>
       <c r="FX5">
-        <v>0.9633168130586108</v>
+        <v>0.9635358405669757</v>
       </c>
       <c r="FY5">
-        <v>0.9641287993587763</v>
+        <v>0.9643293626106281</v>
       </c>
       <c r="FZ5">
-        <v>0.964965436028036</v>
+        <v>0.9651476331465553</v>
       </c>
       <c r="GA5">
-        <v>0.9659172209930648</v>
+        <v>0.9660815103371908</v>
       </c>
       <c r="GB5">
-        <v>0.9659223287664771</v>
+        <v>0.9660815103371908</v>
       </c>
       <c r="GC5">
-        <v>0.9659268101959124</v>
+        <v>0.9660815103371908</v>
       </c>
       <c r="GD5">
-        <v>0.9659273985907608</v>
+        <v>0.9660815103371908</v>
       </c>
       <c r="GE5">
-        <v>0.9659280387378973</v>
+        <v>0.9660815103371908</v>
       </c>
       <c r="GF5">
-        <v>0.9660157242396755</v>
+        <v>0.9661478484330063</v>
       </c>
       <c r="GG5">
-        <v>0.9660332500130315</v>
+        <v>0.9661478484330063</v>
       </c>
       <c r="GH5">
-        <v>0.9686999824150485</v>
+        <v>0.9688034995749321</v>
       </c>
       <c r="GI5">
-        <v>0.9750448877819193</v>
+        <v>0.9751519650052931</v>
       </c>
       <c r="GJ5">
-        <v>0.9775802638887627</v>
+        <v>0.9776757369755953</v>
       </c>
       <c r="GK5">
-        <v>0.9782836234629194</v>
+        <v>0.9783601998940394</v>
       </c>
       <c r="GL5">
-        <v>0.9786194031305819</v>
+        <v>0.9786756197185852</v>
       </c>
       <c r="GM5">
-        <v>0.9816603659188486</v>
+        <v>0.9817069909070435</v>
       </c>
       <c r="GN5">
-        <v>0.9869459682246412</v>
+        <v>0.9869919366179374</v>
       </c>
       <c r="GO5">
-        <v>0.9940457486637759</v>
+        <v>0.9940982819738691</v>
       </c>
       <c r="GP5">
-        <v>0.997130573650431</v>
+        <v>0.9971736899584429</v>
       </c>
       <c r="GQ5">
-        <v>0.9987374965913882</v>
+        <v>0.9987653129651459</v>
       </c>
       <c r="GR5">
-        <v>0.9999888987454083</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0004490830616499851</v>
+        <v>0.0004350089538991025</v>
       </c>
       <c r="C6">
-        <v>0.0006744713374969436</v>
+        <v>0.0006456619981173399</v>
       </c>
       <c r="D6">
-        <v>0.0008628319123833401</v>
+        <v>0.0008191779070081898</v>
       </c>
       <c r="E6">
-        <v>0.001098073738485917</v>
+        <v>0.001039713623382818</v>
       </c>
       <c r="F6">
-        <v>0.001290072003466681</v>
+        <v>0.001216877973462537</v>
       </c>
       <c r="G6">
-        <v>0.001388274602014225</v>
+        <v>0.001299969446558533</v>
       </c>
       <c r="H6">
-        <v>0.001622583708092605</v>
+        <v>0.001519569686280208</v>
       </c>
       <c r="I6">
-        <v>0.001658627926027654</v>
+        <v>0.001540319071354156</v>
       </c>
       <c r="J6">
-        <v>0.001661594101604602</v>
+        <v>0.001540319071354156</v>
       </c>
       <c r="K6">
-        <v>0.001688762488309396</v>
+        <v>0.001552166392919162</v>
       </c>
       <c r="L6">
-        <v>0.001689059921517112</v>
+        <v>0.001552166392919162</v>
       </c>
       <c r="M6">
-        <v>0.001735024482709512</v>
+        <v>0.001582865440556139</v>
       </c>
       <c r="N6">
-        <v>0.001745449453979954</v>
+        <v>0.001582865440556139</v>
       </c>
       <c r="O6">
-        <v>0.001760805430378314</v>
+        <v>0.001582865440556139</v>
       </c>
       <c r="P6">
-        <v>0.001828046987122675</v>
+        <v>0.001634904367328876</v>
       </c>
       <c r="Q6">
-        <v>0.001909441395234186</v>
+        <v>0.001701137973837468</v>
       </c>
       <c r="R6">
-        <v>0.002203163752853848</v>
+        <v>0.001980327059355395</v>
       </c>
       <c r="S6">
-        <v>0.002640919924209994</v>
+        <v>0.002403975646643327</v>
       </c>
       <c r="T6">
-        <v>0.00297673873292171</v>
+        <v>0.002725385598173796</v>
       </c>
       <c r="U6">
-        <v>0.003300764001327481</v>
+        <v>0.003034967153909524</v>
       </c>
       <c r="V6">
-        <v>0.003517252306943559</v>
+        <v>0.003236693924276032</v>
       </c>
       <c r="W6">
-        <v>0.003799951874277271</v>
+        <v>0.00350482764195001</v>
       </c>
       <c r="X6">
-        <v>0.003972370698750111</v>
+        <v>0.003662354685015941</v>
       </c>
       <c r="Y6">
-        <v>0.004040112350507445</v>
+        <v>0.00371489518481891</v>
       </c>
       <c r="Z6">
-        <v>0.004099447979046713</v>
+        <v>0.003759004817629975</v>
       </c>
       <c r="AA6">
-        <v>0.004161310790651541</v>
+        <v>0.003805649102527669</v>
       </c>
       <c r="AB6">
-        <v>0.004164748666740725</v>
+        <v>0.003805649102527669</v>
       </c>
       <c r="AC6">
-        <v>0.004168435050136357</v>
+        <v>0.003805649102527669</v>
       </c>
       <c r="AD6">
-        <v>0.004209710824207121</v>
+        <v>0.003831645505459728</v>
       </c>
       <c r="AE6">
-        <v>0.004221944948024495</v>
+        <v>0.003831645505459728</v>
       </c>
       <c r="AF6">
-        <v>0.004264602204131098</v>
+        <v>0.003859027473360348</v>
       </c>
       <c r="AG6">
-        <v>0.004335812461978414</v>
+        <v>0.003915046830624607</v>
       </c>
       <c r="AH6">
-        <v>0.004572300798113327</v>
+        <v>0.004136832741058194</v>
       </c>
       <c r="AI6">
-        <v>0.005074466161140358</v>
+        <v>0.004625080879637657</v>
       </c>
       <c r="AJ6">
-        <v>0.005444003070726779</v>
+        <v>0.004980308584976285</v>
       </c>
       <c r="AK6">
-        <v>0.005677381306781011</v>
+        <v>0.00519897520351268</v>
       </c>
       <c r="AL6">
-        <v>0.005976171254532135</v>
+        <v>0.005483246856287383</v>
       </c>
       <c r="AM6">
-        <v>0.006058209486660348</v>
+        <v>0.005550126189617113</v>
       </c>
       <c r="AN6">
-        <v>0.006077219987153513</v>
+        <v>0.00555379151455885</v>
       </c>
       <c r="AO6">
-        <v>0.006109356189987181</v>
+        <v>0.005570621334498683</v>
       </c>
       <c r="AP6">
-        <v>0.006151484991080074</v>
+        <v>0.00559747328555112</v>
       </c>
       <c r="AQ6">
-        <v>0.006158323570557479</v>
+        <v>0.00559747328555112</v>
       </c>
       <c r="AR6">
-        <v>0.00620616546179858</v>
+        <v>0.005630055211634886</v>
       </c>
       <c r="AS6">
-        <v>0.006231667974460159</v>
+        <v>0.005640231735711083</v>
       </c>
       <c r="AT6">
-        <v>0.006238639317941008</v>
+        <v>0.005640231735711083</v>
       </c>
       <c r="AU6">
-        <v>0.006249064289211449</v>
+        <v>0.005640231735711083</v>
       </c>
       <c r="AV6">
-        <v>0.006484147415309909</v>
+        <v>0.005860608283048033</v>
       </c>
       <c r="AW6">
-        <v>0.1037829659394082</v>
+        <v>0.1034315894681548</v>
       </c>
       <c r="AX6">
-        <v>0.1610672404254606</v>
+        <v>0.1608697647146111</v>
       </c>
       <c r="AY6">
-        <v>0.1811635239467926</v>
+        <v>0.181010040896758</v>
       </c>
       <c r="AZ6">
-        <v>0.1836843540121873</v>
+        <v>0.1835229198465319</v>
       </c>
       <c r="BA6">
-        <v>0.2052327045711885</v>
+        <v>0.2051195546111301</v>
       </c>
       <c r="BB6">
-        <v>0.2059910198908605</v>
+        <v>0.2058647097506103</v>
       </c>
       <c r="BC6">
-        <v>0.2193030452361972</v>
+        <v>0.2192006770655602</v>
       </c>
       <c r="BD6">
-        <v>0.2469581659536185</v>
+        <v>0.2469221303823026</v>
       </c>
       <c r="BE6">
-        <v>0.2780941727613399</v>
+        <v>0.2781347574538613</v>
       </c>
       <c r="BF6">
-        <v>0.287849582014412</v>
+        <v>0.2879035971940617</v>
       </c>
       <c r="BG6">
-        <v>0.2895214986577844</v>
+        <v>0.289565053781198</v>
       </c>
       <c r="BH6">
-        <v>0.2895910069195876</v>
+        <v>0.2896193661122149</v>
       </c>
       <c r="BI6">
-        <v>0.2953805705697788</v>
+        <v>0.2954106393003202</v>
       </c>
       <c r="BJ6">
-        <v>0.3020404957425487</v>
+        <v>0.3020748463408994</v>
       </c>
       <c r="BK6">
-        <v>0.3039342055916747</v>
+        <v>0.303958751637599</v>
       </c>
       <c r="BL6">
-        <v>0.3060583806467795</v>
+        <v>0.3060738032739485</v>
       </c>
       <c r="BM6">
-        <v>0.3158087988997221</v>
+        <v>0.3158376372632537</v>
       </c>
       <c r="BN6">
-        <v>0.3198023037033205</v>
+        <v>0.319827543401514</v>
       </c>
       <c r="BO6">
-        <v>0.3286528339329184</v>
+        <v>0.3286888297728065</v>
       </c>
       <c r="BP6">
-        <v>0.3498452344826856</v>
+        <v>0.3499284625275639</v>
       </c>
       <c r="BQ6">
-        <v>0.35089121000982</v>
+        <v>0.3509621280464548</v>
       </c>
       <c r="BR6">
-        <v>0.3512443513589811</v>
+        <v>0.3513009117347335</v>
       </c>
       <c r="BS6">
-        <v>0.3513036869875204</v>
+        <v>0.3513450213675445</v>
       </c>
       <c r="BT6">
-        <v>0.3586502585781031</v>
+        <v>0.3586979041908179</v>
       </c>
       <c r="BU6">
-        <v>0.3673515528038296</v>
+        <v>0.3674095134952734</v>
       </c>
       <c r="BV6">
-        <v>0.3679128807183914</v>
+        <v>0.3679570990387055</v>
       </c>
       <c r="BW6">
-        <v>0.3699642684716079</v>
+        <v>0.3699991482522684</v>
       </c>
       <c r="BX6">
-        <v>0.3700703631043602</v>
+        <v>0.3700901550842624</v>
       </c>
       <c r="BY6">
-        <v>0.370750879622014</v>
+        <v>0.3707572814894732</v>
       </c>
       <c r="BZ6">
-        <v>0.3746405498229187</v>
+        <v>0.3746430461446853</v>
       </c>
       <c r="CA6">
-        <v>0.3818469220098643</v>
+        <v>0.3818553152087832</v>
       </c>
       <c r="CB6">
-        <v>0.3844030122761737</v>
+        <v>0.3844035585700402</v>
       </c>
       <c r="CC6">
-        <v>0.3845113149089832</v>
+        <v>0.3844967799277758</v>
       </c>
       <c r="CD6">
-        <v>0.3872506269800456</v>
+        <v>0.3872287866008648</v>
       </c>
       <c r="CE6">
-        <v>0.3874181545443916</v>
+        <v>0.3873814079278171</v>
       </c>
       <c r="CF6">
-        <v>0.3929150770869912</v>
+        <v>0.3928791751154672</v>
       </c>
       <c r="CG6">
-        <v>0.4240207028939245</v>
+        <v>0.4240613313960132</v>
       </c>
       <c r="CH6">
-        <v>0.4283839960071159</v>
+        <v>0.428422118743195</v>
       </c>
       <c r="CI6">
-        <v>0.428830502768699</v>
+        <v>0.4288545437828423</v>
       </c>
       <c r="CJ6">
-        <v>0.4305136470123627</v>
+        <v>0.4305272611531383</v>
       </c>
       <c r="CK6">
-        <v>0.4305729826409019</v>
+        <v>0.4305713707859494</v>
       </c>
       <c r="CL6">
-        <v>0.4371199438107413</v>
+        <v>0.4371222799615485</v>
       </c>
       <c r="CM6">
-        <v>0.4441160032922311</v>
+        <v>0.4441236147466886</v>
       </c>
       <c r="CN6">
-        <v>0.4580341066532906</v>
+        <v>0.4580674513245133</v>
       </c>
       <c r="CO6">
-        <v>0.4685181129252637</v>
+        <v>0.4685670414323608</v>
       </c>
       <c r="CP6">
-        <v>0.4808199622443948</v>
+        <v>0.480889847173233</v>
       </c>
       <c r="CQ6">
-        <v>0.4932594795670972</v>
+        <v>0.4933507277917305</v>
       </c>
       <c r="CR6">
-        <v>0.5100271960020806</v>
+        <v>0.5101525993977013</v>
       </c>
       <c r="CS6">
-        <v>0.5112200667330257</v>
+        <v>0.5113335942651972</v>
       </c>
       <c r="CT6">
-        <v>0.5217529750062674</v>
+        <v>0.5218822309028529</v>
       </c>
       <c r="CU6">
-        <v>0.5618085560453778</v>
+        <v>0.562040793765742</v>
       </c>
       <c r="CV6">
-        <v>0.6163438494601169</v>
+        <v>0.6167218634018198</v>
       </c>
       <c r="CW6">
-        <v>0.6520760103870704</v>
+        <v>0.652544228401565</v>
       </c>
       <c r="CX6">
-        <v>0.6694655608381852</v>
+        <v>0.6699697718372517</v>
       </c>
       <c r="CY6">
-        <v>0.6771507594375524</v>
+        <v>0.6776622824722581</v>
       </c>
       <c r="CZ6">
-        <v>0.6799391415098879</v>
+        <v>0.6804435041716792</v>
       </c>
       <c r="DA6">
-        <v>0.6810329004382618</v>
+        <v>0.6815250943143573</v>
       </c>
       <c r="DB6">
-        <v>0.6812648827242799</v>
+        <v>0.6817423608571649</v>
       </c>
       <c r="DC6">
-        <v>0.6878546008952284</v>
+        <v>0.6883361534010314</v>
       </c>
       <c r="DD6">
-        <v>0.7068908473890613</v>
+        <v>0.7074132596449688</v>
       </c>
       <c r="DE6">
-        <v>0.7447143483702677</v>
+        <v>0.7453331455978269</v>
       </c>
       <c r="DF6">
-        <v>0.7782880292412266</v>
+        <v>0.7789906512122617</v>
       </c>
       <c r="DG6">
-        <v>0.7978003477474097</v>
+        <v>0.7985452364864813</v>
       </c>
       <c r="DH6">
-        <v>0.8045458099223985</v>
+        <v>0.8052952333315717</v>
       </c>
       <c r="DI6">
-        <v>0.8048736853909042</v>
+        <v>0.8056086764665694</v>
       </c>
       <c r="DJ6">
-        <v>0.8107174129425005</v>
+        <v>0.8114542736360227</v>
       </c>
       <c r="DK6">
-        <v>0.8174687255176412</v>
+        <v>0.818210138171964</v>
       </c>
       <c r="DL6">
-        <v>0.8244063700976155</v>
+        <v>0.8251528854119301</v>
       </c>
       <c r="DM6">
-        <v>0.8280378925918235</v>
+        <v>0.8287797394118934</v>
       </c>
       <c r="DN6">
-        <v>0.8299666502418588</v>
+        <v>0.8306987960923281</v>
       </c>
       <c r="DO6">
-        <v>0.8370794678263774</v>
+        <v>0.8378172340559067</v>
       </c>
       <c r="DP6">
-        <v>0.8397638338960145</v>
+        <v>0.8404941323361521</v>
       </c>
       <c r="DQ6">
-        <v>0.8408163822233194</v>
+        <v>0.8415343900809463</v>
       </c>
       <c r="DR6">
-        <v>0.8410112023983735</v>
+        <v>0.841714384681178</v>
       </c>
       <c r="DS6">
-        <v>0.8412797544753402</v>
+        <v>0.8419683290959605</v>
       </c>
       <c r="DT6">
-        <v>0.8465643746124323</v>
+        <v>0.8472531664240965</v>
       </c>
       <c r="DU6">
-        <v>0.853822515300721</v>
+        <v>0.8545173569899404</v>
       </c>
       <c r="DV6">
-        <v>0.86461205058062</v>
+        <v>0.8653233790884176</v>
       </c>
       <c r="DW6">
-        <v>0.8773612549113562</v>
+        <v>0.8780948619865094</v>
       </c>
       <c r="DX6">
-        <v>0.8830945870600887</v>
+        <v>0.8838297374824772</v>
       </c>
       <c r="DY6">
-        <v>0.8848015320043697</v>
+        <v>0.8855263258957163</v>
       </c>
       <c r="DZ6">
-        <v>0.8849058596170761</v>
+        <v>0.8856155604852846</v>
       </c>
       <c r="EA6">
-        <v>0.8912064632805246</v>
+        <v>0.8919193840515584</v>
       </c>
       <c r="EB6">
-        <v>0.8994364134940236</v>
+        <v>0.9001582562993306</v>
       </c>
       <c r="EC6">
-        <v>0.9022872871679801</v>
+        <v>0.903002154292608</v>
       </c>
       <c r="ED6">
-        <v>0.9054701592505493</v>
+        <v>0.9061790319067984</v>
       </c>
       <c r="EE6">
-        <v>0.9067708408842912</v>
+        <v>0.9074681563092929</v>
       </c>
       <c r="EF6">
-        <v>0.9082452812225407</v>
+        <v>0.9089315529554377</v>
       </c>
       <c r="EG6">
-        <v>0.9096995332602664</v>
+        <v>0.9103747016350837</v>
       </c>
       <c r="EH6">
-        <v>0.9110407751950605</v>
+        <v>0.9117045062135011</v>
       </c>
       <c r="EI6">
-        <v>0.9126021672355658</v>
+        <v>0.9132551115453015</v>
       </c>
       <c r="EJ6">
-        <v>0.9135044788989732</v>
+        <v>0.9141446886058092</v>
       </c>
       <c r="EK6">
-        <v>0.9136890959237626</v>
+        <v>0.914314449900642</v>
       </c>
       <c r="EL6">
-        <v>0.9140094789620739</v>
+        <v>0.9146203784617709</v>
       </c>
       <c r="EM6">
-        <v>0.9145785250768359</v>
+        <v>0.9151757050163348</v>
       </c>
       <c r="EN6">
-        <v>0.9149478630564172</v>
+        <v>0.915530733203736</v>
       </c>
       <c r="EO6">
-        <v>0.9151851290025723</v>
+        <v>0.9157532990223951</v>
       </c>
       <c r="EP6">
-        <v>0.915983635683287</v>
+        <v>0.9165387643073964</v>
       </c>
       <c r="EQ6">
-        <v>0.9214948452262572</v>
+        <v>0.9220508607202597</v>
       </c>
       <c r="ER6">
-        <v>0.931871093495435</v>
+        <v>0.9324423743494545</v>
       </c>
       <c r="ES6">
-        <v>0.9379268746525323</v>
+        <v>0.9385006518430937</v>
       </c>
       <c r="ET6">
-        <v>0.9410171215326987</v>
+        <v>0.9415846305036054</v>
       </c>
       <c r="EU6">
-        <v>0.9412375084484159</v>
+        <v>0.9417902674063096</v>
       </c>
       <c r="EV6">
-        <v>0.9424490297798449</v>
+        <v>0.9429899679956336</v>
       </c>
       <c r="EW6">
-        <v>0.9455004945590051</v>
+        <v>0.9460350499356907</v>
       </c>
       <c r="EX6">
-        <v>0.9502597411824681</v>
+        <v>0.9507929610230145</v>
       </c>
       <c r="EY6">
-        <v>0.9516203739177653</v>
+        <v>0.9521422137109203</v>
       </c>
       <c r="EZ6">
-        <v>0.9533093504615803</v>
+        <v>0.9538207806185728</v>
       </c>
       <c r="FA6">
-        <v>0.9545117075927715</v>
+        <v>0.9550112899231137</v>
       </c>
       <c r="FB6">
-        <v>0.9546172824455103</v>
+        <v>0.9551017754388984</v>
       </c>
       <c r="FC6">
-        <v>0.9550021883854953</v>
+        <v>0.9554724175973887</v>
       </c>
       <c r="FD6">
-        <v>0.9552243863712595</v>
+        <v>0.9556798709227082</v>
       </c>
       <c r="FE6">
-        <v>0.9565556077057936</v>
+        <v>0.9569996252852532</v>
       </c>
       <c r="FF6">
-        <v>0.9586402137598719</v>
+        <v>0.9590749909754659</v>
       </c>
       <c r="FG6">
-        <v>0.9608872130181628</v>
+        <v>0.9613132298186059</v>
       </c>
       <c r="FH6">
-        <v>0.9634731403852462</v>
+        <v>0.9638913984633797</v>
       </c>
       <c r="FI6">
-        <v>0.964059254000451</v>
+        <v>0.9644638429609215</v>
       </c>
       <c r="FJ6">
-        <v>0.9640856339041354</v>
+        <v>0.9644748994691258</v>
       </c>
       <c r="FK6">
-        <v>0.9641665731212351</v>
+        <v>0.9645406765393179</v>
       </c>
       <c r="FL6">
-        <v>0.9656332322592828</v>
+        <v>0.9659962689881345</v>
       </c>
       <c r="FM6">
-        <v>0.9670201875952628</v>
+        <v>0.9673719220724563</v>
       </c>
       <c r="FN6">
-        <v>0.9689784649460639</v>
+        <v>0.9693205856983325</v>
       </c>
       <c r="FO6">
-        <v>0.970185752377383</v>
+        <v>0.9705160398743697</v>
       </c>
       <c r="FP6">
-        <v>0.9738737407730558</v>
+        <v>0.9741995266592396</v>
       </c>
       <c r="FQ6">
-        <v>0.976350953837319</v>
+        <v>0.9766686596990171</v>
       </c>
       <c r="FR6">
-        <v>0.980648817648813</v>
+        <v>0.9809638243699734</v>
       </c>
       <c r="FS6">
-        <v>0.981425407168959</v>
+        <v>0.981727307718832</v>
       </c>
       <c r="FT6">
-        <v>0.9817353440769993</v>
+        <v>0.9820227592764349</v>
       </c>
       <c r="FU6">
-        <v>0.98273299430288</v>
+        <v>0.9830079566699538</v>
       </c>
       <c r="FV6">
-        <v>0.9835372450937436</v>
+        <v>0.983799183041666</v>
       </c>
       <c r="FW6">
-        <v>0.9856975681497862</v>
+        <v>0.9859504895133905</v>
       </c>
       <c r="FX6">
-        <v>0.9889512212341915</v>
+        <v>0.9891983573207499</v>
       </c>
       <c r="FY6">
-        <v>0.9899322774596419</v>
+        <v>0.9901669116707197</v>
       </c>
       <c r="FZ6">
-        <v>0.9923797776231342</v>
+        <v>0.9926062439940533</v>
       </c>
       <c r="GA6">
-        <v>0.9930114467395208</v>
+        <v>0.9932243786308261</v>
       </c>
       <c r="GB6">
-        <v>0.9930118455445311</v>
+        <v>0.9932243786308261</v>
       </c>
       <c r="GC6">
-        <v>0.9930139726923863</v>
+        <v>0.9932243786308261</v>
       </c>
       <c r="GD6">
-        <v>0.9931927123970231</v>
+        <v>0.993388245235246</v>
       </c>
       <c r="GE6">
-        <v>0.9932303576859997</v>
+        <v>0.9934106004232837</v>
       </c>
       <c r="GF6">
-        <v>0.993264835616894</v>
+        <v>0.9934297788921981</v>
       </c>
       <c r="GG6">
-        <v>0.9933415399428839</v>
+        <v>0.9934913085551744</v>
       </c>
       <c r="GH6">
-        <v>0.9934102873346673</v>
+        <v>0.9935448577674408</v>
       </c>
       <c r="GI6">
-        <v>0.9937500255834807</v>
+        <v>0.993870198742872</v>
       </c>
       <c r="GJ6">
-        <v>0.9937500580318656</v>
+        <v>0.993870198742872</v>
       </c>
       <c r="GK6">
-        <v>0.994115506741346</v>
+        <v>0.9942213261655399</v>
       </c>
       <c r="GL6">
-        <v>0.9941614713025384</v>
+        <v>0.9942520252131769</v>
       </c>
       <c r="GM6">
-        <v>0.9951797360289539</v>
+        <v>0.9952578980328283</v>
       </c>
       <c r="GN6">
-        <v>0.9959708060994756</v>
+        <v>0.9960359047289368</v>
       </c>
       <c r="GO6">
-        <v>0.9960558112676808</v>
+        <v>0.9961057597670426</v>
       </c>
       <c r="GP6">
-        <v>0.9963822187061484</v>
+        <v>0.9964177305332792</v>
       </c>
       <c r="GQ6">
-        <v>0.9966146679121786</v>
+        <v>0.9966354653760684</v>
       </c>
       <c r="GR6">
-        <v>0.9980712423499646</v>
+        <v>0.9980809433195651</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>95</v>
       </c>
       <c r="E2">
-        <v>0.01602538712604665</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="F2">
-        <v>0.5143769291059245</v>
+        <v>0.5146834963774459</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>98</v>
       </c>
       <c r="E3">
-        <v>0.00377288321548776</v>
+        <v>0.06592215770971811</v>
       </c>
       <c r="F3">
-        <v>0.5146076580346375</v>
+        <v>0.5147358576074429</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.008136642608668143</v>
+        <v>0.007008025644055439</v>
       </c>
       <c r="F4">
-        <v>0.5019405215015738</v>
+        <v>0.5015200840056151</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>127</v>
       </c>
       <c r="E5">
-        <v>0.01381756742608485</v>
+        <v>0.01301881601787561</v>
       </c>
       <c r="F5">
-        <v>0.5043501217382997</v>
+        <v>0.5038704031207109</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>95</v>
       </c>
       <c r="E6">
-        <v>0.006231667974460159</v>
+        <v>0.005640231735711083</v>
       </c>
       <c r="F6">
-        <v>0.5100271960020806</v>
+        <v>0.5101525993977013</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.01602538712604665</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="F2">
-        <v>0.7219057192834377</v>
+        <v>0.7233547106595287</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>109</v>
       </c>
       <c r="E3">
-        <v>0.00377288321548776</v>
+        <v>0.06592215770971811</v>
       </c>
       <c r="F3">
-        <v>0.7287631585597891</v>
+        <v>0.7293737733674033</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>145</v>
       </c>
       <c r="E4">
-        <v>0.008136642608668143</v>
+        <v>0.007008025644055439</v>
       </c>
       <c r="F4">
-        <v>0.7000465385245872</v>
+        <v>0.7000232274652999</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>143</v>
       </c>
       <c r="E5">
-        <v>0.01381756742608485</v>
+        <v>0.01301881601787561</v>
       </c>
       <c r="F5">
-        <v>0.7259341375866982</v>
+        <v>0.7259893124509298</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>107</v>
       </c>
       <c r="E6">
-        <v>0.006231667974460159</v>
+        <v>0.005640231735711083</v>
       </c>
       <c r="F6">
-        <v>0.7068908473890613</v>
+        <v>0.7074132596449688</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>0.01602538712604665</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="F2">
-        <v>0.802101589925051</v>
+        <v>0.8011031715578262</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>118</v>
       </c>
       <c r="E3">
-        <v>0.00377288321548776</v>
+        <v>0.06592215770971811</v>
       </c>
       <c r="F3">
-        <v>0.8008552000905801</v>
+        <v>0.8015394249815757</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.008136642608668143</v>
+        <v>0.007008025644055439</v>
       </c>
       <c r="F4">
-        <v>0.8170579734565314</v>
+        <v>0.8173700321630575</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>152</v>
       </c>
       <c r="E5">
-        <v>0.01381756742608485</v>
+        <v>0.01301881601787561</v>
       </c>
       <c r="F5">
-        <v>0.819900026714135</v>
+        <v>0.8201339738778284</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>111</v>
       </c>
       <c r="E6">
-        <v>0.006231667974460159</v>
+        <v>0.005640231735711083</v>
       </c>
       <c r="F6">
-        <v>0.8045458099223985</v>
+        <v>0.8052952333315717</v>
       </c>
       <c r="G6">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2">
-        <v>0.01602538712604665</v>
+        <v>0.01441786628819785</v>
       </c>
       <c r="F2">
-        <v>0.9100225771248679</v>
+        <v>0.9012738964384431</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>146</v>
       </c>
       <c r="E3">
-        <v>0.00377288321548776</v>
+        <v>0.06592215770971811</v>
       </c>
       <c r="F3">
-        <v>0.9010618649480793</v>
+        <v>0.9016186907791749</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>163</v>
       </c>
       <c r="E4">
-        <v>0.008136642608668143</v>
+        <v>0.007008025644055439</v>
       </c>
       <c r="F4">
-        <v>0.9004051716493686</v>
+        <v>0.9008075428831358</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>163</v>
       </c>
       <c r="E5">
-        <v>0.01381756742608485</v>
+        <v>0.01301881601787561</v>
       </c>
       <c r="F5">
-        <v>0.9005938452492238</v>
+        <v>0.9009103410572946</v>
       </c>
       <c r="G5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6">
-        <v>0.006231667974460159</v>
+        <v>0.005640231735711083</v>
       </c>
       <c r="F6">
-        <v>0.9022872871679801</v>
+        <v>0.9001582562993306</v>
       </c>
       <c r="G6">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>15</v>

--- a/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
@@ -1994,31 +1994,31 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0004435780038513256</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004085269648426958</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0005737953688839052</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0006000764583185795</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0007485980663305797</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0006130159198740182</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0004619505009960367</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001934007125630116</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.23516779987113E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2030,43 +2030,43 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.082571468070956E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.758890882119296E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0002548387755836363</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0005060624694538657</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0006572675215762134</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0007998932741066084</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0008333801022387366</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0006118460932779518</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0005554604513475536</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0004474783700325937</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0003584410079782631</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001099029658187653</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.468610319757151E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -2081,46 +2081,46 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.737406595827212E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.234486524518977E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001523692740343347</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0002831201828144643</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0005565788176698335</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0005116088890117082</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0006916351217792705</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0005896579251959205</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0006293713154114386</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0005840831495655683</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0004018075937750017</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0003130163338018117</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0002210228436280839</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001092902811095114</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -2132,289 +2132,289 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>6.295808156798231E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.09776041924258672</v>
+        <v>0.5551863783436438</v>
       </c>
       <c r="AX2">
-        <v>0.03680630456362977</v>
+        <v>0.05430790974254449</v>
       </c>
       <c r="AY2">
-        <v>0.01406244415156761</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0003367606383863381</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.03445852659565537</v>
+        <v>0.03501550529358954</v>
       </c>
       <c r="BB2">
-        <v>0.009667428310972188</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.01065383960446718</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.007503485492856742</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.05081070649598721</v>
+        <v>0.1693863327579323</v>
       </c>
       <c r="BF2">
-        <v>0.008931863423369501</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.01050348790581739</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.003531294881896593</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.007788356161650411</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0006187174157985464</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.004410994502575111</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.002079859422206371</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.003782911931849819</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.007024887306000325</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0172783261932001</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.009044707588284065</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001871849233678871</v>
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.003060580146894718</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.005474459920187288</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001059543922981575</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0008418536184588743</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>4.077064935274559E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0003770968239192606</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001790233844275567</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.004165880499012702</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001677925249262332</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.00127963321373686</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.005066357066627457</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0009541526774448811</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.004154447951527457</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.02114144138607439</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.003745728784326234</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0005793243594871195</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.939774506833679E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.002787677998702303</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.00833811619567271</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01509993064882778</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01691115688772453</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.01051652081237537</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.02248482569377463</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.01305131176592102</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01675048894143653</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.002853872845808334</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.007304901757968014</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.02580443168823387</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.03998916332280889</v>
+        <v>0.08046242661918129</v>
       </c>
       <c r="CW2">
-        <v>0.04305330963139573</v>
+        <v>0.1056414472431086</v>
       </c>
       <c r="CX2">
-        <v>0.027073916825096</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.01352896643042162</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.005632091055098033</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.001726209905017265</v>
+        <v>0</v>
       </c>
       <c r="DB2">
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.002115903790664402</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01165363056914665</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.02793481646042398</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02594003177774378</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.02053907191642202</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.006883117023819565</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0001221027804419646</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.004543194685886646</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.007392154391036273</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.008532131508214713</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.003796656814732493</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.002698016561123953</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.004855478005637738</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.002591141586361279</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0007656500152311038</v>
+        <v>0</v>
       </c>
       <c r="DR2">
         <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001288369464643769</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.007238608224068571</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.009818016898247637</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.01341673313575024</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01149979307957123</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.00778150856831385</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.002261226797408002</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
         <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0030985790985236</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.005454313701817324</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.004015882621246339</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.003321044735007077</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.002085709059205055</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.00108543887387606</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0006779393302841261</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.002094498836860997</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003899532706279385</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003041949108495928</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0002999595569346538</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.000142719882997901</v>
+        <v>0</v>
       </c>
       <c r="EM2">
         <v>0</v>
@@ -2423,130 +2423,130 @@
         <v>0</v>
       </c>
       <c r="EO2">
-        <v>2.921930474182499E-05</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0009268521705708823</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.005782543557418318</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01012906577624988</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.007125386549408014</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.003555987648216784</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0004404745511675036</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0009571603565613682</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.001102554228285324</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.003983617382395075</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.001173408624256204</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.001173408624256204</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.001119798107374466</v>
+        <v>0</v>
       </c>
       <c r="FB2">
         <v>0</v>
       </c>
       <c r="FC2">
-        <v>5.736742935952764E-05</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0007384186092732277</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.001833951287327822</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.002124755663381366</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.003762458363088523</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.00337935290454111</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.001523639586567896</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0004566584393399481</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>2.349483969293821E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.001168986972053718</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.002205897981159048</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.003321044735007077</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.003150345210646335</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.005184921940646144</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.005944484654064643</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.006852640042082839</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.003036666391340094</v>
+        <v>0</v>
       </c>
       <c r="FT2">
         <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.000345821315826361</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.001247025847227944</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.002087992665556395</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.003628654594986791</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.001466416669350386</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001910294039942341</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.001361100018529857</v>
+        <v>0</v>
       </c>
       <c r="GB2">
         <v>0</v>
       </c>
       <c r="GC2">
-        <v>2.234499843258372E-05</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>6.15559629936329E-05</v>
+        <v>0</v>
       </c>
       <c r="GE2">
         <v>0</v>
@@ -2555,43 +2555,43 @@
         <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0006118460932779518</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0008608295465358881</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0005301159489761599</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001222081172535192</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>8.29010595774996E-05</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001121486367247876</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0007824824137372953</v>
+        <v>0</v>
       </c>
       <c r="GO2">
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0001686841868176854</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.0006211684671269405</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.002205897981159048</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.002861457313976195</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,40 +2767,40 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001013956945954229</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001531948943865585</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001979173085078285</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0002881630527173797</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001622135273658436</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000152169280980059</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001326297621714751</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001297546681530028</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.403500246083443E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.579378144515882E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.436037563427863E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2809,37 +2809,37 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>3.098891865711629E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001156320629291512</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001648406617411592</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002623410938120637</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.228593877951684E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001557552314293049</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001330955479261712</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>9.699813498851868E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>5.817654646887152E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>4.957206898887872E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>2.760298303487623E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.61122451723389E-07</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -2863,112 +2863,112 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.409798605434024E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.73510480032819E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.937430199129171E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.048789146714578E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.304765869202169E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.241260564616771E-07</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.048789146714578E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.194447857503783E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.843324704621675E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.381978349082432E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>6.864735686879869E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0001339165261645654</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>8.970963216874967E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0001929439717433715</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.06260281848837451</v>
+        <v>0.2790360708805688</v>
       </c>
       <c r="AX3">
-        <v>0.003146148638240431</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0600437303220217</v>
+        <v>0.2570821224936632</v>
       </c>
       <c r="AZ3">
-        <v>0.001094675059303468</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.04092557638995152</v>
+        <v>0.09307098360595432</v>
       </c>
       <c r="BB3">
-        <v>0.001086808943628314</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01404168334202443</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.006736891562874246</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.04123677532184764</v>
+        <v>0.09574070221070426</v>
       </c>
       <c r="BF3">
-        <v>0.01769668712625658</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.005955826611528143</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.004985949204270992</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.003350215442197446</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.002944172022027441</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002171868994860916</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>6.586696680238927E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.006727290161035832</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.002628652278743589</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001468441896027281</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.015414380062129</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.008446714089428453</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -2977,16 +2977,16 @@
         <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.002611726843802787</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01196650518633503</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.002340393450748855</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001302744487024079</v>
+        <v>0</v>
       </c>
       <c r="BX3">
         <v>0</v>
@@ -2995,322 +2995,322 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001439685940274713</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.00392192417173644</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.002912033968565148</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0003926071873809315</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.00474112368914982</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.003501217738969479</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.001753185814075737</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.02436863421566003</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0145492517862161</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>6.175358525716911E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0008544867375897339</v>
+        <v>0</v>
       </c>
       <c r="CK3">
         <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.005935546664500768</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0110862971041372</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01225572790615836</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.0109979177831278</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.01980422171323227</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.014417846917999</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.02330374289424717</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01069680415505585</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.001416276780468394</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.02396837083618679</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.03869820584355166</v>
+        <v>0.07396277988827339</v>
       </c>
       <c r="CW3">
-        <v>0.04974070671635089</v>
+        <v>0.1686943711680288</v>
       </c>
       <c r="CX3">
-        <v>0.02485911963576919</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0155517083159719</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.005246628327484334</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.002031862098767157</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>4.094365521289907E-06</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.003195748993025733</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01287730421993748</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.02857763455251809</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.03385490269106276</v>
+        <v>0.03241296975280705</v>
       </c>
       <c r="DG3">
-        <v>0.02149531972065942</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.01001219218459175</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>1.412550121272577E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.005357720647483064</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01018003314698085</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.009004064050716014</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.006686373459484536</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.004640217084643532</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.004775605818400488</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.00768198594598078</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001955323831262002</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0005124056504198863</v>
+        <v>0</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.004423165778024808</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.00990203125554197</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01138438082767355</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01414463288762564</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0126457379602846</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.003645115383576696</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.0007080738559258395</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.002294145300888918</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.00691186345900368</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.004942483290206431</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.002607083431091221</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001989291764497127</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.001330121964109931</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.0006121660973620713</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001253180745884052</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.002388516219246808</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.003587415187654631</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0004185107495750975</v>
+        <v>0</v>
       </c>
       <c r="EL3">
         <v>0</v>
       </c>
       <c r="EM3">
-        <v>6.046731680218194E-05</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.000182226265000671</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.000163427726123342</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0009983142645584673</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.003337198639278811</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01276125802357753</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.006856121742014011</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.004624905960369552</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.00128752434515082</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0009385965364081907</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.001517422025692781</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.005528489497757786</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.00268569041971002</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.001494874038885572</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.001895142534238017</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0001424150748516566</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0001203728579060093</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>2.270991943067641E-06</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.001368414721187061</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001937229869324504</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.003680162867634933</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.00436734210665654</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.002936246120783567</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001129484905757175</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>7.951895126414152E-05</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0002988023260101089</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002028297635010562</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.001738851020238604</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.00258560275712158</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.003465480714643813</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.005731759127361402</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.005099058284100485</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.004417129642433845</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0001339165261645654</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.000162371638126612</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0006000076587245527</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0006989108448105477</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.003057346504861641</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0008447851247057616</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0009107559518808728</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001439685940274713</v>
+        <v>0</v>
       </c>
       <c r="GB3">
         <v>0</v>
@@ -3319,52 +3319,52 @@
         <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002068590929565815</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0001089347952470354</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001880289058461461</v>
+        <v>0</v>
       </c>
       <c r="GG3">
         <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.00101765088358542</v>
+        <v>0</v>
       </c>
       <c r="GI3">
         <v>0</v>
       </c>
       <c r="GJ3">
-        <v>2.638691447368487E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001176188268554789</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0003828093959679499</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.001235878942732106</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.001960517652388957</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0004573965072697627</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>4.883617484341929E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.000106007559385239</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0004891061008332674</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.002410462739157959</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,16 +3540,16 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.690950106633098E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.822342100209303E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.783907422626459E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3558,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8.153803702074956E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5.473116973263419E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3570,31 +3570,31 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.197967990103456E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.545755211028363E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001275909138588539</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001308273141081935</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002192097129990496</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001249203246594624</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2.990106275651953E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>9.23867264434882E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>4.422648206264464E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>2.92433668997308E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -3624,34 +3624,34 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.010197522130274E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>3.925063402528795E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.370321586544282E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>6.221277938513685E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>3.015787755866293E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>7.668382319827913E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1.375457605796168E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>3.127481270814075E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.858264891272887E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.224157518158023E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -3678,40 +3678,40 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>7.918027343947257E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001081464979462639</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001556169345797511</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0001292047916344978</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0001671976271134141</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>4.422648206264464E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>2.112139697192146E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>8.207013274426596E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.475908084855068E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>6.208793428240283E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>5.557585010707208E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
         <v>0</v>
@@ -3723,40 +3723,40 @@
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>5.037118966346768E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>7.173318233737842E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>6.567202810269543E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001948698075918747</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0002445699739047165</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001608038738943645</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001856068881257373</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0002470813841924802</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001531762481631559</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000263506983190781</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0002023597808140371</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.323009288968662E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -3774,370 +3774,370 @@
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>5.006888627945087E-05</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001873100241658175</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0003698249517938664</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0003367133485839446</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.000388259092668875</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0002281439030123292</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0002028131907087136</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0002127834593298335</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0003325738735770444</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.000176045570952171</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0002127834593298335</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>3.653058932160692E-05</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1292796270585998</v>
+        <v>0.5479589389387636</v>
       </c>
       <c r="CO4">
-        <v>0.0491309325749236</v>
+        <v>0.1051506421372998</v>
       </c>
       <c r="CP4">
-        <v>0.04593970564204652</v>
+        <v>0.08751964051016702</v>
       </c>
       <c r="CQ4">
-        <v>0.001001814830036962</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.03608688744292305</v>
+        <v>0.03308444760335161</v>
       </c>
       <c r="CS4">
-        <v>0.0002129918357100482</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.03028856114588075</v>
+        <v>0.001049652670848133</v>
       </c>
       <c r="CU4">
-        <v>0.002613619584999434</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01617221501677035</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01449233130679233</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.0001219104134910173</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.0002657338112235189</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.003181973039640385</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01900359158380355</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.001903241572802913</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.0006132317770575924</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.01434389149973603</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.001008134897496428</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.001900954091319617</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.02086953710788724</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>4.559520985635013E-06</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0008836984349606678</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0002824729788221129</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.01481080961364455</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01827151618272126</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0006843709752640322</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.004687480639541074</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.0002874658190627015</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0005969765418647982</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.007682458870225087</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.009026922271617513</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.002839875329328598</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>6.879528019846498E-06</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.006597811316559863</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.001164139367564448</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.002789253543824628</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.03542795060508996</v>
+        <v>0.0294439304278655</v>
       </c>
       <c r="DY4">
-        <v>0.0103510098887752</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0007891110806465391</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003791384994712996</v>
+        <v>0</v>
       </c>
       <c r="EB4">
         <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.006079600825529635</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.003450783188655241</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.00766900286055159</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.008188604435106861</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.008022684968267633</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.006722068459342773</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.01426359671286737</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0006346073843779121</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.009036551923070915</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.03457918182060949</v>
+        <v>0.02475462310657665</v>
       </c>
       <c r="EM4">
-        <v>0.04069230565062974</v>
+        <v>0.05852862240557986</v>
       </c>
       <c r="EN4">
-        <v>0.03036726303920017</v>
+        <v>0.001484467630222396</v>
       </c>
       <c r="EO4">
-        <v>0.0100915700502722</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.003773816177068632</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.001169427894631543</v>
+        <v>0</v>
       </c>
       <c r="ER4">
         <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.002305951468040712</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.009587661464166172</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.02399098797388853</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0408577226004684</v>
+        <v>0.05944252372726729</v>
       </c>
       <c r="EW4">
-        <v>0.03943505329656231</v>
+        <v>0.05158251084205823</v>
       </c>
       <c r="EX4">
-        <v>0.02333349894727385</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.008060066510138906</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0001756200028085947</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.00735639511694075</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.007633727271544825</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.008088887190461079</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.006154482585614776</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.003283217915887287</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.008496417935605408</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.008255484879545824</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.002599712364256897</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001689026356693904</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>7.581372078497144E-05</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.002657672002402099</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.004920341294632521</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.004994553165920903</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.00937408069459594</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003434017996599795</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0003408768199071555</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>7.451577108005299E-05</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.004411407839729826</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.006990296371377354</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.001169427894631543</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.001094260287213613</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0002623968172113688</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>4.559540062204462E-05</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>2.444437472567421E-06</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>5.28199233802817E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>5.473116973263419E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0001756200028085947</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0007365546297911395</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0009556367205405549</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.001190226777096129</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0009693879752673721</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.0004385455120818776</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.001185653420577491</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.006018143648979895</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.01128697265207116</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.004810059646630186</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.002043177948824463</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.002925629428762448</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.00488746433322686</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.007910319456060154</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.004364846652638222</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.003101865504361347</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.003507333570332921</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001040741272824862</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,43 +4313,43 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>7.300636903764364E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001102141797427883</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4.142260643405306E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001573899813177213</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0003217799811540808</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0003020397254246614</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>7.172273973255843E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.000177092075746058</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001161056681858949</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.275598476184343E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>5.700231652411962E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>9.664772175012048E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4361,46 +4361,46 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>5.037141045435681E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>6.043817895551382E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001103079615668908</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002625870242273323</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002946876761823941</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.000247180490744047</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0002746134061604935</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0001180207711437555</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001291865710603667</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001399391024590964</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>5.785981632035067E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>7.963806825204877E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.862029433123252E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -4409,97 +4409,97 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.884892379628009E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001135283296109029</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0004926962662619758</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0003201466353005573</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.000398405032463178</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0004621449771865998</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0002127758640408493</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.166710804977265E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001094552105987082</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0001660531388129988</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001351043437145321</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0003337382028470288</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0003429464314280947</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0001497969667012667</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>6.481931518757099E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.983811873449806E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
       <c r="AZ5">
-        <v>5.983952542724235E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.627434114792506E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0001343787669638751</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0005562705642328157</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0003380639936467396</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0002907761779607359</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0004117891274269412</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0001895253910797677</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0002577724655716337</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0004440584681956815</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>6.366800449640042E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>1.627434114792506E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -4511,49 +4511,49 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.408178013048502E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>8.747381926439841E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>9.592889174882612E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001403965461216146</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>7.300636903764364E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.000141521867772011</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>8.156349213006536E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.000398405032463178</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0003695304612015143</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0003612843471910236</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002550611959899479</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>7.734841428261959E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>1.996166356229949E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.200178139750142E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -4565,298 +4565,298 @@
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>7.116283985390004E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0002493551527960647</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0001844270071197786</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0003219313111438781</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.000511053388173016</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.00158896597215117</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1169400609428476</v>
+        <v>0.5192911248664358</v>
       </c>
       <c r="CO5">
-        <v>0.05721863876877189</v>
+        <v>0.1621749453243389</v>
       </c>
       <c r="CP5">
-        <v>0.05292201159636576</v>
+        <v>0.1364824044425429</v>
       </c>
       <c r="CQ5">
-        <v>0.001916635308289668</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.03737321005181703</v>
+        <v>0.04350523809405183</v>
       </c>
       <c r="CS5">
-        <v>6.366800449640042E-05</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.03764512413074459</v>
+        <v>0.04513120267251211</v>
       </c>
       <c r="CU5">
-        <v>0.006613497222550317</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02010726742427186</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.02222254904607287</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0007907719099831529</v>
+        <v>0</v>
       </c>
       <c r="CY5">
         <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.0007672836843856756</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01062854640075128</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.00469737662999421</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>4.194946531248435E-05</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.007235429947666683</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.00032974459909518</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.0006402575238732785</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01674426386211134</v>
+        <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0002216403698374196</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>4.265534798047795E-05</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.010753276929594</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01216364070871951</v>
+        <v>0</v>
       </c>
       <c r="DM5">
         <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001747275534403045</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0001692006781071941</v>
+        <v>0</v>
       </c>
       <c r="DP5">
         <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.004066853746809079</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004383051400273773</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0003867318609308036</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.001520652624902543</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.01162517481103493</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.003334739074745802</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.00487227968174634</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.03907716184219775</v>
+        <v>0.05369435836869968</v>
       </c>
       <c r="DY5">
-        <v>0.01088964961700959</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.000519230950390875</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.002730784830312108</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0003164858209849065</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.01172449258394485</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.00807317692837152</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.01350890438037843</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.01660354795479352</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01727286866273635</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.01474176891442191</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.02469601679631572</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.003840175015989446</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.005933556809836833</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.02692692183930036</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.03674031677052991</v>
+        <v>0.0397207262314186</v>
       </c>
       <c r="EN5">
-        <v>0.02760101145490284</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.009868600383586352</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.004075843790334863</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.002399964902778513</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0003985724060623229</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0005123932002302345</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.005735432792112278</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.01552378192230369</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.02969465629165693</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.02593541573783345</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0142421741320759</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.003881409702362195</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.001501652493602094</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.01140246883129091</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.01061489326911687</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.01101674953997372</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.00776140682917609</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.003281277913114299</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.008067957233440476</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.007579547999308695</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.001426829236004864</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0004044718159120473</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0001700030493308797</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.006427939627902106</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01115072070588998</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.01071667280235973</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.016354194323028</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.007609637798679896</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.002040565263033897</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0002398628177961516</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.001882792930779638</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.00432667819302821</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0004502678570432824</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0005546807610161761</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.0001095487313878651</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>5.225623335853007E-05</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0001352065991345604</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0007935220436523135</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0008182705359272464</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0009338771906355395</v>
+        <v>0</v>
       </c>
       <c r="GB5">
         <v>0</v>
@@ -4871,43 +4871,43 @@
         <v>0</v>
       </c>
       <c r="GF5">
-        <v>6.633809581542101E-05</v>
+        <v>0</v>
       </c>
       <c r="GG5">
         <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.00265565114192575</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.006348465430361029</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.002523771970302209</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0006844629184442037</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0003154198245457961</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.00303137118845832</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.005284945710893833</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.00710634535593169</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.003075407984573817</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001591623006703008</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001234687034854391</v>
+        <v>0</v>
       </c>
       <c r="GS5">
         <v>0</v>
@@ -5086,40 +5086,40 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0004350089538991025</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0002106530442182375</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00017351590889085</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002205357163746279</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000177164350079719</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.309147309599692E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002196002397216745</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.07493850739475E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.184732156500633E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.069904763697737E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -5128,40 +5128,40 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>5.203892677273643E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>6.623360650859233E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0002791890855179272</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0004236485872879321</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0003214099515304691</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0003095815557357275</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0002017267703665078</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0002681337176739787</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0001575270430659303</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>5.254049980296922E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>4.4109632811065E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>4.664428489769401E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -5170,52 +5170,52 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.599640293205929E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.73819679006193E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.601935726425868E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002217859104335876</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0004882481385794628</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0003552277053386285</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0002186666185363942</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002842716527747029</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>6.687933332972949E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>3.665324941737814E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.682981993983276E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.685195105243715E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.258192608376624E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.017652407619724E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -5224,412 +5224,412 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0002203765473369492</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.09757098118510675</v>
+        <v>0.4530535825008485</v>
       </c>
       <c r="AX6">
-        <v>0.05743817524645635</v>
+        <v>0.1836768991333216</v>
       </c>
       <c r="AY6">
-        <v>0.02014027618214688</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002512878949773873</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.02159663476459822</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0007451551394802353</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01333596731494986</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.02772145331674243</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.03121262707155865</v>
+        <v>0.007647562992495274</v>
       </c>
       <c r="BF6">
-        <v>0.009768839740200378</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001661456587136372</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>5.431233101691758E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.005791273188105308</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.006664207040579211</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001883905296699599</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002115051636349467</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.009763833989305266</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.003989906138260323</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.008861286371292479</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.02123963275475739</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001033665518890875</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0003387836882787436</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>4.4109632811065E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.007352882823273341</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.008711609304455543</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0005475855434321361</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.002042049213562873</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>9.100683199396636E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0006671264052108006</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.003885764655212088</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.007212269064097953</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.002548243361256918</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>9.322135773558335E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002732006673089074</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0001526213269522792</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.005497767187650093</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.03118215628054594</v>
+        <v>0.007443039026861374</v>
       </c>
       <c r="CH6">
-        <v>0.004360787347181876</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.000432425039647233</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.001672717370296054</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>4.4109632811065E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.006550909175599129</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.007001334785140085</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01394383657782475</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.01049959010784753</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.01232280574087211</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.01246088061849753</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.01680187160597077</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.001180994867495937</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01054863663765576</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0401585628628891</v>
+        <v>0.06769386318818224</v>
       </c>
       <c r="CV6">
-        <v>0.05468106963607772</v>
+        <v>0.1651708428622217</v>
       </c>
       <c r="CW6">
-        <v>0.03582236499974519</v>
+        <v>0.03858873157628719</v>
       </c>
       <c r="CX6">
-        <v>0.01742554343568665</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.007692510635006374</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.002781221699421115</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.001081590142678005</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.0002172665428076758</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.006593792543866482</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01907710624393744</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.0379198859528581</v>
+        <v>0.05266756868793044</v>
       </c>
       <c r="DF6">
-        <v>0.03365750561443476</v>
+        <v>0.02405791003185176</v>
       </c>
       <c r="DG6">
-        <v>0.01955458527421963</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.006749996845090395</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0003134431349976721</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.005845597169453301</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.00675586453594128</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.00694274723996618</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.003626853999963347</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001919056680434673</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.007118437963578622</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.002676898280245375</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.001040257744794182</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0001799946002316784</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0002539444147825525</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.005284837328136024</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.007264190565843831</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01080602209847729</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01277148289809179</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.005734875495967746</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001696588413239217</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>8.923458956826342E-05</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.006303823566273763</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.008238872247772247</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.00284389799327747</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003176877614190357</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.001289124402494531</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.00146339664614485</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001443148679645989</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.001329804578417406</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.001550605331800357</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0008895770605076958</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0001697612948328653</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0003059285611288934</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0005553265545639062</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0003550281874012282</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0002225658186591034</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0007854652850013384</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.005512096412863174</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.01039151362919483</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.00605827749363924</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.003083978660511724</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0002056369027041552</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.001199700589324108</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.00304508194005703</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.004757911087323788</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.001349252687905878</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.001678566907652409</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001190509304540899</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>9.048551578473733E-05</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0003706421584902064</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.0002074533253195856</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.00131975436254492</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.002075365690212672</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.002238238843140007</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.002578168644773766</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0005724444975417358</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>1.105650820435081E-05</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>6.577707019208309E-05</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001455592448816648</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.001375653084321769</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.001948663625876164</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001195454176037227</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.003683486784869855</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.002469133039777447</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.004295164670956341</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0007634833488586128</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0002954515576029525</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0009851973935188808</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0007912263717122441</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002151306471724454</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.003247867807359466</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0009685543499697899</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.002439332323333565</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0006181346367728196</v>
+        <v>0</v>
       </c>
       <c r="GB6">
         <v>0</v>
@@ -5638,52 +5638,52 @@
         <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0001638666044199484</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>2.235518803756002E-05</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>1.917846891440943E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>6.152966297630316E-05</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>5.354921226645376E-05</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.000325340975431159</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0003511274226679408</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>3.069904763697737E-05</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.001005872819651382</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0007780066961085095</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>6.985503810587538E-05</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0003119707662365915</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0002177348427892319</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001445477943496682</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001919056680434673</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0004435780038513256</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0008521049686940215</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001425900337577927</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.002025976795896506</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.002774574862227086</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.003387590782101104</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.003849541283097141</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004042941995660153</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004075293673658864</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.004075293673658864</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.004075293673658864</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.004075293673658864</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.004080376245126935</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004127965153948128</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.004382803929531764</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.00488886639898563</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.005546133920561843</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006346027194668451</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.007179407296907188</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.007791253390185139</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.008346713841532693</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.008794192211565287</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.00915263321954355</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.009262536185362316</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.009287222288559887</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.009287222288559887</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.009287222288559887</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.009287222288559887</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.009287222288559887</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.009291959695155715</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.009374304560400904</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.009526673834435239</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.009809794017249704</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01036637283491954</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01087798172393124</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01156961684571052</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01215927477090644</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01278864608631787</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01337272923588344</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01377453682965844</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01408755316346025</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.01430857600708834</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.01442416209635465</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.1121845813389414</v>
+        <v>0.5551863783436438</v>
       </c>
       <c r="AX2">
-        <v>0.1489908859025711</v>
+        <v>0.6094942880861883</v>
       </c>
       <c r="AY2">
-        <v>0.1630533300541387</v>
+        <v>0.6094942880861883</v>
       </c>
       <c r="AZ2">
-        <v>0.1633900906925251</v>
+        <v>0.6094942880861883</v>
       </c>
       <c r="BA2">
-        <v>0.1978486172881805</v>
+        <v>0.6445097933797779</v>
       </c>
       <c r="BB2">
-        <v>0.2075160455991527</v>
+        <v>0.6445097933797779</v>
       </c>
       <c r="BC2">
-        <v>0.2181698852036198</v>
+        <v>0.6445097933797779</v>
       </c>
       <c r="BD2">
-        <v>0.2256733706964766</v>
+        <v>0.6445097933797779</v>
       </c>
       <c r="BE2">
-        <v>0.2764840771924638</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BF2">
-        <v>0.2854159406158333</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BG2">
-        <v>0.2959194285216507</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BH2">
-        <v>0.2994507234035472</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BI2">
-        <v>0.3072390795651976</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BJ2">
-        <v>0.3078577969809962</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BK2">
-        <v>0.3078577969809962</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BL2">
-        <v>0.3122687914835713</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BM2">
-        <v>0.3143486509057777</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BN2">
-        <v>0.3181315628376275</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BO2">
-        <v>0.3251564501436278</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BP2">
-        <v>0.3424347763368279</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BQ2">
-        <v>0.351479483925112</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BR2">
-        <v>0.3533513331587909</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BS2">
-        <v>0.3533513331587909</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BT2">
-        <v>0.3564119133056856</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BU2">
-        <v>0.3618863732258729</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BV2">
-        <v>0.3629459171488544</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BW2">
-        <v>0.3637877707673133</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BX2">
-        <v>0.3637918478322486</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BY2">
-        <v>0.3641689446561679</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="BZ2">
-        <v>0.3659591785004435</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CA2">
-        <v>0.3701250589994561</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CB2">
-        <v>0.3718029842487185</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CC2">
-        <v>0.3730826174624554</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CD2">
-        <v>0.3781489745290828</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CE2">
-        <v>0.3791031272065277</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CF2">
-        <v>0.3832575751580551</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CG2">
-        <v>0.4043990165441295</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CH2">
-        <v>0.4081447453284557</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CI2">
-        <v>0.4087240696879428</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CJ2">
-        <v>0.4087434674330112</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CK2">
-        <v>0.4115311454317134</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CL2">
-        <v>0.4198692616273861</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CM2">
-        <v>0.4349691922762139</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CN2">
-        <v>0.4518803491639384</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CO2">
-        <v>0.4623968699763138</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CP2">
-        <v>0.4848816956700884</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CQ2">
-        <v>0.4979330074360094</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CR2">
-        <v>0.5146834963774459</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CS2">
-        <v>0.5175373692232542</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CT2">
-        <v>0.5248422709812223</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CU2">
-        <v>0.5506467026694561</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="CV2">
-        <v>0.590635865992265</v>
+        <v>0.8943585527568916</v>
       </c>
       <c r="CW2">
-        <v>0.6336891756236608</v>
+        <v>1</v>
       </c>
       <c r="CX2">
-        <v>0.6607630924487568</v>
+        <v>1</v>
       </c>
       <c r="CY2">
-        <v>0.6742920588791784</v>
+        <v>1</v>
       </c>
       <c r="CZ2">
-        <v>0.6799241499342764</v>
+        <v>1</v>
       </c>
       <c r="DA2">
-        <v>0.6816503598392937</v>
+        <v>1</v>
       </c>
       <c r="DB2">
-        <v>0.6816503598392937</v>
+        <v>1</v>
       </c>
       <c r="DC2">
-        <v>0.6837662636299581</v>
+        <v>1</v>
       </c>
       <c r="DD2">
-        <v>0.6954198941991048</v>
+        <v>1</v>
       </c>
       <c r="DE2">
-        <v>0.7233547106595287</v>
+        <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.7492947424372725</v>
+        <v>1</v>
       </c>
       <c r="DG2">
-        <v>0.7698338143536945</v>
+        <v>1</v>
       </c>
       <c r="DH2">
-        <v>0.7767169313775141</v>
+        <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.7768390341579561</v>
+        <v>1</v>
       </c>
       <c r="DJ2">
-        <v>0.7813822288438427</v>
+        <v>1</v>
       </c>
       <c r="DK2">
-        <v>0.7887743832348789</v>
+        <v>1</v>
       </c>
       <c r="DL2">
-        <v>0.7973065147430937</v>
+        <v>1</v>
       </c>
       <c r="DM2">
-        <v>0.8011031715578262</v>
+        <v>1</v>
       </c>
       <c r="DN2">
-        <v>0.8038011881189502</v>
+        <v>1</v>
       </c>
       <c r="DO2">
-        <v>0.808656666124588</v>
+        <v>1</v>
       </c>
       <c r="DP2">
-        <v>0.8112478077109493</v>
+        <v>1</v>
       </c>
       <c r="DQ2">
-        <v>0.8120134577261804</v>
+        <v>1</v>
       </c>
       <c r="DR2">
-        <v>0.8120134577261804</v>
+        <v>1</v>
       </c>
       <c r="DS2">
-        <v>0.8133018271908241</v>
+        <v>1</v>
       </c>
       <c r="DT2">
-        <v>0.8205404354148926</v>
+        <v>1</v>
       </c>
       <c r="DU2">
-        <v>0.8303584523131403</v>
+        <v>1</v>
       </c>
       <c r="DV2">
-        <v>0.8437751854488905</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0.8552749785284618</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0.8630564870967756</v>
+        <v>1</v>
       </c>
       <c r="DY2">
-        <v>0.8653177138941837</v>
+        <v>1</v>
       </c>
       <c r="DZ2">
-        <v>0.8653177138941837</v>
+        <v>1</v>
       </c>
       <c r="EA2">
-        <v>0.8684162929927073</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.8738706066945247</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.877886489315771</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.881207534050778</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.883293243109983</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.884378681983859</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.8850566213141432</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.8871511201510042</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.8910506528572836</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8940926019657796</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.8943925615227142</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.894535281405712</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.894535281405712</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.894535281405712</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.8945645007104539</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8954913528810248</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.9012738964384431</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.911402962214693</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.9185283487641009</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.9220843364123177</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.9225248109634852</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.9234819713200465</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.9245845255483318</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.9285681429307269</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.9297415515549831</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.9309149601792392</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.9320347582866138</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.9320347582866138</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.9320921257159733</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.9328305443252466</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.9346644956125744</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.9367892512759557</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9405517096390442</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9439310625435853</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9454547021301531</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9459113605694931</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.945934855409186</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9471038423812397</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9493097403623987</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9526307850974057</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9557811303080521</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9609660522486982</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9669105369027629</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9737631769448457</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9767998433361859</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9767998433361859</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9771456646520122</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9783926904992402</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9804806831647965</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9841093377597834</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9855757544291338</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9874860484690762</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.988847148487606</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.988847148487606</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9888694934860386</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9889310494490322</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9889310494490322</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9889310494490322</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9895428955423101</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.990403725088846</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.990403725088846</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9909338410378221</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9921559222103573</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9922388232699348</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9933603096371827</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9941427920509199</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9941427920509199</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9943114762377376</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9949326447048645</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9971385426860235</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001013956945954229</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002545905889819814</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0004525078974898099</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0007406709502071896</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0009028844775730333</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001055053758553092</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001187683520724567</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00131743818887757</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001361473191338405</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001387266972783563</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001387266972783563</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001396703010346991</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001396703010346991</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001396703010346991</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001427691929004108</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001543323991933259</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001708164653674418</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001970505747486482</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002062791686265998</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002218546917695303</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002351642465621475</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002448640600609993</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002506817147078865</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002556389216067744</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.00258399219910262</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.00258399219910262</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.00258399219910262</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.00258399219910262</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002584753321554343</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002584753321554343</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002584753321554343</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002584753321554343</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002648851307608684</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002666202355611966</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002685576657603257</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.002706064549070403</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.002719112207762425</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002719436333818887</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.002739924225286032</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.00276186870386107</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.00276186870386107</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.002780301950907287</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.002834121734398112</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.00290276909126691</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003036685617431476</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003126395249600225</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003319339221343597</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.06592215770971811</v>
+        <v>0.2790360708805688</v>
       </c>
       <c r="AX3">
-        <v>0.06906830634795855</v>
+        <v>0.2790360708805688</v>
       </c>
       <c r="AY3">
-        <v>0.1291120366699803</v>
+        <v>0.5361181933742321</v>
       </c>
       <c r="AZ3">
-        <v>0.1302067117292837</v>
+        <v>0.5361181933742321</v>
       </c>
       <c r="BA3">
-        <v>0.1711322881192353</v>
+        <v>0.6291891769801864</v>
       </c>
       <c r="BB3">
-        <v>0.1722190970628636</v>
+        <v>0.6291891769801864</v>
       </c>
       <c r="BC3">
-        <v>0.186260780404888</v>
+        <v>0.6291891769801864</v>
       </c>
       <c r="BD3">
-        <v>0.1929976719677622</v>
+        <v>0.6291891769801864</v>
       </c>
       <c r="BE3">
-        <v>0.2342344472896099</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BF3">
-        <v>0.2519311344158665</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BG3">
-        <v>0.2578869610273946</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BH3">
-        <v>0.2628729102316656</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BI3">
-        <v>0.266223125673863</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BJ3">
-        <v>0.2691672976958905</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BK3">
-        <v>0.2693844845953766</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BL3">
-        <v>0.2694503515621789</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BM3">
-        <v>0.2761776417232148</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BN3">
-        <v>0.2788062940019584</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BO3">
-        <v>0.2802747358979857</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BP3">
-        <v>0.2956891159601147</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BQ3">
-        <v>0.3041358300495431</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BR3">
-        <v>0.3041358300495431</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BS3">
-        <v>0.3041358300495431</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BT3">
-        <v>0.3067475568933459</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BU3">
-        <v>0.3187140620796809</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BV3">
-        <v>0.3210544555304298</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BW3">
-        <v>0.3223572000174539</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BX3">
-        <v>0.3223572000174539</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BY3">
-        <v>0.3223572000174539</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="BZ3">
-        <v>0.3237968859577286</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CA3">
-        <v>0.327718810129465</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CB3">
-        <v>0.3306308440980302</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CC3">
-        <v>0.3310234512854111</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CD3">
-        <v>0.3357645749745609</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CE3">
-        <v>0.3392657927135304</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CF3">
-        <v>0.3410189785276062</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CG3">
-        <v>0.3653876127432662</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CH3">
-        <v>0.3799368645294823</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CI3">
-        <v>0.3799986181147395</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CJ3">
-        <v>0.3808531048523292</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CK3">
-        <v>0.3808531048523292</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CL3">
-        <v>0.38678865151683</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CM3">
-        <v>0.3978749486209672</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CN3">
-        <v>0.4101306765271255</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CO3">
-        <v>0.4211285943102533</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CP3">
-        <v>0.4409328160234856</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CQ3">
-        <v>0.4553506629414846</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CR3">
-        <v>0.4786544058357318</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CS3">
-        <v>0.4893512099907877</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CT3">
-        <v>0.4907674867712561</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CU3">
-        <v>0.5147358576074429</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="CV3">
-        <v>0.5534340634509946</v>
+        <v>0.7988926590791641</v>
       </c>
       <c r="CW3">
-        <v>0.6031747701673454</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="CX3">
-        <v>0.6280338898031146</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="CY3">
-        <v>0.6435855981190864</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="CZ3">
-        <v>0.6488322264465708</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="DA3">
-        <v>0.6508640885453379</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="DB3">
-        <v>0.6508681829108592</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="DC3">
-        <v>0.654063931903885</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="DD3">
-        <v>0.6669412361238225</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="DE3">
-        <v>0.6955188706763406</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="DF3">
-        <v>0.7293737733674033</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG3">
-        <v>0.7508690930880627</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH3">
-        <v>0.7608812852726544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI3">
-        <v>0.7608954107738671</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ3">
-        <v>0.7662531314213502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK3">
-        <v>0.7764331645683311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL3">
-        <v>0.7854372286190471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM3">
-        <v>0.7921236020785316</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN3">
-        <v>0.7967638191631752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO3">
-        <v>0.8015394249815757</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP3">
-        <v>0.8092214109275565</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ3">
-        <v>0.8111767347588185</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR3">
-        <v>0.8116891404092383</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS3">
-        <v>0.8116891404092383</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT3">
-        <v>0.8161123061872632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU3">
-        <v>0.8260143374428052</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV3">
-        <v>0.8373987182704787</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW3">
-        <v>0.8515433511581044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX3">
-        <v>0.864189089118389</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY3">
-        <v>0.8678342045019657</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ3">
-        <v>0.8685422783578916</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA3">
-        <v>0.8708364236587804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB3">
-        <v>0.8777482871177841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC3">
-        <v>0.8826907704079905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED3">
-        <v>0.8852978538390817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE3">
-        <v>0.8872871456035788</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF3">
-        <v>0.8886172675676888</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG3">
-        <v>0.8892294336650508</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH3">
-        <v>0.8904826144109349</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI3">
-        <v>0.8928711306301818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ3">
-        <v>0.8964585458178363</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK3">
-        <v>0.8968770565674115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL3">
-        <v>0.8968770565674115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM3">
-        <v>0.8969375238842137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN3">
-        <v>0.8971197501492143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO3">
-        <v>0.8972831778753376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP3">
-        <v>0.8982814921398961</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ3">
-        <v>0.9016186907791749</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER3">
-        <v>0.9143799488027524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES3">
-        <v>0.9212360705447664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET3">
-        <v>0.925860976505136</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU3">
-        <v>0.9271485008502868</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV3">
-        <v>0.9280870973866949</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW3">
-        <v>0.9296045194123878</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX3">
-        <v>0.9351330089101455</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY3">
-        <v>0.9378186993298555</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ3">
-        <v>0.9393135733687411</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA3">
-        <v>0.9412087159029792</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.9413511309778309</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.9414715038357369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.9414737748276799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.942842189548867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.9447794194181915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.9484595822858265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.9528269243924831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.9557631705132666</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.9568926554190238</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.9569721743702879</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.957270976696298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.9592992743313086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.9610381253515472</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.9636237281086688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.9670892088233126</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.9728209679506741</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.9779200262347746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9823371558772084</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.9824710724033729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9826334440414995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9832334517002241</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9839323625450347</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9869897090498964</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.9878344941746021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.988745250126483</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9901849360667576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.9901849360667576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9901849360667576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9903917951597142</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9905007299549612</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9906887588608073</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9906887588608073</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9917064097443927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9917064097443927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9917327966588664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9929089849274212</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9932917943233891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.9945276732661212</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9964881909185102</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9969455874257799</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9969944236006233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9971004311600086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9975895372608419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>6.690950106633098E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6.690950106633098E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.000105132922068424</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001629719962946886</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001629719962946886</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001629719962946886</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002445100333154382</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002992412030480723</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002992412030480723</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002992412030480723</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0003312208829491069</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0004266784350593905</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0005542693489182445</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.000685096663026438</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0009043063760254876</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.00102922670068495</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.00105912776344147</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001151514489884958</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001195740971947602</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001195740971947602</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001195740971947602</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001198665308637575</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001198665308637575</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001198665308637575</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001198665308637575</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001198665308637575</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001198665308637575</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001198665308637575</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001200675506159706</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001239926140184994</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001263629356050437</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001325842135435573</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001356000012994236</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001432683836192516</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001446438412250477</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001477713224958618</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001477713224958618</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001506295873871347</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001506295873871347</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001506295873871347</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001506295873871347</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001506295873871347</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001506295873871347</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001518537449052927</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001518537449052927</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.001518537449052927</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0015977177224924</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001705864220438663</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.001861481155018415</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.001990685946652913</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.002157883573766327</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.002202110055828971</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.002223231452800893</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.002305301585545159</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.002340060666393709</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.002340060666393709</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.002402148600676112</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.002457724450783184</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.002457724450783184</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.002457724450783184</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.002457724450783184</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.002508095640446652</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.00257982882278403</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.002645500850886726</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.002840370658478601</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003084940632383317</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.003245744506277682</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.003431351394403419</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.003678432778595899</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.003831609026759055</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.004095116009949836</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.004297475790763873</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.00431070588365356</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.00431070588365356</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.00431070588365356</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.00431070588365356</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.00431070588365356</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.00431070588365356</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.004360774769933011</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.004548084794098828</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.004917909745892695</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.005254623094476639</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.005642882187145514</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.005871026090157844</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.006073839280866558</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.006286622740196391</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.006619196613773435</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.006795242184725605</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.007008025644055439</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.007044556233377046</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1363241832919769</v>
+        <v>0.5479589389387636</v>
       </c>
       <c r="CO4">
-        <v>0.1854551158669005</v>
+        <v>0.6531095810760633</v>
       </c>
       <c r="CP4">
-        <v>0.231394821508947</v>
+        <v>0.7406292215862303</v>
       </c>
       <c r="CQ4">
-        <v>0.232396636338984</v>
+        <v>0.7406292215862303</v>
       </c>
       <c r="CR4">
-        <v>0.268483523781907</v>
+        <v>0.773713669189582</v>
       </c>
       <c r="CS4">
-        <v>0.2686965156176171</v>
+        <v>0.773713669189582</v>
       </c>
       <c r="CT4">
-        <v>0.2989850767634978</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="CU4">
-        <v>0.3015986963484973</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="CV4">
-        <v>0.3177709113652676</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="CW4">
-        <v>0.33226324267206</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="CX4">
-        <v>0.332385153085551</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="CY4">
-        <v>0.3326508868967745</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="CZ4">
-        <v>0.3358328599364149</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DA4">
-        <v>0.3548364515202185</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DB4">
-        <v>0.3567396930930214</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DC4">
-        <v>0.357352924870079</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DD4">
-        <v>0.371696816369815</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DE4">
-        <v>0.3727049512673114</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DF4">
-        <v>0.374605905358631</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DG4">
-        <v>0.3954754424665183</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DH4">
-        <v>0.3954800019875039</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DI4">
-        <v>0.3963637004224646</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DJ4">
-        <v>0.3966461734012867</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DK4">
-        <v>0.4114569830149313</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DL4">
-        <v>0.4297284991976525</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DM4">
-        <v>0.4304128701729166</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DN4">
-        <v>0.4351003508124576</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DO4">
-        <v>0.4353878166315203</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DP4">
-        <v>0.4359847931733851</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DQ4">
-        <v>0.4436672520436102</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DR4">
-        <v>0.4526941743152277</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DS4">
-        <v>0.4555340496445563</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DT4">
-        <v>0.4555409291725762</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DU4">
-        <v>0.462138740489136</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DV4">
-        <v>0.4633028798567004</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DW4">
-        <v>0.4660921334005251</v>
+        <v>0.7747633218604301</v>
       </c>
       <c r="DX4">
-        <v>0.5015200840056151</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="DY4">
-        <v>0.5118710938943903</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="DZ4">
-        <v>0.5126602049750368</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EA4">
-        <v>0.5164515899697498</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EB4">
-        <v>0.5164515899697498</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EC4">
-        <v>0.5225311907952794</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="ED4">
-        <v>0.5259819739839346</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EE4">
-        <v>0.5336509768444863</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EF4">
-        <v>0.5418395812795931</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EG4">
-        <v>0.5498622662478607</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EH4">
-        <v>0.5565843347072035</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EI4">
-        <v>0.5708479314200708</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EJ4">
-        <v>0.5714825388044488</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EK4">
-        <v>0.5805190907275197</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="EL4">
-        <v>0.6150982725481292</v>
+        <v>0.8289618753948722</v>
       </c>
       <c r="EM4">
-        <v>0.655790578198759</v>
+        <v>0.8874904978004521</v>
       </c>
       <c r="EN4">
-        <v>0.6861578412379591</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="EO4">
-        <v>0.6962494112882313</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="EP4">
-        <v>0.7000232274652999</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="EQ4">
-        <v>0.7011926553599315</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="ER4">
-        <v>0.7011926553599315</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="ES4">
-        <v>0.7034986068279722</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="ET4">
-        <v>0.7130862682921383</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="EU4">
-        <v>0.7370772562660268</v>
+        <v>0.8889749654306744</v>
       </c>
       <c r="EV4">
-        <v>0.7779349788664952</v>
+        <v>0.9484174891579418</v>
       </c>
       <c r="EW4">
-        <v>0.8173700321630575</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8407035311103314</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8487635976204703</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8489392176232788</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8562956127402196</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8639293400117645</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8720182272022255</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8781727097878403</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8814559277037276</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.889952345639333</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8982078305188789</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9008075428831358</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9024965692398297</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9025723829606147</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9052300549630168</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9101503962576493</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9151449494235702</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9245190301181661</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9279530481147659</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.928293924934673</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9283684407057531</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9327798485454829</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9397701449168603</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9409395728114919</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9420338330987055</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9422962299159169</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9423418253165389</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9423442697540114</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9423970896773917</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9424518208471243</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9426274408499329</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.943363995479724</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9443196322002646</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9455098589773607</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9464792469526281</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.94691779246471</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9481034458852875</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9541215895342674</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9654085621863385</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9702186218329687</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9722617997817932</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9722617997817932</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9751874292105556</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9800748935437824</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9879852129998425</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9923500596524808</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9954519251568421</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9989592587271751</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>7.300636903764364E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.300636903764364E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001832205487804319</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.000224643155214485</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0003820331365322063</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007038131176862871</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001005852843110948</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001077575582843507</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001254667658589565</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.00137077332677546</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001423529311537303</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001480531628061423</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001577179349811543</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001577179349811543</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001577179349811543</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001577179349811543</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0016275507602659</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001687988939221414</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001798296900788305</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002060883925015637</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002355571601198031</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002602752091942078</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002877365498102572</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002995386269246327</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003124572840306694</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.00326451194276579</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003322371759086141</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.00340200982733819</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00340200982733819</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003420630121669422</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003420630121669422</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003420630121669422</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003439479045465702</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003439479045465702</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003553007375076605</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.004045703641338581</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.004365850276639138</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.004764255309102316</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.005226400286288916</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.005439176150329766</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.005470843258379538</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.005580298468978246</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.005746351607791245</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.005881455951505777</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.006215194154352806</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.006558140585780901</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.006707937552482167</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.006772756867669739</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.006792594986404237</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.006792594986404237</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.006852434511831479</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.006868708852979404</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.00700308761994328</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.007559358184176096</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.007897422177822836</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.008188198355783572</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.008599987483210513</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.00878951287429028</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.009047285339861913</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.009491343808057594</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.009555011812553995</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.009555011812553995</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.009571286153701919</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.009571286153701919</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.009571286153701919</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.009571286153701919</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.009585367933832405</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.009585367933832405</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.009672841753096803</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00976877064484563</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.009909167190967244</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.009982173560004887</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0101236954277769</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01020525891990696</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.01060366395237014</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01097319441357165</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.01133447876076268</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01158953995675263</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.01166688837103525</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.01166888453739148</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.01168088631878898</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.01168088631878898</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01168088631878898</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01168088631878898</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.01175204915864288</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.01200140431143894</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.01218583131855872</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0125077626297026</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01301881601787561</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01460778199002678</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1315478429328744</v>
+        <v>0.5192911248664358</v>
       </c>
       <c r="CO5">
-        <v>0.1887664817016463</v>
+        <v>0.6814660701907747</v>
       </c>
       <c r="CP5">
-        <v>0.241688493298012</v>
+        <v>0.8179484746333175</v>
       </c>
       <c r="CQ5">
-        <v>0.2436051286063017</v>
+        <v>0.8179484746333175</v>
       </c>
       <c r="CR5">
-        <v>0.2809783386581187</v>
+        <v>0.8614537127273694</v>
       </c>
       <c r="CS5">
-        <v>0.2810420066626151</v>
+        <v>0.8614537127273694</v>
       </c>
       <c r="CT5">
-        <v>0.3186871307933598</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="CU5">
-        <v>0.3253006280159101</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="CV5">
-        <v>0.345407895440182</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="CW5">
-        <v>0.3676304444862548</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="CX5">
-        <v>0.368421216396238</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="CY5">
-        <v>0.368421216396238</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="CZ5">
-        <v>0.3691885000806236</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DA5">
-        <v>0.3798170464813749</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DB5">
-        <v>0.3845144231113691</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DC5">
-        <v>0.3845563725766816</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DD5">
-        <v>0.3917918025243483</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DE5">
-        <v>0.3921215471234435</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DF5">
-        <v>0.3927618046473167</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DG5">
-        <v>0.4095060685094281</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DH5">
-        <v>0.4095060685094281</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DI5">
-        <v>0.4097277088792655</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DJ5">
-        <v>0.409770364227246</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DK5">
-        <v>0.42052364115684</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DL5">
-        <v>0.4326872818655595</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DM5">
-        <v>0.4326872818655595</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DN5">
-        <v>0.4344345573999626</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DO5">
-        <v>0.4346037580780698</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DP5">
-        <v>0.4346037580780698</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DQ5">
-        <v>0.4386706118248789</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DR5">
-        <v>0.4430536632251527</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DS5">
-        <v>0.4434403950860835</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DT5">
-        <v>0.444961047710986</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DU5">
-        <v>0.4565862225220209</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DV5">
-        <v>0.4599209615967667</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DW5">
-        <v>0.4647932412785131</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="DX5">
-        <v>0.5038704031207109</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="DY5">
-        <v>0.5147600527377204</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="DZ5">
-        <v>0.5152792836881113</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EA5">
-        <v>0.5180100685184233</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EB5">
-        <v>0.5183265543394082</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EC5">
-        <v>0.530051046923353</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="ED5">
-        <v>0.5381242238517245</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EE5">
-        <v>0.551633128232103</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EF5">
-        <v>0.5682366761868964</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EG5">
-        <v>0.5855095448496328</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EH5">
-        <v>0.6002513137640547</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EI5">
-        <v>0.6249473305603704</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EJ5">
-        <v>0.6287875055763599</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EK5">
-        <v>0.6347210623861967</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EL5">
-        <v>0.6616479842254971</v>
+        <v>0.9602792737685812</v>
       </c>
       <c r="EM5">
-        <v>0.698388300996027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.7259893124509298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.7358579128345162</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.7399337566248511</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.7423337215276296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.7427322939336919</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.7432446871339221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.7489801199260344</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.7645039018483381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.794198558139995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.8201339738778284</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8343761480099043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8382575577122665</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8397592102058686</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8511616790371596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8617765723062765</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8727933218462501</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8805547286754263</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8838360065885406</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.891903963821981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8994835118212897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.9009103410572946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.9013148128732067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.9014848159225376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.9079127555504397</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9190634762563297</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9297801490586894</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9461343433817174</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9537439811803973</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9557845464434311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9560244092612273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.957907202192007</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9622338803850352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9626841482420785</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9632388290030947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9633483777344826</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9634006339678411</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9635358405669757</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9643293626106281</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9651476331465553</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9660815103371908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9660815103371908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9660815103371908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9660815103371908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9660815103371908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9661478484330063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9661478484330063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9688034995749321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9751519650052931</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9776757369755953</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9783601998940394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9786756197185852</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9817069909070435</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9869919366179374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9940982819738691</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9971736899584429</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9987653129651459</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0004350089538991025</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0006456619981173399</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0008191779070081898</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001039713623382818</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.001216877973462537</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001299969446558533</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001519569686280208</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001540319071354156</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001540319071354156</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001552166392919162</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001552166392919162</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.001582865440556139</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.001582865440556139</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001582865440556139</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001634904367328876</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001701137973837468</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001980327059355395</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002403975646643327</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002725385598173796</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.003034967153909524</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.003236693924276032</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.00350482764195001</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.003662354685015941</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.00371489518481891</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.003759004817629975</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.003805649102527669</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.003805649102527669</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.003805649102527669</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.003831645505459728</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003831645505459728</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.003859027473360348</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.003915046830624607</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.004136832741058194</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004625080879637657</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.004980308584976285</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.00519897520351268</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.005483246856287383</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.005550126189617113</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.00555379151455885</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.005570621334498683</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.00559747328555112</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00559747328555112</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.005630055211634886</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.005640231735711083</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.005640231735711083</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.005640231735711083</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.005860608283048033</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.1034315894681548</v>
+        <v>0.4530535825008485</v>
       </c>
       <c r="AX6">
-        <v>0.1608697647146111</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="AY6">
-        <v>0.181010040896758</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="AZ6">
-        <v>0.1835229198465319</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="BA6">
-        <v>0.2051195546111301</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="BB6">
-        <v>0.2058647097506103</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="BC6">
-        <v>0.2192006770655602</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="BD6">
-        <v>0.2469221303823026</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="BE6">
-        <v>0.2781347574538613</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BF6">
-        <v>0.2879035971940617</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BG6">
-        <v>0.289565053781198</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BH6">
-        <v>0.2896193661122149</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BI6">
-        <v>0.2954106393003202</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BJ6">
-        <v>0.3020748463408994</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BK6">
-        <v>0.303958751637599</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BL6">
-        <v>0.3060738032739485</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BM6">
-        <v>0.3158376372632537</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BN6">
-        <v>0.319827543401514</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BO6">
-        <v>0.3286888297728065</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BP6">
-        <v>0.3499284625275639</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BQ6">
-        <v>0.3509621280464548</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BR6">
-        <v>0.3513009117347335</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BS6">
-        <v>0.3513450213675445</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BT6">
-        <v>0.3586979041908179</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BU6">
-        <v>0.3674095134952734</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BV6">
-        <v>0.3679570990387055</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BW6">
-        <v>0.3699991482522684</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BX6">
-        <v>0.3700901550842624</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BY6">
-        <v>0.3707572814894732</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="BZ6">
-        <v>0.3746430461446853</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="CA6">
-        <v>0.3818553152087832</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="CB6">
-        <v>0.3844035585700402</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="CC6">
-        <v>0.3844967799277758</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="CD6">
-        <v>0.3872287866008648</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="CE6">
-        <v>0.3873814079278171</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="CF6">
-        <v>0.3928791751154672</v>
+        <v>0.6443780446266654</v>
       </c>
       <c r="CG6">
-        <v>0.4240613313960132</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CH6">
-        <v>0.428422118743195</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CI6">
-        <v>0.4288545437828423</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CJ6">
-        <v>0.4305272611531383</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CK6">
-        <v>0.4305713707859494</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CL6">
-        <v>0.4371222799615485</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CM6">
-        <v>0.4441236147466886</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CN6">
-        <v>0.4580674513245133</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CO6">
-        <v>0.4685670414323608</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CP6">
-        <v>0.480889847173233</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CQ6">
-        <v>0.4933507277917305</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CR6">
-        <v>0.5101525993977013</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CS6">
-        <v>0.5113335942651972</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CT6">
-        <v>0.5218822309028529</v>
+        <v>0.6518210836535268</v>
       </c>
       <c r="CU6">
-        <v>0.562040793765742</v>
+        <v>0.719514946841709</v>
       </c>
       <c r="CV6">
-        <v>0.6167218634018198</v>
+        <v>0.8846857897039307</v>
       </c>
       <c r="CW6">
-        <v>0.652544228401565</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="CX6">
-        <v>0.6699697718372517</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="CY6">
-        <v>0.6776622824722581</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="CZ6">
-        <v>0.6804435041716792</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="DA6">
-        <v>0.6815250943143573</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="DB6">
-        <v>0.6817423608571649</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="DC6">
-        <v>0.6883361534010314</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="DD6">
-        <v>0.7074132596449688</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="DE6">
-        <v>0.7453331455978269</v>
+        <v>0.9759420899681484</v>
       </c>
       <c r="DF6">
-        <v>0.7789906512122617</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.7985452364864813</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.8052952333315717</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.8056086764665694</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.8114542736360227</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.818210138171964</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.8251528854119301</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.8287797394118934</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.8306987960923281</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.8378172340559067</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.8404941323361521</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.8415343900809463</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.841714384681178</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.8419683290959605</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.8472531664240965</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.8545173569899404</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.8653233790884176</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.8780948619865094</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.8838297374824772</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.8855263258957163</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.8856155604852846</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8919193840515584</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.9001582562993306</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.903002154292608</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.9061790319067984</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.9074681563092929</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.9089315529554377</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.9103747016350837</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.9117045062135011</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.9132551115453015</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.9141446886058092</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.914314449900642</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.9146203784617709</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.9151757050163348</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.915530733203736</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.9157532990223951</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.9165387643073964</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.9220508607202597</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.9324423743494545</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.9385006518430937</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.9415846305036054</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.9417902674063096</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.9429899679956336</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.9460350499356907</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.9507929610230145</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.9521422137109203</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.9538207806185728</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.9550112899231137</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.9551017754388984</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9554724175973887</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9556798709227082</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9569996252852532</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9590749909754659</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9613132298186059</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9638913984633797</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9644638429609215</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9644748994691258</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9645406765393179</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9659962689881345</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9673719220724563</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9693205856983325</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9705160398743697</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9741995266592396</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9766686596990171</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9809638243699734</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.981727307718832</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9820227592764349</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9830079566699538</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.983799183041666</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9859504895133905</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9891983573207499</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9901669116707197</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9926062439940533</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9932243786308261</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9932243786308261</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9932243786308261</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.993388245235246</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9934106004232837</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9934297788921981</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9934913085551744</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9935448577674408</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.993870198742872</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.993870198742872</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9942213261655399</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9942520252131769</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9952578980328283</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9960359047289368</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9961057597670426</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9964177305332792</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9966354653760684</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9980809433195651</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5146834963774459</v>
+        <v>0.5551863783436438</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>0.06592215770971811</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5147358576074429</v>
+        <v>0.5361181933742321</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>0.007008025644055439</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5015200840056151</v>
+        <v>0.5479589389387636</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>0.01301881601787561</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5038704031207109</v>
+        <v>0.5192911248664358</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -10734,16 +10734,16 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>0.005640231735711083</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5101525993977013</v>
+        <v>0.6367304816341701</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -10829,16 +10829,16 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7233547106595287</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>0.06592215770971811</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7293737733674033</v>
+        <v>0.7249298791908907</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.007008025644055439</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7000232274652999</v>
+        <v>0.7406292215862303</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01301881601787561</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7259893124509298</v>
+        <v>0.8179484746333175</v>
       </c>
       <c r="G5">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -10993,16 +10993,16 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.005640231735711083</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7074132596449688</v>
+        <v>0.719514946841709</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -11088,16 +11088,16 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8011031715578262</v>
+        <v>0.8138961261377102</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.06592215770971811</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8015394249815757</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E4">
-        <v>0.007008025644055439</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8173700321630575</v>
+        <v>0.8042072522882956</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01301881601787561</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8201339738778284</v>
+        <v>0.8179484746333175</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -11252,16 +11252,16 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.005640231735711083</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8052952333315717</v>
+        <v>0.8846857897039307</v>
       </c>
       <c r="G6">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -11347,16 +11347,16 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.01441786628819785</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9012738964384431</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.06592215770971811</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9016186907791749</v>
+        <v>0.9675870302471928</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E4">
-        <v>0.007008025644055439</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9008075428831358</v>
+        <v>0.9484174891579418</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>0.01301881601787561</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9009103410572946</v>
+        <v>0.9065849153998815</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -11511,16 +11511,16 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.005640231735711083</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9001582562993306</v>
+        <v>0.9232745212802179</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>15</v>

--- a/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/15_225-80R17.xlsx
@@ -926,43 +926,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4657896551050681</v>
+        <v>0.340934883460817</v>
       </c>
       <c r="E2">
-        <v>0.139608089018917</v>
+        <v>0.1203657463606244</v>
       </c>
       <c r="F2">
-        <v>0.01789968512978037</v>
+        <v>0.03806459750729453</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1270445090465082</v>
+        <v>0.1118700547534797</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02216075153056879</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02573018878641309</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01433028753909259</v>
       </c>
       <c r="L2">
-        <v>0.2145493424265932</v>
+        <v>0.1710422079267332</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01949902945660788</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.025186124704646</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01536112324119272</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -971,22 +971,22 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.003139770331039009</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0008669847876477179</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.01259842760398176</v>
       </c>
       <c r="W2">
-        <v>0.03510871927313321</v>
+        <v>0.04970161874326635</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.01990736842130438</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.006988036370732527</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002252798474558278</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1162,43 +1162,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.284728672599002</v>
+        <v>0.2325903610789549</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2709247238268212</v>
+        <v>0.2225599552995425</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1677997041550365</v>
+        <v>0.1476259048775004</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02278559822867894</v>
+        <v>0.04225385879229457</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01362255697067111</v>
       </c>
       <c r="L3">
-        <v>0.1694783388227799</v>
+        <v>0.1488456563522948</v>
       </c>
       <c r="M3">
-        <v>0.04250101314209852</v>
+        <v>0.05657973140706484</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.01056115466922405</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.006759697541258698</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0003484008941151492</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.01358492405213522</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.03019004620870678</v>
+        <v>0.04763417561597807</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0203242462589152</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01159190301687593</v>
+        <v>0.03412014959078531</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.002589226599265112</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1527,34 +1527,34 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.4684675315117895</v>
+        <v>0.3437903632129047</v>
       </c>
       <c r="AV4">
-        <v>0.144299257815838</v>
+        <v>0.123019847759346</v>
       </c>
       <c r="AW4">
-        <v>0.1313920665949818</v>
+        <v>0.1142295758848111</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0915414977588242</v>
+        <v>0.08708987302996657</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.06808966940220806</v>
+        <v>0.0711183154941583</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.01099489593087908</v>
+        <v>0.0322346751389273</v>
       </c>
       <c r="BD4">
-        <v>0.004200462087862041</v>
+        <v>0.0276074158311738</v>
       </c>
       <c r="BE4">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.02244664146249546</v>
+        <v>0.04003373497606987</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.003600084548200406</v>
+        <v>0.02719853664819072</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.02999361828163866</v>
+        <v>0.04517350372481868</v>
       </c>
       <c r="BO4">
         <v>0</v>
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.005488574933704085</v>
+        <v>0.0284846680486614</v>
       </c>
       <c r="BS4">
-        <v>0.01948569967157891</v>
+        <v>0.03801722472984587</v>
       </c>
       <c r="BT4">
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>0</v>
+        <v>0.0005998401033483893</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>0</v>
+        <v>0.008849542634622471</v>
       </c>
       <c r="BY4">
-        <v>0</v>
+        <v>0.01255288278315481</v>
       </c>
       <c r="BZ4">
         <v>0</v>
@@ -1763,34 +1763,34 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.4029712915162664</v>
+        <v>0.3186699027614827</v>
       </c>
       <c r="AV5">
-        <v>0.1717406187999111</v>
+        <v>0.1497527167447138</v>
       </c>
       <c r="AW5">
-        <v>0.1551048463196282</v>
+        <v>0.1376000561933534</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.09490266575870034</v>
+        <v>0.0936215354678628</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0959554684734147</v>
+        <v>0.09439062232779903</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.006620189139256993</v>
       </c>
       <c r="BC5">
-        <v>0.0280520218270774</v>
+        <v>0.04478622082865569</v>
       </c>
       <c r="BD5">
-        <v>0.03624201420481937</v>
+        <v>0.05076912287921529</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.01797642923219721</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.001200597863953094</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.008379275276090486</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01503107310018261</v>
+        <v>0.03527423873571891</v>
       </c>
       <c r="BO5">
         <v>0</v>
@@ -1832,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.01832921938982411</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.02231831864696256</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>0.0003115545129141699</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -1870,34 +1870,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4323511836818331</v>
+        <v>0.3186997858328221</v>
       </c>
       <c r="E6">
-        <v>0.2310938152694184</v>
+        <v>0.1823366861060387</v>
       </c>
       <c r="F6">
-        <v>0.04405289357384407</v>
+        <v>0.05560602248185032</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.05135621784718414</v>
+        <v>0.06055443229202787</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.009930751738789963</v>
+        <v>0.03248636695495281</v>
       </c>
       <c r="K6">
-        <v>0.08207086226283775</v>
+        <v>0.08136531813716995</v>
       </c>
       <c r="L6">
-        <v>0.0995783458820713</v>
+        <v>0.09322761542132398</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0203659940620805</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.006851033128564032</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.009817084546990897</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1918,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.02034898554018544</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.000730354822689919</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01728231257863405</v>
       </c>
       <c r="W6">
-        <v>0.04956592974402127</v>
+        <v>0.05934141218212061</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01215706457675749</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01677374039399542</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.0003765032763935977</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.01167928766540216</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2355,229 +2355,229 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4657896551050681</v>
+        <v>0.340934883460817</v>
       </c>
       <c r="E2">
-        <v>0.6053977441239851</v>
+        <v>0.4613006298214415</v>
       </c>
       <c r="F2">
-        <v>0.6232974292537654</v>
+        <v>0.499365227328736</v>
       </c>
       <c r="G2">
-        <v>0.6232974292537654</v>
+        <v>0.499365227328736</v>
       </c>
       <c r="H2">
-        <v>0.7503419383002736</v>
+        <v>0.6112352820822157</v>
       </c>
       <c r="I2">
-        <v>0.7503419383002736</v>
+        <v>0.6333960336127844</v>
       </c>
       <c r="J2">
-        <v>0.7503419383002736</v>
+        <v>0.6591262223991975</v>
       </c>
       <c r="K2">
-        <v>0.7503419383002736</v>
+        <v>0.6734565099382901</v>
       </c>
       <c r="L2">
-        <v>0.9648912807268668</v>
+        <v>0.8444987178650233</v>
       </c>
       <c r="M2">
-        <v>0.9648912807268668</v>
+        <v>0.8639977473216311</v>
       </c>
       <c r="N2">
-        <v>0.9648912807268668</v>
+        <v>0.8891838720262771</v>
       </c>
       <c r="O2">
-        <v>0.9648912807268668</v>
+        <v>0.8891838720262771</v>
       </c>
       <c r="P2">
-        <v>0.9648912807268668</v>
+        <v>0.9045449952674699</v>
       </c>
       <c r="Q2">
-        <v>0.9648912807268668</v>
+        <v>0.9045449952674699</v>
       </c>
       <c r="R2">
-        <v>0.9648912807268668</v>
+        <v>0.9045449952674699</v>
       </c>
       <c r="S2">
-        <v>0.9648912807268668</v>
+        <v>0.9076847655985089</v>
       </c>
       <c r="T2">
-        <v>0.9648912807268668</v>
+        <v>0.9076847655985089</v>
       </c>
       <c r="U2">
-        <v>0.9648912807268668</v>
+        <v>0.9085517503861565</v>
       </c>
       <c r="V2">
-        <v>0.9648912807268668</v>
+        <v>0.9211501779901383</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9708517967334047</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9907591651547091</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9907591651547091</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9907591651547091</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9907591651547091</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9977472015254416</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9977472015254416</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9977472015254416</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9977472015254416</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9977472015254416</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9977472015254416</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:78">
@@ -2591,229 +2591,229 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.284728672599002</v>
+        <v>0.2325903610789549</v>
       </c>
       <c r="E3">
-        <v>0.284728672599002</v>
+        <v>0.2325903610789549</v>
       </c>
       <c r="F3">
-        <v>0.5556533964258232</v>
+        <v>0.4551503163784975</v>
       </c>
       <c r="G3">
-        <v>0.5556533964258232</v>
+        <v>0.4551503163784975</v>
       </c>
       <c r="H3">
-        <v>0.7234531005808598</v>
+        <v>0.6027762212559978</v>
       </c>
       <c r="I3">
-        <v>0.7234531005808598</v>
+        <v>0.6027762212559978</v>
       </c>
       <c r="J3">
-        <v>0.7462386988095387</v>
+        <v>0.6450300800482924</v>
       </c>
       <c r="K3">
-        <v>0.7462386988095387</v>
+        <v>0.6586526370189635</v>
       </c>
       <c r="L3">
-        <v>0.9157170376323186</v>
+        <v>0.8074982933712582</v>
       </c>
       <c r="M3">
-        <v>0.9582180507744171</v>
+        <v>0.8640780247783231</v>
       </c>
       <c r="N3">
-        <v>0.9582180507744171</v>
+        <v>0.8746391794475471</v>
       </c>
       <c r="O3">
-        <v>0.9582180507744171</v>
+        <v>0.8813988769888058</v>
       </c>
       <c r="P3">
-        <v>0.9582180507744171</v>
+        <v>0.881747277882921</v>
       </c>
       <c r="Q3">
-        <v>0.9582180507744171</v>
+        <v>0.881747277882921</v>
       </c>
       <c r="R3">
-        <v>0.9582180507744171</v>
+        <v>0.881747277882921</v>
       </c>
       <c r="S3">
-        <v>0.9582180507744171</v>
+        <v>0.881747277882921</v>
       </c>
       <c r="T3">
-        <v>0.9582180507744171</v>
+        <v>0.8953322019350561</v>
       </c>
       <c r="U3">
-        <v>0.9582180507744171</v>
+        <v>0.8953322019350561</v>
       </c>
       <c r="V3">
-        <v>0.9582180507744171</v>
+        <v>0.8953322019350561</v>
       </c>
       <c r="W3">
-        <v>0.9884080969831239</v>
+        <v>0.9429663775510342</v>
       </c>
       <c r="X3">
-        <v>0.9884080969831239</v>
+        <v>0.9632906238099493</v>
       </c>
       <c r="Y3">
-        <v>0.9884080969831239</v>
+        <v>0.9632906238099493</v>
       </c>
       <c r="Z3">
-        <v>0.9884080969831239</v>
+        <v>0.9632906238099493</v>
       </c>
       <c r="AA3">
-        <v>0.9884080969831239</v>
+        <v>0.9632906238099493</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>0.9974107734007347</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>0.9974107734007347</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>0.9974107734007347</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9974107734007347</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9974107734007347</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9974107734007347</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:78">
@@ -2956,94 +2956,94 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.4684675315117895</v>
+        <v>0.3437903632129047</v>
       </c>
       <c r="AV4">
-        <v>0.6127667893276275</v>
+        <v>0.4668102109722508</v>
       </c>
       <c r="AW4">
-        <v>0.7441588559226093</v>
+        <v>0.5810397868570619</v>
       </c>
       <c r="AX4">
-        <v>0.7441588559226093</v>
+        <v>0.5810397868570619</v>
       </c>
       <c r="AY4">
-        <v>0.8357003536814336</v>
+        <v>0.6681296598870285</v>
       </c>
       <c r="AZ4">
-        <v>0.8357003536814336</v>
+        <v>0.6681296598870285</v>
       </c>
       <c r="BA4">
-        <v>0.9037900230836416</v>
+        <v>0.7392479753811868</v>
       </c>
       <c r="BB4">
-        <v>0.9037900230836416</v>
+        <v>0.7392479753811868</v>
       </c>
       <c r="BC4">
-        <v>0.9147849190145207</v>
+        <v>0.7714826505201141</v>
       </c>
       <c r="BD4">
-        <v>0.9189853811023828</v>
+        <v>0.7990900663512879</v>
       </c>
       <c r="BE4">
-        <v>0.9189853811023828</v>
+        <v>0.7990900663512879</v>
       </c>
       <c r="BF4">
-        <v>0.9189853811023828</v>
+        <v>0.7990900663512879</v>
       </c>
       <c r="BG4">
-        <v>0.9189853811023828</v>
+        <v>0.7990900663512879</v>
       </c>
       <c r="BH4">
-        <v>0.9414320225648782</v>
+        <v>0.8391238013273578</v>
       </c>
       <c r="BI4">
-        <v>0.9414320225648782</v>
+        <v>0.8391238013273578</v>
       </c>
       <c r="BJ4">
-        <v>0.9414320225648782</v>
+        <v>0.8391238013273578</v>
       </c>
       <c r="BK4">
-        <v>0.9450321071130786</v>
+        <v>0.8663223379755485</v>
       </c>
       <c r="BL4">
-        <v>0.9450321071130786</v>
+        <v>0.8663223379755485</v>
       </c>
       <c r="BM4">
-        <v>0.9450321071130786</v>
+        <v>0.8663223379755485</v>
       </c>
       <c r="BN4">
-        <v>0.9750257253947173</v>
+        <v>0.9114958417003671</v>
       </c>
       <c r="BO4">
-        <v>0.9750257253947173</v>
+        <v>0.9114958417003671</v>
       </c>
       <c r="BP4">
-        <v>0.9750257253947173</v>
+        <v>0.9114958417003671</v>
       </c>
       <c r="BQ4">
-        <v>0.9750257253947173</v>
+        <v>0.9114958417003671</v>
       </c>
       <c r="BR4">
-        <v>0.9805143003284215</v>
+        <v>0.9399805097490285</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0.9779977344788744</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.9779977344788744</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0.9785975745822227</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0.9785975745822227</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0.9785975745822227</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0.9874471172168452</v>
       </c>
       <c r="BY4">
         <v>1</v>
@@ -3192,94 +3192,94 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.4029712915162664</v>
+        <v>0.3186699027614827</v>
       </c>
       <c r="AV5">
-        <v>0.5747119103161775</v>
+        <v>0.4684226195061965</v>
       </c>
       <c r="AW5">
-        <v>0.7298167566358057</v>
+        <v>0.6060226756995499</v>
       </c>
       <c r="AX5">
-        <v>0.7298167566358057</v>
+        <v>0.6060226756995499</v>
       </c>
       <c r="AY5">
-        <v>0.824719422394506</v>
+        <v>0.6996442111674127</v>
       </c>
       <c r="AZ5">
-        <v>0.824719422394506</v>
+        <v>0.6996442111674127</v>
       </c>
       <c r="BA5">
-        <v>0.9206748908679208</v>
+        <v>0.7940348334952118</v>
       </c>
       <c r="BB5">
-        <v>0.9206748908679208</v>
+        <v>0.8006550226344687</v>
       </c>
       <c r="BC5">
-        <v>0.9487269126949982</v>
+        <v>0.8454412434631244</v>
       </c>
       <c r="BD5">
-        <v>0.9849689268998175</v>
+        <v>0.8962103663423397</v>
       </c>
       <c r="BE5">
-        <v>0.9849689268998175</v>
+        <v>0.8962103663423397</v>
       </c>
       <c r="BF5">
-        <v>0.9849689268998175</v>
+        <v>0.8962103663423397</v>
       </c>
       <c r="BG5">
-        <v>0.9849689268998175</v>
+        <v>0.8962103663423397</v>
       </c>
       <c r="BH5">
-        <v>0.9849689268998175</v>
+        <v>0.914186795574537</v>
       </c>
       <c r="BI5">
-        <v>0.9849689268998175</v>
+        <v>0.9153873934384901</v>
       </c>
       <c r="BJ5">
-        <v>0.9849689268998175</v>
+        <v>0.9153873934384901</v>
       </c>
       <c r="BK5">
-        <v>0.9849689268998175</v>
+        <v>0.9237666687145806</v>
       </c>
       <c r="BL5">
-        <v>0.9849689268998175</v>
+        <v>0.9237666687145806</v>
       </c>
       <c r="BM5">
-        <v>0.9849689268998175</v>
+        <v>0.9237666687145806</v>
       </c>
       <c r="BN5">
-        <v>1</v>
+        <v>0.9590409074502995</v>
       </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0.9590409074502995</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0.9590409074502995</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0.9590409074502995</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0.9773701268401236</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0.9996884454870861</v>
       </c>
       <c r="BT5">
-        <v>1</v>
+        <v>0.9996884454870861</v>
       </c>
       <c r="BU5">
-        <v>1</v>
+        <v>0.9996884454870861</v>
       </c>
       <c r="BV5">
-        <v>1</v>
+        <v>0.9996884454870861</v>
       </c>
       <c r="BW5">
-        <v>1</v>
+        <v>0.9996884454870861</v>
       </c>
       <c r="BX5">
-        <v>1</v>
+        <v>0.9996884454870861</v>
       </c>
       <c r="BY5">
         <v>1</v>
@@ -3299,229 +3299,229 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4323511836818331</v>
+        <v>0.3186997858328221</v>
       </c>
       <c r="E6">
-        <v>0.6634449989512514</v>
+        <v>0.5010364719388608</v>
       </c>
       <c r="F6">
-        <v>0.7074978925250955</v>
+        <v>0.5566424944207111</v>
       </c>
       <c r="G6">
-        <v>0.7074978925250955</v>
+        <v>0.5566424944207111</v>
       </c>
       <c r="H6">
-        <v>0.7588541103722797</v>
+        <v>0.617196926712739</v>
       </c>
       <c r="I6">
-        <v>0.7588541103722797</v>
+        <v>0.617196926712739</v>
       </c>
       <c r="J6">
-        <v>0.7687848621110697</v>
+        <v>0.6496832936676917</v>
       </c>
       <c r="K6">
-        <v>0.8508557243739074</v>
+        <v>0.7310486118048617</v>
       </c>
       <c r="L6">
-        <v>0.9504340702559787</v>
+        <v>0.8242762272261857</v>
       </c>
       <c r="M6">
-        <v>0.9504340702559787</v>
+        <v>0.8446422212882662</v>
       </c>
       <c r="N6">
-        <v>0.9504340702559787</v>
+        <v>0.8446422212882662</v>
       </c>
       <c r="O6">
-        <v>0.9504340702559787</v>
+        <v>0.8446422212882662</v>
       </c>
       <c r="P6">
-        <v>0.9504340702559787</v>
+        <v>0.8514932544168302</v>
       </c>
       <c r="Q6">
-        <v>0.9504340702559787</v>
+        <v>0.8613103389638211</v>
       </c>
       <c r="R6">
-        <v>0.9504340702559787</v>
+        <v>0.8613103389638211</v>
       </c>
       <c r="S6">
-        <v>0.9504340702559787</v>
+        <v>0.8613103389638211</v>
       </c>
       <c r="T6">
-        <v>0.9504340702559787</v>
+        <v>0.8816593245040066</v>
       </c>
       <c r="U6">
-        <v>0.9504340702559787</v>
+        <v>0.8823896793266965</v>
       </c>
       <c r="V6">
-        <v>0.9504340702559787</v>
+        <v>0.8996719919053306</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9590134040874513</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9590134040874513</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9590134040874513</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9590134040874513</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9711704686642088</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9879442090582041</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9879442090582041</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9879442090582041</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9879442090582041</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9879442090582041</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9883207123345977</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3589,16 +3589,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6053977441239851</v>
+        <v>0.6112352820822157</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -3630,16 +3630,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5556533964258232</v>
+        <v>0.6027762212559978</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -3671,16 +3671,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6127667893276275</v>
+        <v>0.5810397868570619</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -3712,16 +3712,16 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5747119103161775</v>
+        <v>0.6060226756995499</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6634449989512514</v>
+        <v>0.5010364719388608</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3848,16 +3848,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7503419383002736</v>
+        <v>0.8444987178650233</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -3889,16 +3889,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7234531005808598</v>
+        <v>0.8074982933712582</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -3930,16 +3930,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7441588559226093</v>
+        <v>0.7392479753811868</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -3971,16 +3971,16 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7298167566358057</v>
+        <v>0.7940348334952118</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -4012,16 +4012,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7074978925250955</v>
+        <v>0.7310486118048617</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9648912807268668</v>
+        <v>0.8444987178650233</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9157170376323186</v>
+        <v>0.8074982933712582</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -4189,16 +4189,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8357003536814336</v>
+        <v>0.8391238013273578</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -4230,16 +4230,16 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.824719422394506</v>
+        <v>0.8006550226344687</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -4271,16 +4271,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8242762272261857</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8508557243739074</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -4366,16 +4366,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9648912807268668</v>
+        <v>0.9045449952674699</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -4407,16 +4407,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9157170376323186</v>
+        <v>0.9429663775510342</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -4448,16 +4448,16 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9037900230836416</v>
+        <v>0.9114958417003671</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -4489,16 +4489,16 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9206748908679208</v>
+        <v>0.914186795574537</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -4530,16 +4530,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9504340702559787</v>
+        <v>0.9590134040874513</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>15</v>
